--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal La Palmera de La Serena - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal La Palmera de La Serena - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1183"/>
+  <dimension ref="A1:T1189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92887,7 +92887,7 @@
         </is>
       </c>
       <c r="D1157" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E1157" t="n">
         <v>4</v>
@@ -92924,32 +92924,32 @@
         </is>
       </c>
       <c r="M1157" t="n">
-        <v>660</v>
+        <v>600</v>
       </c>
       <c r="N1157" t="n">
-        <v>7800</v>
+        <v>2800</v>
       </c>
       <c r="O1157" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="P1157" t="n">
-        <v>7900</v>
+        <v>2900</v>
       </c>
       <c r="Q1157" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R1157" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1157" t="n">
-        <v>439</v>
+        <v>181</v>
       </c>
       <c r="T1157" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1158">
@@ -92967,7 +92967,7 @@
         </is>
       </c>
       <c r="D1158" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E1158" t="n">
         <v>4</v>
@@ -93000,24 +93000,24 @@
       </c>
       <c r="L1158" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1158" t="n">
-        <v>510</v>
+        <v>750</v>
       </c>
       <c r="N1158" t="n">
-        <v>5800</v>
+        <v>2800</v>
       </c>
       <c r="O1158" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="P1158" t="n">
-        <v>5900</v>
+        <v>2900</v>
       </c>
       <c r="Q1158" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R1158" t="inlineStr">
@@ -93026,10 +93026,10 @@
         </is>
       </c>
       <c r="S1158" t="n">
-        <v>328</v>
+        <v>181</v>
       </c>
       <c r="T1158" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1159">
@@ -93047,7 +93047,7 @@
         </is>
       </c>
       <c r="D1159" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E1159" t="n">
         <v>4</v>
@@ -93080,36 +93080,36 @@
       </c>
       <c r="L1159" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1159" t="n">
-        <v>450</v>
+        <v>540</v>
       </c>
       <c r="N1159" t="n">
-        <v>3800</v>
+        <v>1800</v>
       </c>
       <c r="O1159" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="P1159" t="n">
-        <v>3900</v>
+        <v>1900</v>
       </c>
       <c r="Q1159" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R1159" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1159" t="n">
-        <v>217</v>
+        <v>119</v>
       </c>
       <c r="T1159" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1160">
@@ -93127,7 +93127,7 @@
         </is>
       </c>
       <c r="D1160" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E1160" t="n">
         <v>4</v>
@@ -93160,20 +93160,20 @@
       </c>
       <c r="L1160" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1160" t="n">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="N1160" t="n">
-        <v>15800</v>
+        <v>1800</v>
       </c>
       <c r="O1160" t="n">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="P1160" t="n">
-        <v>15900</v>
+        <v>1900</v>
       </c>
       <c r="Q1160" t="inlineStr">
         <is>
@@ -93182,11 +93182,11 @@
       </c>
       <c r="R1160" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1160" t="n">
-        <v>994</v>
+        <v>119</v>
       </c>
       <c r="T1160" t="n">
         <v>16</v>
@@ -93207,7 +93207,7 @@
         </is>
       </c>
       <c r="D1161" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E1161" t="n">
         <v>4</v>
@@ -93240,20 +93240,20 @@
       </c>
       <c r="L1161" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1161" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="N1161" t="n">
-        <v>15800</v>
+        <v>800</v>
       </c>
       <c r="O1161" t="n">
-        <v>16000</v>
+        <v>1000</v>
       </c>
       <c r="P1161" t="n">
-        <v>15900</v>
+        <v>900</v>
       </c>
       <c r="Q1161" t="inlineStr">
         <is>
@@ -93262,11 +93262,11 @@
       </c>
       <c r="R1161" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1161" t="n">
-        <v>994</v>
+        <v>56</v>
       </c>
       <c r="T1161" t="n">
         <v>16</v>
@@ -93287,7 +93287,7 @@
         </is>
       </c>
       <c r="D1162" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E1162" t="n">
         <v>4</v>
@@ -93320,20 +93320,20 @@
       </c>
       <c r="L1162" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1162" t="n">
         <v>450</v>
       </c>
       <c r="N1162" t="n">
-        <v>16800</v>
+        <v>800</v>
       </c>
       <c r="O1162" t="n">
-        <v>17000</v>
+        <v>1000</v>
       </c>
       <c r="P1162" t="n">
-        <v>16900</v>
+        <v>900</v>
       </c>
       <c r="Q1162" t="inlineStr">
         <is>
@@ -93342,11 +93342,11 @@
       </c>
       <c r="R1162" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1162" t="n">
-        <v>1056</v>
+        <v>56</v>
       </c>
       <c r="T1162" t="n">
         <v>16</v>
@@ -93367,7 +93367,7 @@
         </is>
       </c>
       <c r="D1163" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E1163" t="n">
         <v>4</v>
@@ -93400,24 +93400,24 @@
       </c>
       <c r="L1163" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1163" t="n">
-        <v>420</v>
+        <v>660</v>
       </c>
       <c r="N1163" t="n">
-        <v>16800</v>
+        <v>7800</v>
       </c>
       <c r="O1163" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="P1163" t="n">
-        <v>16900</v>
+        <v>7900</v>
       </c>
       <c r="Q1163" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1163" t="inlineStr">
@@ -93426,10 +93426,10 @@
         </is>
       </c>
       <c r="S1163" t="n">
-        <v>1056</v>
+        <v>439</v>
       </c>
       <c r="T1163" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1164">
@@ -93447,7 +93447,7 @@
         </is>
       </c>
       <c r="D1164" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E1164" t="n">
         <v>4</v>
@@ -93484,32 +93484,32 @@
         </is>
       </c>
       <c r="M1164" t="n">
-        <v>450</v>
+        <v>510</v>
       </c>
       <c r="N1164" t="n">
-        <v>13800</v>
+        <v>5800</v>
       </c>
       <c r="O1164" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="P1164" t="n">
-        <v>13900</v>
+        <v>5900</v>
       </c>
       <c r="Q1164" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1164" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1164" t="n">
-        <v>869</v>
+        <v>328</v>
       </c>
       <c r="T1164" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1165">
@@ -93527,7 +93527,7 @@
         </is>
       </c>
       <c r="D1165" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E1165" t="n">
         <v>4</v>
@@ -93560,24 +93560,24 @@
       </c>
       <c r="L1165" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1165" t="n">
-        <v>490</v>
+        <v>450</v>
       </c>
       <c r="N1165" t="n">
-        <v>13800</v>
+        <v>3800</v>
       </c>
       <c r="O1165" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="P1165" t="n">
-        <v>13900</v>
+        <v>3900</v>
       </c>
       <c r="Q1165" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1165" t="inlineStr">
@@ -93586,10 +93586,10 @@
         </is>
       </c>
       <c r="S1165" t="n">
-        <v>869</v>
+        <v>217</v>
       </c>
       <c r="T1165" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1166">
@@ -93640,11 +93640,11 @@
       </c>
       <c r="L1166" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1166" t="n">
-        <v>360</v>
+        <v>540</v>
       </c>
       <c r="N1166" t="n">
         <v>15800</v>
@@ -93720,11 +93720,11 @@
       </c>
       <c r="L1167" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1167" t="n">
-        <v>390</v>
+        <v>600</v>
       </c>
       <c r="N1167" t="n">
         <v>15800</v>
@@ -93800,20 +93800,20 @@
       </c>
       <c r="L1168" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1168" t="n">
-        <v>348</v>
+        <v>450</v>
       </c>
       <c r="N1168" t="n">
-        <v>10800</v>
+        <v>16800</v>
       </c>
       <c r="O1168" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P1168" t="n">
-        <v>10898</v>
+        <v>16900</v>
       </c>
       <c r="Q1168" t="inlineStr">
         <is>
@@ -93826,7 +93826,7 @@
         </is>
       </c>
       <c r="S1168" t="n">
-        <v>681</v>
+        <v>1056</v>
       </c>
       <c r="T1168" t="n">
         <v>16</v>
@@ -93880,20 +93880,20 @@
       </c>
       <c r="L1169" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1169" t="n">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="N1169" t="n">
-        <v>10800</v>
+        <v>16800</v>
       </c>
       <c r="O1169" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P1169" t="n">
-        <v>10900</v>
+        <v>16900</v>
       </c>
       <c r="Q1169" t="inlineStr">
         <is>
@@ -93906,7 +93906,7 @@
         </is>
       </c>
       <c r="S1169" t="n">
-        <v>681</v>
+        <v>1056</v>
       </c>
       <c r="T1169" t="n">
         <v>16</v>
@@ -93960,20 +93960,20 @@
       </c>
       <c r="L1170" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1170" t="n">
-        <v>240</v>
+        <v>450</v>
       </c>
       <c r="N1170" t="n">
-        <v>12800</v>
+        <v>13800</v>
       </c>
       <c r="O1170" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P1170" t="n">
-        <v>12900</v>
+        <v>13900</v>
       </c>
       <c r="Q1170" t="inlineStr">
         <is>
@@ -93986,7 +93986,7 @@
         </is>
       </c>
       <c r="S1170" t="n">
-        <v>806</v>
+        <v>869</v>
       </c>
       <c r="T1170" t="n">
         <v>16</v>
@@ -94040,20 +94040,20 @@
       </c>
       <c r="L1171" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1171" t="n">
-        <v>300</v>
+        <v>490</v>
       </c>
       <c r="N1171" t="n">
-        <v>12800</v>
+        <v>13800</v>
       </c>
       <c r="O1171" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P1171" t="n">
-        <v>12900</v>
+        <v>13900</v>
       </c>
       <c r="Q1171" t="inlineStr">
         <is>
@@ -94066,7 +94066,7 @@
         </is>
       </c>
       <c r="S1171" t="n">
-        <v>806</v>
+        <v>869</v>
       </c>
       <c r="T1171" t="n">
         <v>16</v>
@@ -94087,7 +94087,7 @@
         </is>
       </c>
       <c r="D1172" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1172" t="n">
         <v>4</v>
@@ -94120,20 +94120,20 @@
       </c>
       <c r="L1172" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1172" t="n">
-        <v>540</v>
+        <v>360</v>
       </c>
       <c r="N1172" t="n">
-        <v>3000</v>
+        <v>15800</v>
       </c>
       <c r="O1172" t="n">
-        <v>3200</v>
+        <v>16000</v>
       </c>
       <c r="P1172" t="n">
-        <v>3100</v>
+        <v>15900</v>
       </c>
       <c r="Q1172" t="inlineStr">
         <is>
@@ -94146,7 +94146,7 @@
         </is>
       </c>
       <c r="S1172" t="n">
-        <v>194</v>
+        <v>994</v>
       </c>
       <c r="T1172" t="n">
         <v>16</v>
@@ -94167,7 +94167,7 @@
         </is>
       </c>
       <c r="D1173" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1173" t="n">
         <v>4</v>
@@ -94200,20 +94200,20 @@
       </c>
       <c r="L1173" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1173" t="n">
-        <v>660</v>
+        <v>390</v>
       </c>
       <c r="N1173" t="n">
-        <v>3000</v>
+        <v>15800</v>
       </c>
       <c r="O1173" t="n">
-        <v>3200</v>
+        <v>16000</v>
       </c>
       <c r="P1173" t="n">
-        <v>3100</v>
+        <v>15900</v>
       </c>
       <c r="Q1173" t="inlineStr">
         <is>
@@ -94226,7 +94226,7 @@
         </is>
       </c>
       <c r="S1173" t="n">
-        <v>194</v>
+        <v>994</v>
       </c>
       <c r="T1173" t="n">
         <v>16</v>
@@ -94247,7 +94247,7 @@
         </is>
       </c>
       <c r="D1174" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1174" t="n">
         <v>4</v>
@@ -94280,20 +94280,20 @@
       </c>
       <c r="L1174" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1174" t="n">
-        <v>480</v>
+        <v>348</v>
       </c>
       <c r="N1174" t="n">
-        <v>2000</v>
+        <v>10800</v>
       </c>
       <c r="O1174" t="n">
-        <v>2200</v>
+        <v>11000</v>
       </c>
       <c r="P1174" t="n">
-        <v>2100</v>
+        <v>10898</v>
       </c>
       <c r="Q1174" t="inlineStr">
         <is>
@@ -94306,7 +94306,7 @@
         </is>
       </c>
       <c r="S1174" t="n">
-        <v>131</v>
+        <v>681</v>
       </c>
       <c r="T1174" t="n">
         <v>16</v>
@@ -94327,7 +94327,7 @@
         </is>
       </c>
       <c r="D1175" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1175" t="n">
         <v>4</v>
@@ -94360,20 +94360,20 @@
       </c>
       <c r="L1175" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1175" t="n">
-        <v>580</v>
+        <v>450</v>
       </c>
       <c r="N1175" t="n">
-        <v>2000</v>
+        <v>10800</v>
       </c>
       <c r="O1175" t="n">
-        <v>2200</v>
+        <v>11000</v>
       </c>
       <c r="P1175" t="n">
-        <v>2097</v>
+        <v>10900</v>
       </c>
       <c r="Q1175" t="inlineStr">
         <is>
@@ -94386,7 +94386,7 @@
         </is>
       </c>
       <c r="S1175" t="n">
-        <v>131</v>
+        <v>681</v>
       </c>
       <c r="T1175" t="n">
         <v>16</v>
@@ -94407,7 +94407,7 @@
         </is>
       </c>
       <c r="D1176" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1176" t="n">
         <v>4</v>
@@ -94440,20 +94440,20 @@
       </c>
       <c r="L1176" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1176" t="n">
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="N1176" t="n">
-        <v>1000</v>
+        <v>12800</v>
       </c>
       <c r="O1176" t="n">
-        <v>1200</v>
+        <v>13000</v>
       </c>
       <c r="P1176" t="n">
-        <v>1106</v>
+        <v>12900</v>
       </c>
       <c r="Q1176" t="inlineStr">
         <is>
@@ -94466,7 +94466,7 @@
         </is>
       </c>
       <c r="S1176" t="n">
-        <v>69</v>
+        <v>806</v>
       </c>
       <c r="T1176" t="n">
         <v>16</v>
@@ -94487,7 +94487,7 @@
         </is>
       </c>
       <c r="D1177" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1177" t="n">
         <v>4</v>
@@ -94520,20 +94520,20 @@
       </c>
       <c r="L1177" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1177" t="n">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="N1177" t="n">
-        <v>1000</v>
+        <v>12800</v>
       </c>
       <c r="O1177" t="n">
-        <v>1200</v>
+        <v>13000</v>
       </c>
       <c r="P1177" t="n">
-        <v>1100</v>
+        <v>12900</v>
       </c>
       <c r="Q1177" t="inlineStr">
         <is>
@@ -94546,7 +94546,7 @@
         </is>
       </c>
       <c r="S1177" t="n">
-        <v>69</v>
+        <v>806</v>
       </c>
       <c r="T1177" t="n">
         <v>16</v>
@@ -94567,7 +94567,7 @@
         </is>
       </c>
       <c r="D1178" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1178" t="n">
         <v>4</v>
@@ -94604,7 +94604,7 @@
         </is>
       </c>
       <c r="M1178" t="n">
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="N1178" t="n">
         <v>3000</v>
@@ -94647,7 +94647,7 @@
         </is>
       </c>
       <c r="D1179" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1179" t="n">
         <v>4</v>
@@ -94684,7 +94684,7 @@
         </is>
       </c>
       <c r="M1179" t="n">
-        <v>750</v>
+        <v>660</v>
       </c>
       <c r="N1179" t="n">
         <v>3000</v>
@@ -94727,7 +94727,7 @@
         </is>
       </c>
       <c r="D1180" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1180" t="n">
         <v>4</v>
@@ -94764,7 +94764,7 @@
         </is>
       </c>
       <c r="M1180" t="n">
-        <v>540</v>
+        <v>480</v>
       </c>
       <c r="N1180" t="n">
         <v>2000</v>
@@ -94807,7 +94807,7 @@
         </is>
       </c>
       <c r="D1181" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1181" t="n">
         <v>4</v>
@@ -94844,7 +94844,7 @@
         </is>
       </c>
       <c r="M1181" t="n">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="N1181" t="n">
         <v>2000</v>
@@ -94853,7 +94853,7 @@
         <v>2200</v>
       </c>
       <c r="P1181" t="n">
-        <v>2100</v>
+        <v>2097</v>
       </c>
       <c r="Q1181" t="inlineStr">
         <is>
@@ -94887,7 +94887,7 @@
         </is>
       </c>
       <c r="D1182" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1182" t="n">
         <v>4</v>
@@ -94924,7 +94924,7 @@
         </is>
       </c>
       <c r="M1182" t="n">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="N1182" t="n">
         <v>1000</v>
@@ -94933,7 +94933,7 @@
         <v>1200</v>
       </c>
       <c r="P1182" t="n">
-        <v>1100</v>
+        <v>1106</v>
       </c>
       <c r="Q1182" t="inlineStr">
         <is>
@@ -94967,7 +94967,7 @@
         </is>
       </c>
       <c r="D1183" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1183" t="n">
         <v>4</v>
@@ -95013,22 +95013,502 @@
         <v>1200</v>
       </c>
       <c r="P1183" t="n">
+        <v>1100</v>
+      </c>
+      <c r="Q1183" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R1183" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S1183" t="n">
+        <v>69</v>
+      </c>
+      <c r="T1183" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1184" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1184" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1184" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1184" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1184" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1184" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1184" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1184" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1184" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1184" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1184" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M1184" t="n">
+        <v>600</v>
+      </c>
+      <c r="N1184" t="n">
+        <v>3000</v>
+      </c>
+      <c r="O1184" t="n">
+        <v>3200</v>
+      </c>
+      <c r="P1184" t="n">
+        <v>3100</v>
+      </c>
+      <c r="Q1184" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R1184" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S1184" t="n">
+        <v>194</v>
+      </c>
+      <c r="T1184" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1185" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1185" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1185" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1185" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1185" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1185" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1185" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1185" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1185" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1185" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1185" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M1185" t="n">
+        <v>750</v>
+      </c>
+      <c r="N1185" t="n">
+        <v>3000</v>
+      </c>
+      <c r="O1185" t="n">
+        <v>3200</v>
+      </c>
+      <c r="P1185" t="n">
+        <v>3100</v>
+      </c>
+      <c r="Q1185" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R1185" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S1185" t="n">
+        <v>194</v>
+      </c>
+      <c r="T1185" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1186" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1186" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1186" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1186" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1186" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1186" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1186" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1186" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1186" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1186" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1186" t="inlineStr">
+        <is>
+          <t>2a amarillo</t>
+        </is>
+      </c>
+      <c r="M1186" t="n">
+        <v>540</v>
+      </c>
+      <c r="N1186" t="n">
+        <v>2000</v>
+      </c>
+      <c r="O1186" t="n">
+        <v>2200</v>
+      </c>
+      <c r="P1186" t="n">
+        <v>2100</v>
+      </c>
+      <c r="Q1186" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R1186" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S1186" t="n">
+        <v>131</v>
+      </c>
+      <c r="T1186" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1187" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1187" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1187" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1187" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1187" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1187" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1187" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1187" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1187" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1187" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1187" t="inlineStr">
+        <is>
+          <t>2a amarillo</t>
+        </is>
+      </c>
+      <c r="M1187" t="n">
+        <v>600</v>
+      </c>
+      <c r="N1187" t="n">
+        <v>2000</v>
+      </c>
+      <c r="O1187" t="n">
+        <v>2200</v>
+      </c>
+      <c r="P1187" t="n">
+        <v>2100</v>
+      </c>
+      <c r="Q1187" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R1187" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S1187" t="n">
+        <v>131</v>
+      </c>
+      <c r="T1187" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1188" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1188" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1188" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1188" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1188" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1188" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1188" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1188" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1188" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1188" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1188" t="inlineStr">
+        <is>
+          <t>3a amarillo</t>
+        </is>
+      </c>
+      <c r="M1188" t="n">
+        <v>360</v>
+      </c>
+      <c r="N1188" t="n">
+        <v>1000</v>
+      </c>
+      <c r="O1188" t="n">
+        <v>1200</v>
+      </c>
+      <c r="P1188" t="n">
+        <v>1100</v>
+      </c>
+      <c r="Q1188" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R1188" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S1188" t="n">
+        <v>69</v>
+      </c>
+      <c r="T1188" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1189" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1189" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1189" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1189" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1189" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1189" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1189" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1189" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1189" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1189" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1189" t="inlineStr">
+        <is>
+          <t>3a amarillo</t>
+        </is>
+      </c>
+      <c r="M1189" t="n">
+        <v>420</v>
+      </c>
+      <c r="N1189" t="n">
+        <v>1000</v>
+      </c>
+      <c r="O1189" t="n">
+        <v>1200</v>
+      </c>
+      <c r="P1189" t="n">
         <v>1093</v>
       </c>
-      <c r="Q1183" t="inlineStr">
-        <is>
-          <t>$/malla 16 kilos</t>
-        </is>
-      </c>
-      <c r="R1183" t="inlineStr">
+      <c r="Q1189" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R1189" t="inlineStr">
         <is>
           <t>Provincia del Elquí</t>
         </is>
       </c>
-      <c r="S1183" t="n">
+      <c r="S1189" t="n">
         <v>68</v>
       </c>
-      <c r="T1183" t="n">
+      <c r="T1189" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal La Palmera de La Serena - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal La Palmera de La Serena - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1189"/>
+  <dimension ref="A1:T1195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86807,7 +86807,7 @@
         </is>
       </c>
       <c r="D1081" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E1081" t="n">
         <v>4</v>
@@ -86844,20 +86844,20 @@
         </is>
       </c>
       <c r="M1081" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="N1081" t="n">
-        <v>7800</v>
+        <v>2800</v>
       </c>
       <c r="O1081" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="P1081" t="n">
-        <v>7900</v>
+        <v>2900</v>
       </c>
       <c r="Q1081" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R1081" t="inlineStr">
@@ -86866,10 +86866,10 @@
         </is>
       </c>
       <c r="S1081" t="n">
-        <v>439</v>
+        <v>181</v>
       </c>
       <c r="T1081" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1082">
@@ -86887,7 +86887,7 @@
         </is>
       </c>
       <c r="D1082" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E1082" t="n">
         <v>4</v>
@@ -86924,20 +86924,20 @@
         </is>
       </c>
       <c r="M1082" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="N1082" t="n">
-        <v>7800</v>
+        <v>2800</v>
       </c>
       <c r="O1082" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="P1082" t="n">
-        <v>7900</v>
+        <v>2900</v>
       </c>
       <c r="Q1082" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R1082" t="inlineStr">
@@ -86946,10 +86946,10 @@
         </is>
       </c>
       <c r="S1082" t="n">
-        <v>439</v>
+        <v>181</v>
       </c>
       <c r="T1082" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1083">
@@ -86967,7 +86967,7 @@
         </is>
       </c>
       <c r="D1083" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E1083" t="n">
         <v>4</v>
@@ -87004,20 +87004,20 @@
         </is>
       </c>
       <c r="M1083" t="n">
-        <v>420</v>
+        <v>540</v>
       </c>
       <c r="N1083" t="n">
-        <v>5800</v>
+        <v>1800</v>
       </c>
       <c r="O1083" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="P1083" t="n">
-        <v>5893</v>
+        <v>1900</v>
       </c>
       <c r="Q1083" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R1083" t="inlineStr">
@@ -87026,10 +87026,10 @@
         </is>
       </c>
       <c r="S1083" t="n">
-        <v>327</v>
+        <v>119</v>
       </c>
       <c r="T1083" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1084">
@@ -87047,7 +87047,7 @@
         </is>
       </c>
       <c r="D1084" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E1084" t="n">
         <v>4</v>
@@ -87084,20 +87084,20 @@
         </is>
       </c>
       <c r="M1084" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="N1084" t="n">
-        <v>5800</v>
+        <v>1800</v>
       </c>
       <c r="O1084" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="P1084" t="n">
-        <v>5900</v>
+        <v>1900</v>
       </c>
       <c r="Q1084" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R1084" t="inlineStr">
@@ -87106,10 +87106,10 @@
         </is>
       </c>
       <c r="S1084" t="n">
-        <v>328</v>
+        <v>119</v>
       </c>
       <c r="T1084" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1085">
@@ -87127,7 +87127,7 @@
         </is>
       </c>
       <c r="D1085" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E1085" t="n">
         <v>4</v>
@@ -87164,20 +87164,20 @@
         </is>
       </c>
       <c r="M1085" t="n">
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="N1085" t="n">
-        <v>3800</v>
+        <v>800</v>
       </c>
       <c r="O1085" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="P1085" t="n">
-        <v>3900</v>
+        <v>900</v>
       </c>
       <c r="Q1085" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R1085" t="inlineStr">
@@ -87186,10 +87186,10 @@
         </is>
       </c>
       <c r="S1085" t="n">
-        <v>217</v>
+        <v>56</v>
       </c>
       <c r="T1085" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1086">
@@ -87207,7 +87207,7 @@
         </is>
       </c>
       <c r="D1086" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E1086" t="n">
         <v>4</v>
@@ -87244,20 +87244,20 @@
         </is>
       </c>
       <c r="M1086" t="n">
-        <v>450</v>
+        <v>510</v>
       </c>
       <c r="N1086" t="n">
-        <v>3800</v>
+        <v>800</v>
       </c>
       <c r="O1086" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="P1086" t="n">
-        <v>3900</v>
+        <v>894</v>
       </c>
       <c r="Q1086" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R1086" t="inlineStr">
@@ -87266,10 +87266,10 @@
         </is>
       </c>
       <c r="S1086" t="n">
-        <v>217</v>
+        <v>56</v>
       </c>
       <c r="T1086" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1087">
@@ -87287,7 +87287,7 @@
         </is>
       </c>
       <c r="D1087" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E1087" t="n">
         <v>4</v>
@@ -87324,20 +87324,20 @@
         </is>
       </c>
       <c r="M1087" t="n">
-        <v>540</v>
+        <v>450</v>
       </c>
       <c r="N1087" t="n">
-        <v>2800</v>
+        <v>7800</v>
       </c>
       <c r="O1087" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="P1087" t="n">
-        <v>2900</v>
+        <v>7900</v>
       </c>
       <c r="Q1087" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1087" t="inlineStr">
@@ -87346,10 +87346,10 @@
         </is>
       </c>
       <c r="S1087" t="n">
-        <v>181</v>
+        <v>439</v>
       </c>
       <c r="T1087" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1088">
@@ -87367,7 +87367,7 @@
         </is>
       </c>
       <c r="D1088" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E1088" t="n">
         <v>4</v>
@@ -87407,17 +87407,17 @@
         <v>600</v>
       </c>
       <c r="N1088" t="n">
-        <v>2800</v>
+        <v>7800</v>
       </c>
       <c r="O1088" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="P1088" t="n">
-        <v>2900</v>
+        <v>7900</v>
       </c>
       <c r="Q1088" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1088" t="inlineStr">
@@ -87426,10 +87426,10 @@
         </is>
       </c>
       <c r="S1088" t="n">
-        <v>181</v>
+        <v>439</v>
       </c>
       <c r="T1088" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1089">
@@ -87447,7 +87447,7 @@
         </is>
       </c>
       <c r="D1089" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E1089" t="n">
         <v>4</v>
@@ -87484,20 +87484,20 @@
         </is>
       </c>
       <c r="M1089" t="n">
-        <v>480</v>
+        <v>420</v>
       </c>
       <c r="N1089" t="n">
-        <v>1800</v>
+        <v>5800</v>
       </c>
       <c r="O1089" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="P1089" t="n">
-        <v>1906</v>
+        <v>5893</v>
       </c>
       <c r="Q1089" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1089" t="inlineStr">
@@ -87506,10 +87506,10 @@
         </is>
       </c>
       <c r="S1089" t="n">
-        <v>119</v>
+        <v>327</v>
       </c>
       <c r="T1089" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1090">
@@ -87527,7 +87527,7 @@
         </is>
       </c>
       <c r="D1090" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E1090" t="n">
         <v>4</v>
@@ -87564,20 +87564,20 @@
         </is>
       </c>
       <c r="M1090" t="n">
-        <v>540</v>
+        <v>560</v>
       </c>
       <c r="N1090" t="n">
-        <v>1800</v>
+        <v>5800</v>
       </c>
       <c r="O1090" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="P1090" t="n">
-        <v>1900</v>
+        <v>5900</v>
       </c>
       <c r="Q1090" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1090" t="inlineStr">
@@ -87586,10 +87586,10 @@
         </is>
       </c>
       <c r="S1090" t="n">
-        <v>119</v>
+        <v>328</v>
       </c>
       <c r="T1090" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1091">
@@ -87607,7 +87607,7 @@
         </is>
       </c>
       <c r="D1091" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E1091" t="n">
         <v>4</v>
@@ -87647,17 +87647,17 @@
         <v>360</v>
       </c>
       <c r="N1091" t="n">
-        <v>800</v>
+        <v>3800</v>
       </c>
       <c r="O1091" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="P1091" t="n">
-        <v>900</v>
+        <v>3900</v>
       </c>
       <c r="Q1091" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1091" t="inlineStr">
@@ -87666,10 +87666,10 @@
         </is>
       </c>
       <c r="S1091" t="n">
-        <v>56</v>
+        <v>217</v>
       </c>
       <c r="T1091" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1092">
@@ -87687,7 +87687,7 @@
         </is>
       </c>
       <c r="D1092" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E1092" t="n">
         <v>4</v>
@@ -87724,20 +87724,20 @@
         </is>
       </c>
       <c r="M1092" t="n">
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="N1092" t="n">
-        <v>800</v>
+        <v>3800</v>
       </c>
       <c r="O1092" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="P1092" t="n">
-        <v>900</v>
+        <v>3900</v>
       </c>
       <c r="Q1092" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1092" t="inlineStr">
@@ -87746,10 +87746,10 @@
         </is>
       </c>
       <c r="S1092" t="n">
-        <v>56</v>
+        <v>217</v>
       </c>
       <c r="T1092" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1093">
@@ -87767,7 +87767,7 @@
         </is>
       </c>
       <c r="D1093" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E1093" t="n">
         <v>4</v>
@@ -87804,16 +87804,16 @@
         </is>
       </c>
       <c r="M1093" t="n">
-        <v>750</v>
+        <v>540</v>
       </c>
       <c r="N1093" t="n">
-        <v>14800</v>
+        <v>2800</v>
       </c>
       <c r="O1093" t="n">
-        <v>15000</v>
+        <v>3000</v>
       </c>
       <c r="P1093" t="n">
-        <v>14900</v>
+        <v>2900</v>
       </c>
       <c r="Q1093" t="inlineStr">
         <is>
@@ -87822,11 +87822,11 @@
       </c>
       <c r="R1093" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1093" t="n">
-        <v>931</v>
+        <v>181</v>
       </c>
       <c r="T1093" t="n">
         <v>16</v>
@@ -87847,7 +87847,7 @@
         </is>
       </c>
       <c r="D1094" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E1094" t="n">
         <v>4</v>
@@ -87880,20 +87880,20 @@
       </c>
       <c r="L1094" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1094" t="n">
         <v>600</v>
       </c>
       <c r="N1094" t="n">
-        <v>15800</v>
+        <v>2800</v>
       </c>
       <c r="O1094" t="n">
-        <v>16000</v>
+        <v>3000</v>
       </c>
       <c r="P1094" t="n">
-        <v>15900</v>
+        <v>2900</v>
       </c>
       <c r="Q1094" t="inlineStr">
         <is>
@@ -87906,7 +87906,7 @@
         </is>
       </c>
       <c r="S1094" t="n">
-        <v>994</v>
+        <v>181</v>
       </c>
       <c r="T1094" t="n">
         <v>16</v>
@@ -87927,7 +87927,7 @@
         </is>
       </c>
       <c r="D1095" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E1095" t="n">
         <v>4</v>
@@ -87964,16 +87964,16 @@
         </is>
       </c>
       <c r="M1095" t="n">
-        <v>540</v>
+        <v>480</v>
       </c>
       <c r="N1095" t="n">
-        <v>11800</v>
+        <v>1800</v>
       </c>
       <c r="O1095" t="n">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="P1095" t="n">
-        <v>11900</v>
+        <v>1906</v>
       </c>
       <c r="Q1095" t="inlineStr">
         <is>
@@ -87982,11 +87982,11 @@
       </c>
       <c r="R1095" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1095" t="n">
-        <v>744</v>
+        <v>119</v>
       </c>
       <c r="T1095" t="n">
         <v>16</v>
@@ -88007,7 +88007,7 @@
         </is>
       </c>
       <c r="D1096" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E1096" t="n">
         <v>4</v>
@@ -88040,20 +88040,20 @@
       </c>
       <c r="L1096" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1096" t="n">
-        <v>450</v>
+        <v>540</v>
       </c>
       <c r="N1096" t="n">
-        <v>12800</v>
+        <v>1800</v>
       </c>
       <c r="O1096" t="n">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="P1096" t="n">
-        <v>12900</v>
+        <v>1900</v>
       </c>
       <c r="Q1096" t="inlineStr">
         <is>
@@ -88066,7 +88066,7 @@
         </is>
       </c>
       <c r="S1096" t="n">
-        <v>806</v>
+        <v>119</v>
       </c>
       <c r="T1096" t="n">
         <v>16</v>
@@ -88087,7 +88087,7 @@
         </is>
       </c>
       <c r="D1097" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E1097" t="n">
         <v>4</v>
@@ -88127,13 +88127,13 @@
         <v>360</v>
       </c>
       <c r="N1097" t="n">
-        <v>9800</v>
+        <v>800</v>
       </c>
       <c r="O1097" t="n">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="P1097" t="n">
-        <v>9900</v>
+        <v>900</v>
       </c>
       <c r="Q1097" t="inlineStr">
         <is>
@@ -88142,11 +88142,11 @@
       </c>
       <c r="R1097" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1097" t="n">
-        <v>619</v>
+        <v>56</v>
       </c>
       <c r="T1097" t="n">
         <v>16</v>
@@ -88167,7 +88167,7 @@
         </is>
       </c>
       <c r="D1098" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E1098" t="n">
         <v>4</v>
@@ -88200,20 +88200,20 @@
       </c>
       <c r="L1098" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1098" t="n">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="N1098" t="n">
-        <v>2800</v>
+        <v>800</v>
       </c>
       <c r="O1098" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="P1098" t="n">
-        <v>2900</v>
+        <v>900</v>
       </c>
       <c r="Q1098" t="inlineStr">
         <is>
@@ -88222,11 +88222,11 @@
       </c>
       <c r="R1098" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1098" t="n">
-        <v>181</v>
+        <v>56</v>
       </c>
       <c r="T1098" t="n">
         <v>16</v>
@@ -88247,7 +88247,7 @@
         </is>
       </c>
       <c r="D1099" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E1099" t="n">
         <v>4</v>
@@ -88287,13 +88287,13 @@
         <v>750</v>
       </c>
       <c r="N1099" t="n">
-        <v>2800</v>
+        <v>14800</v>
       </c>
       <c r="O1099" t="n">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="P1099" t="n">
-        <v>2900</v>
+        <v>14900</v>
       </c>
       <c r="Q1099" t="inlineStr">
         <is>
@@ -88306,7 +88306,7 @@
         </is>
       </c>
       <c r="S1099" t="n">
-        <v>181</v>
+        <v>931</v>
       </c>
       <c r="T1099" t="n">
         <v>16</v>
@@ -88327,7 +88327,7 @@
         </is>
       </c>
       <c r="D1100" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E1100" t="n">
         <v>4</v>
@@ -88360,20 +88360,20 @@
       </c>
       <c r="L1100" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1100" t="n">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="N1100" t="n">
-        <v>1800</v>
+        <v>15800</v>
       </c>
       <c r="O1100" t="n">
-        <v>2000</v>
+        <v>16000</v>
       </c>
       <c r="P1100" t="n">
-        <v>1900</v>
+        <v>15900</v>
       </c>
       <c r="Q1100" t="inlineStr">
         <is>
@@ -88382,11 +88382,11 @@
       </c>
       <c r="R1100" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1100" t="n">
-        <v>119</v>
+        <v>994</v>
       </c>
       <c r="T1100" t="n">
         <v>16</v>
@@ -88407,7 +88407,7 @@
         </is>
       </c>
       <c r="D1101" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E1101" t="n">
         <v>4</v>
@@ -88444,16 +88444,16 @@
         </is>
       </c>
       <c r="M1101" t="n">
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="N1101" t="n">
-        <v>1800</v>
+        <v>11800</v>
       </c>
       <c r="O1101" t="n">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="P1101" t="n">
-        <v>1900</v>
+        <v>11900</v>
       </c>
       <c r="Q1101" t="inlineStr">
         <is>
@@ -88466,7 +88466,7 @@
         </is>
       </c>
       <c r="S1101" t="n">
-        <v>119</v>
+        <v>744</v>
       </c>
       <c r="T1101" t="n">
         <v>16</v>
@@ -88487,7 +88487,7 @@
         </is>
       </c>
       <c r="D1102" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E1102" t="n">
         <v>4</v>
@@ -88520,20 +88520,20 @@
       </c>
       <c r="L1102" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1102" t="n">
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="N1102" t="n">
-        <v>800</v>
+        <v>12800</v>
       </c>
       <c r="O1102" t="n">
-        <v>1000</v>
+        <v>13000</v>
       </c>
       <c r="P1102" t="n">
-        <v>900</v>
+        <v>12900</v>
       </c>
       <c r="Q1102" t="inlineStr">
         <is>
@@ -88542,11 +88542,11 @@
       </c>
       <c r="R1102" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1102" t="n">
-        <v>56</v>
+        <v>806</v>
       </c>
       <c r="T1102" t="n">
         <v>16</v>
@@ -88567,7 +88567,7 @@
         </is>
       </c>
       <c r="D1103" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E1103" t="n">
         <v>4</v>
@@ -88604,16 +88604,16 @@
         </is>
       </c>
       <c r="M1103" t="n">
-        <v>450</v>
+        <v>360</v>
       </c>
       <c r="N1103" t="n">
-        <v>800</v>
+        <v>9800</v>
       </c>
       <c r="O1103" t="n">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="P1103" t="n">
-        <v>900</v>
+        <v>9900</v>
       </c>
       <c r="Q1103" t="inlineStr">
         <is>
@@ -88626,7 +88626,7 @@
         </is>
       </c>
       <c r="S1103" t="n">
-        <v>56</v>
+        <v>619</v>
       </c>
       <c r="T1103" t="n">
         <v>16</v>
@@ -88647,7 +88647,7 @@
         </is>
       </c>
       <c r="D1104" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E1104" t="n">
         <v>4</v>
@@ -88727,7 +88727,7 @@
         </is>
       </c>
       <c r="D1105" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E1105" t="n">
         <v>4</v>
@@ -88807,7 +88807,7 @@
         </is>
       </c>
       <c r="D1106" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E1106" t="n">
         <v>4</v>
@@ -88887,7 +88887,7 @@
         </is>
       </c>
       <c r="D1107" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E1107" t="n">
         <v>4</v>
@@ -88924,7 +88924,7 @@
         </is>
       </c>
       <c r="M1107" t="n">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="N1107" t="n">
         <v>1800</v>
@@ -88967,7 +88967,7 @@
         </is>
       </c>
       <c r="D1108" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E1108" t="n">
         <v>4</v>
@@ -89004,7 +89004,7 @@
         </is>
       </c>
       <c r="M1108" t="n">
-        <v>450</v>
+        <v>360</v>
       </c>
       <c r="N1108" t="n">
         <v>800</v>
@@ -89047,7 +89047,7 @@
         </is>
       </c>
       <c r="D1109" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E1109" t="n">
         <v>4</v>
@@ -89084,7 +89084,7 @@
         </is>
       </c>
       <c r="M1109" t="n">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="N1109" t="n">
         <v>800</v>
@@ -89127,7 +89127,7 @@
         </is>
       </c>
       <c r="D1110" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E1110" t="n">
         <v>4</v>
@@ -89164,16 +89164,16 @@
         </is>
       </c>
       <c r="M1110" t="n">
-        <v>2900</v>
+        <v>600</v>
       </c>
       <c r="N1110" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="O1110" t="n">
         <v>3000</v>
       </c>
       <c r="P1110" t="n">
-        <v>2776</v>
+        <v>2900</v>
       </c>
       <c r="Q1110" t="inlineStr">
         <is>
@@ -89186,7 +89186,7 @@
         </is>
       </c>
       <c r="S1110" t="n">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="T1110" t="n">
         <v>16</v>
@@ -89207,7 +89207,7 @@
         </is>
       </c>
       <c r="D1111" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E1111" t="n">
         <v>4</v>
@@ -89244,16 +89244,16 @@
         </is>
       </c>
       <c r="M1111" t="n">
-        <v>3470</v>
+        <v>750</v>
       </c>
       <c r="N1111" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="O1111" t="n">
         <v>3000</v>
       </c>
       <c r="P1111" t="n">
-        <v>2770</v>
+        <v>2900</v>
       </c>
       <c r="Q1111" t="inlineStr">
         <is>
@@ -89266,7 +89266,7 @@
         </is>
       </c>
       <c r="S1111" t="n">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="T1111" t="n">
         <v>16</v>
@@ -89287,7 +89287,7 @@
         </is>
       </c>
       <c r="D1112" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E1112" t="n">
         <v>4</v>
@@ -89324,16 +89324,16 @@
         </is>
       </c>
       <c r="M1112" t="n">
-        <v>2550</v>
+        <v>540</v>
       </c>
       <c r="N1112" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="O1112" t="n">
         <v>2000</v>
       </c>
       <c r="P1112" t="n">
-        <v>1773</v>
+        <v>1900</v>
       </c>
       <c r="Q1112" t="inlineStr">
         <is>
@@ -89346,7 +89346,7 @@
         </is>
       </c>
       <c r="S1112" t="n">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="T1112" t="n">
         <v>16</v>
@@ -89367,7 +89367,7 @@
         </is>
       </c>
       <c r="D1113" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E1113" t="n">
         <v>4</v>
@@ -89404,16 +89404,16 @@
         </is>
       </c>
       <c r="M1113" t="n">
-        <v>2880</v>
+        <v>540</v>
       </c>
       <c r="N1113" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="O1113" t="n">
         <v>2000</v>
       </c>
       <c r="P1113" t="n">
-        <v>1775</v>
+        <v>1900</v>
       </c>
       <c r="Q1113" t="inlineStr">
         <is>
@@ -89426,7 +89426,7 @@
         </is>
       </c>
       <c r="S1113" t="n">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="T1113" t="n">
         <v>16</v>
@@ -89447,7 +89447,7 @@
         </is>
       </c>
       <c r="D1114" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E1114" t="n">
         <v>4</v>
@@ -89484,7 +89484,7 @@
         </is>
       </c>
       <c r="M1114" t="n">
-        <v>1860</v>
+        <v>450</v>
       </c>
       <c r="N1114" t="n">
         <v>800</v>
@@ -89493,7 +89493,7 @@
         <v>1000</v>
       </c>
       <c r="P1114" t="n">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="Q1114" t="inlineStr">
         <is>
@@ -89527,7 +89527,7 @@
         </is>
       </c>
       <c r="D1115" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E1115" t="n">
         <v>4</v>
@@ -89564,7 +89564,7 @@
         </is>
       </c>
       <c r="M1115" t="n">
-        <v>2200</v>
+        <v>470</v>
       </c>
       <c r="N1115" t="n">
         <v>800</v>
@@ -89573,7 +89573,7 @@
         <v>1000</v>
       </c>
       <c r="P1115" t="n">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="Q1115" t="inlineStr">
         <is>
@@ -89607,7 +89607,7 @@
         </is>
       </c>
       <c r="D1116" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E1116" t="n">
         <v>4</v>
@@ -89644,16 +89644,16 @@
         </is>
       </c>
       <c r="M1116" t="n">
-        <v>510</v>
+        <v>2900</v>
       </c>
       <c r="N1116" t="n">
-        <v>11800</v>
+        <v>2500</v>
       </c>
       <c r="O1116" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="P1116" t="n">
-        <v>11900</v>
+        <v>2776</v>
       </c>
       <c r="Q1116" t="inlineStr">
         <is>
@@ -89666,7 +89666,7 @@
         </is>
       </c>
       <c r="S1116" t="n">
-        <v>744</v>
+        <v>174</v>
       </c>
       <c r="T1116" t="n">
         <v>16</v>
@@ -89687,7 +89687,7 @@
         </is>
       </c>
       <c r="D1117" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E1117" t="n">
         <v>4</v>
@@ -89724,16 +89724,16 @@
         </is>
       </c>
       <c r="M1117" t="n">
-        <v>510</v>
+        <v>3470</v>
       </c>
       <c r="N1117" t="n">
-        <v>11800</v>
+        <v>2500</v>
       </c>
       <c r="O1117" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="P1117" t="n">
-        <v>11900</v>
+        <v>2770</v>
       </c>
       <c r="Q1117" t="inlineStr">
         <is>
@@ -89746,7 +89746,7 @@
         </is>
       </c>
       <c r="S1117" t="n">
-        <v>744</v>
+        <v>173</v>
       </c>
       <c r="T1117" t="n">
         <v>16</v>
@@ -89767,7 +89767,7 @@
         </is>
       </c>
       <c r="D1118" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E1118" t="n">
         <v>4</v>
@@ -89800,20 +89800,20 @@
       </c>
       <c r="L1118" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1118" t="n">
-        <v>390</v>
+        <v>2550</v>
       </c>
       <c r="N1118" t="n">
-        <v>12800</v>
+        <v>1500</v>
       </c>
       <c r="O1118" t="n">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="P1118" t="n">
-        <v>12908</v>
+        <v>1773</v>
       </c>
       <c r="Q1118" t="inlineStr">
         <is>
@@ -89826,7 +89826,7 @@
         </is>
       </c>
       <c r="S1118" t="n">
-        <v>807</v>
+        <v>111</v>
       </c>
       <c r="T1118" t="n">
         <v>16</v>
@@ -89847,7 +89847,7 @@
         </is>
       </c>
       <c r="D1119" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E1119" t="n">
         <v>4</v>
@@ -89880,20 +89880,20 @@
       </c>
       <c r="L1119" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1119" t="n">
-        <v>450</v>
+        <v>2880</v>
       </c>
       <c r="N1119" t="n">
-        <v>12800</v>
+        <v>1500</v>
       </c>
       <c r="O1119" t="n">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="P1119" t="n">
-        <v>12900</v>
+        <v>1775</v>
       </c>
       <c r="Q1119" t="inlineStr">
         <is>
@@ -89906,7 +89906,7 @@
         </is>
       </c>
       <c r="S1119" t="n">
-        <v>806</v>
+        <v>111</v>
       </c>
       <c r="T1119" t="n">
         <v>16</v>
@@ -89927,7 +89927,7 @@
         </is>
       </c>
       <c r="D1120" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E1120" t="n">
         <v>4</v>
@@ -89960,20 +89960,20 @@
       </c>
       <c r="L1120" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1120" t="n">
-        <v>360</v>
+        <v>1860</v>
       </c>
       <c r="N1120" t="n">
-        <v>9800</v>
+        <v>800</v>
       </c>
       <c r="O1120" t="n">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="P1120" t="n">
-        <v>9900</v>
+        <v>902</v>
       </c>
       <c r="Q1120" t="inlineStr">
         <is>
@@ -89986,7 +89986,7 @@
         </is>
       </c>
       <c r="S1120" t="n">
-        <v>619</v>
+        <v>56</v>
       </c>
       <c r="T1120" t="n">
         <v>16</v>
@@ -90007,7 +90007,7 @@
         </is>
       </c>
       <c r="D1121" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E1121" t="n">
         <v>4</v>
@@ -90040,20 +90040,20 @@
       </c>
       <c r="L1121" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1121" t="n">
-        <v>450</v>
+        <v>2200</v>
       </c>
       <c r="N1121" t="n">
-        <v>9800</v>
+        <v>800</v>
       </c>
       <c r="O1121" t="n">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="P1121" t="n">
-        <v>9900</v>
+        <v>899</v>
       </c>
       <c r="Q1121" t="inlineStr">
         <is>
@@ -90066,7 +90066,7 @@
         </is>
       </c>
       <c r="S1121" t="n">
-        <v>619</v>
+        <v>56</v>
       </c>
       <c r="T1121" t="n">
         <v>16</v>
@@ -90120,20 +90120,20 @@
       </c>
       <c r="L1122" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1122" t="n">
-        <v>420</v>
+        <v>510</v>
       </c>
       <c r="N1122" t="n">
-        <v>10800</v>
+        <v>11800</v>
       </c>
       <c r="O1122" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P1122" t="n">
-        <v>10900</v>
+        <v>11900</v>
       </c>
       <c r="Q1122" t="inlineStr">
         <is>
@@ -90146,7 +90146,7 @@
         </is>
       </c>
       <c r="S1122" t="n">
-        <v>681</v>
+        <v>744</v>
       </c>
       <c r="T1122" t="n">
         <v>16</v>
@@ -90200,20 +90200,20 @@
       </c>
       <c r="L1123" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1123" t="n">
-        <v>360</v>
+        <v>510</v>
       </c>
       <c r="N1123" t="n">
-        <v>10800</v>
+        <v>11800</v>
       </c>
       <c r="O1123" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P1123" t="n">
-        <v>10900</v>
+        <v>11900</v>
       </c>
       <c r="Q1123" t="inlineStr">
         <is>
@@ -90226,7 +90226,7 @@
         </is>
       </c>
       <c r="S1123" t="n">
-        <v>681</v>
+        <v>744</v>
       </c>
       <c r="T1123" t="n">
         <v>16</v>
@@ -90280,20 +90280,20 @@
       </c>
       <c r="L1124" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1124" t="n">
-        <v>360</v>
+        <v>390</v>
       </c>
       <c r="N1124" t="n">
-        <v>7800</v>
+        <v>12800</v>
       </c>
       <c r="O1124" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P1124" t="n">
-        <v>7900</v>
+        <v>12908</v>
       </c>
       <c r="Q1124" t="inlineStr">
         <is>
@@ -90306,7 +90306,7 @@
         </is>
       </c>
       <c r="S1124" t="n">
-        <v>494</v>
+        <v>807</v>
       </c>
       <c r="T1124" t="n">
         <v>16</v>
@@ -90360,20 +90360,20 @@
       </c>
       <c r="L1125" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1125" t="n">
-        <v>320</v>
+        <v>450</v>
       </c>
       <c r="N1125" t="n">
-        <v>7800</v>
+        <v>12800</v>
       </c>
       <c r="O1125" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P1125" t="n">
-        <v>7906</v>
+        <v>12900</v>
       </c>
       <c r="Q1125" t="inlineStr">
         <is>
@@ -90386,7 +90386,7 @@
         </is>
       </c>
       <c r="S1125" t="n">
-        <v>494</v>
+        <v>806</v>
       </c>
       <c r="T1125" t="n">
         <v>16</v>
@@ -90440,20 +90440,20 @@
       </c>
       <c r="L1126" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1126" t="n">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="N1126" t="n">
-        <v>8800</v>
+        <v>9800</v>
       </c>
       <c r="O1126" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P1126" t="n">
-        <v>8900</v>
+        <v>9900</v>
       </c>
       <c r="Q1126" t="inlineStr">
         <is>
@@ -90466,7 +90466,7 @@
         </is>
       </c>
       <c r="S1126" t="n">
-        <v>556</v>
+        <v>619</v>
       </c>
       <c r="T1126" t="n">
         <v>16</v>
@@ -90520,20 +90520,20 @@
       </c>
       <c r="L1127" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1127" t="n">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="N1127" t="n">
-        <v>8800</v>
+        <v>9800</v>
       </c>
       <c r="O1127" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P1127" t="n">
-        <v>8893</v>
+        <v>9900</v>
       </c>
       <c r="Q1127" t="inlineStr">
         <is>
@@ -90546,7 +90546,7 @@
         </is>
       </c>
       <c r="S1127" t="n">
-        <v>556</v>
+        <v>619</v>
       </c>
       <c r="T1127" t="n">
         <v>16</v>
@@ -90567,7 +90567,7 @@
         </is>
       </c>
       <c r="D1128" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E1128" t="n">
         <v>4</v>
@@ -90600,24 +90600,24 @@
       </c>
       <c r="L1128" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1128" t="n">
-        <v>510</v>
+        <v>420</v>
       </c>
       <c r="N1128" t="n">
-        <v>8800</v>
+        <v>10800</v>
       </c>
       <c r="O1128" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P1128" t="n">
-        <v>8900</v>
+        <v>10900</v>
       </c>
       <c r="Q1128" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R1128" t="inlineStr">
@@ -90626,10 +90626,10 @@
         </is>
       </c>
       <c r="S1128" t="n">
-        <v>494</v>
+        <v>681</v>
       </c>
       <c r="T1128" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1129">
@@ -90647,7 +90647,7 @@
         </is>
       </c>
       <c r="D1129" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E1129" t="n">
         <v>4</v>
@@ -90680,24 +90680,24 @@
       </c>
       <c r="L1129" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1129" t="n">
-        <v>580</v>
+        <v>360</v>
       </c>
       <c r="N1129" t="n">
-        <v>8800</v>
+        <v>10800</v>
       </c>
       <c r="O1129" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P1129" t="n">
-        <v>8900</v>
+        <v>10900</v>
       </c>
       <c r="Q1129" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R1129" t="inlineStr">
@@ -90706,10 +90706,10 @@
         </is>
       </c>
       <c r="S1129" t="n">
-        <v>494</v>
+        <v>681</v>
       </c>
       <c r="T1129" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1130">
@@ -90727,7 +90727,7 @@
         </is>
       </c>
       <c r="D1130" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E1130" t="n">
         <v>4</v>
@@ -90760,24 +90760,24 @@
       </c>
       <c r="L1130" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1130" t="n">
-        <v>620</v>
+        <v>360</v>
       </c>
       <c r="N1130" t="n">
-        <v>10800</v>
+        <v>7800</v>
       </c>
       <c r="O1130" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P1130" t="n">
-        <v>10900</v>
+        <v>7900</v>
       </c>
       <c r="Q1130" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R1130" t="inlineStr">
@@ -90786,10 +90786,10 @@
         </is>
       </c>
       <c r="S1130" t="n">
-        <v>606</v>
+        <v>494</v>
       </c>
       <c r="T1130" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1131">
@@ -90807,7 +90807,7 @@
         </is>
       </c>
       <c r="D1131" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E1131" t="n">
         <v>4</v>
@@ -90840,24 +90840,24 @@
       </c>
       <c r="L1131" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1131" t="n">
-        <v>1050</v>
+        <v>320</v>
       </c>
       <c r="N1131" t="n">
-        <v>10800</v>
+        <v>7800</v>
       </c>
       <c r="O1131" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P1131" t="n">
-        <v>10900</v>
+        <v>7906</v>
       </c>
       <c r="Q1131" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R1131" t="inlineStr">
@@ -90866,10 +90866,10 @@
         </is>
       </c>
       <c r="S1131" t="n">
-        <v>606</v>
+        <v>494</v>
       </c>
       <c r="T1131" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1132">
@@ -90887,7 +90887,7 @@
         </is>
       </c>
       <c r="D1132" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E1132" t="n">
         <v>4</v>
@@ -90920,24 +90920,24 @@
       </c>
       <c r="L1132" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1132" t="n">
-        <v>450</v>
+        <v>340</v>
       </c>
       <c r="N1132" t="n">
-        <v>5800</v>
+        <v>8800</v>
       </c>
       <c r="O1132" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P1132" t="n">
-        <v>5900</v>
+        <v>8900</v>
       </c>
       <c r="Q1132" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R1132" t="inlineStr">
@@ -90946,10 +90946,10 @@
         </is>
       </c>
       <c r="S1132" t="n">
-        <v>328</v>
+        <v>556</v>
       </c>
       <c r="T1132" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1133">
@@ -90967,7 +90967,7 @@
         </is>
       </c>
       <c r="D1133" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E1133" t="n">
         <v>4</v>
@@ -91000,24 +91000,24 @@
       </c>
       <c r="L1133" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1133" t="n">
-        <v>600</v>
+        <v>420</v>
       </c>
       <c r="N1133" t="n">
-        <v>5800</v>
+        <v>8800</v>
       </c>
       <c r="O1133" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P1133" t="n">
-        <v>5900</v>
+        <v>8893</v>
       </c>
       <c r="Q1133" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R1133" t="inlineStr">
@@ -91026,10 +91026,10 @@
         </is>
       </c>
       <c r="S1133" t="n">
-        <v>328</v>
+        <v>556</v>
       </c>
       <c r="T1133" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1134">
@@ -91080,20 +91080,20 @@
       </c>
       <c r="L1134" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1134" t="n">
-        <v>850</v>
+        <v>510</v>
       </c>
       <c r="N1134" t="n">
-        <v>7800</v>
+        <v>8800</v>
       </c>
       <c r="O1134" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P1134" t="n">
-        <v>7900</v>
+        <v>8900</v>
       </c>
       <c r="Q1134" t="inlineStr">
         <is>
@@ -91106,7 +91106,7 @@
         </is>
       </c>
       <c r="S1134" t="n">
-        <v>439</v>
+        <v>494</v>
       </c>
       <c r="T1134" t="n">
         <v>18</v>
@@ -91160,20 +91160,20 @@
       </c>
       <c r="L1135" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1135" t="n">
-        <v>900</v>
+        <v>580</v>
       </c>
       <c r="N1135" t="n">
-        <v>7800</v>
+        <v>8800</v>
       </c>
       <c r="O1135" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P1135" t="n">
-        <v>7900</v>
+        <v>8900</v>
       </c>
       <c r="Q1135" t="inlineStr">
         <is>
@@ -91186,7 +91186,7 @@
         </is>
       </c>
       <c r="S1135" t="n">
-        <v>439</v>
+        <v>494</v>
       </c>
       <c r="T1135" t="n">
         <v>18</v>
@@ -91240,20 +91240,20 @@
       </c>
       <c r="L1136" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1136" t="n">
-        <v>420</v>
+        <v>620</v>
       </c>
       <c r="N1136" t="n">
-        <v>4300</v>
+        <v>10800</v>
       </c>
       <c r="O1136" t="n">
-        <v>4500</v>
+        <v>11000</v>
       </c>
       <c r="P1136" t="n">
-        <v>4393</v>
+        <v>10900</v>
       </c>
       <c r="Q1136" t="inlineStr">
         <is>
@@ -91266,7 +91266,7 @@
         </is>
       </c>
       <c r="S1136" t="n">
-        <v>244</v>
+        <v>606</v>
       </c>
       <c r="T1136" t="n">
         <v>18</v>
@@ -91320,20 +91320,20 @@
       </c>
       <c r="L1137" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1137" t="n">
-        <v>450</v>
+        <v>1050</v>
       </c>
       <c r="N1137" t="n">
-        <v>4300</v>
+        <v>10800</v>
       </c>
       <c r="O1137" t="n">
-        <v>4500</v>
+        <v>11000</v>
       </c>
       <c r="P1137" t="n">
-        <v>4400</v>
+        <v>10900</v>
       </c>
       <c r="Q1137" t="inlineStr">
         <is>
@@ -91346,7 +91346,7 @@
         </is>
       </c>
       <c r="S1137" t="n">
-        <v>244</v>
+        <v>606</v>
       </c>
       <c r="T1137" t="n">
         <v>18</v>
@@ -91400,11 +91400,11 @@
       </c>
       <c r="L1138" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1138" t="n">
-        <v>510</v>
+        <v>450</v>
       </c>
       <c r="N1138" t="n">
         <v>5800</v>
@@ -91480,11 +91480,11 @@
       </c>
       <c r="L1139" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1139" t="n">
-        <v>510</v>
+        <v>600</v>
       </c>
       <c r="N1139" t="n">
         <v>5800</v>
@@ -91493,7 +91493,7 @@
         <v>6000</v>
       </c>
       <c r="P1139" t="n">
-        <v>5894</v>
+        <v>5900</v>
       </c>
       <c r="Q1139" t="inlineStr">
         <is>
@@ -91506,7 +91506,7 @@
         </is>
       </c>
       <c r="S1139" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="T1139" t="n">
         <v>18</v>
@@ -91527,7 +91527,7 @@
         </is>
       </c>
       <c r="D1140" s="2" t="n">
-        <v>44279</v>
+        <v>44175</v>
       </c>
       <c r="E1140" t="n">
         <v>4</v>
@@ -91560,36 +91560,36 @@
       </c>
       <c r="L1140" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1140" t="n">
-        <v>660</v>
+        <v>850</v>
       </c>
       <c r="N1140" t="n">
-        <v>11800</v>
+        <v>7800</v>
       </c>
       <c r="O1140" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P1140" t="n">
-        <v>11900</v>
+        <v>7900</v>
       </c>
       <c r="Q1140" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1140" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1140" t="n">
-        <v>744</v>
+        <v>439</v>
       </c>
       <c r="T1140" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1141">
@@ -91607,7 +91607,7 @@
         </is>
       </c>
       <c r="D1141" s="2" t="n">
-        <v>44279</v>
+        <v>44175</v>
       </c>
       <c r="E1141" t="n">
         <v>4</v>
@@ -91640,24 +91640,24 @@
       </c>
       <c r="L1141" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1141" t="n">
-        <v>540</v>
+        <v>900</v>
       </c>
       <c r="N1141" t="n">
-        <v>13800</v>
+        <v>7800</v>
       </c>
       <c r="O1141" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P1141" t="n">
-        <v>13900</v>
+        <v>7900</v>
       </c>
       <c r="Q1141" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1141" t="inlineStr">
@@ -91666,10 +91666,10 @@
         </is>
       </c>
       <c r="S1141" t="n">
-        <v>869</v>
+        <v>439</v>
       </c>
       <c r="T1141" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1142">
@@ -91687,7 +91687,7 @@
         </is>
       </c>
       <c r="D1142" s="2" t="n">
-        <v>44279</v>
+        <v>44175</v>
       </c>
       <c r="E1142" t="n">
         <v>4</v>
@@ -91720,36 +91720,36 @@
       </c>
       <c r="L1142" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1142" t="n">
-        <v>540</v>
+        <v>420</v>
       </c>
       <c r="N1142" t="n">
-        <v>9800</v>
+        <v>4300</v>
       </c>
       <c r="O1142" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="P1142" t="n">
-        <v>9900</v>
+        <v>4393</v>
       </c>
       <c r="Q1142" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1142" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1142" t="n">
-        <v>619</v>
+        <v>244</v>
       </c>
       <c r="T1142" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1143">
@@ -91767,7 +91767,7 @@
         </is>
       </c>
       <c r="D1143" s="2" t="n">
-        <v>44279</v>
+        <v>44175</v>
       </c>
       <c r="E1143" t="n">
         <v>4</v>
@@ -91800,24 +91800,24 @@
       </c>
       <c r="L1143" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1143" t="n">
         <v>450</v>
       </c>
       <c r="N1143" t="n">
-        <v>11800</v>
+        <v>4300</v>
       </c>
       <c r="O1143" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="P1143" t="n">
-        <v>11900</v>
+        <v>4400</v>
       </c>
       <c r="Q1143" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1143" t="inlineStr">
@@ -91826,10 +91826,10 @@
         </is>
       </c>
       <c r="S1143" t="n">
-        <v>744</v>
+        <v>244</v>
       </c>
       <c r="T1143" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1144">
@@ -91847,7 +91847,7 @@
         </is>
       </c>
       <c r="D1144" s="2" t="n">
-        <v>44279</v>
+        <v>44175</v>
       </c>
       <c r="E1144" t="n">
         <v>4</v>
@@ -91880,36 +91880,36 @@
       </c>
       <c r="L1144" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1144" t="n">
-        <v>450</v>
+        <v>510</v>
       </c>
       <c r="N1144" t="n">
-        <v>7800</v>
+        <v>5800</v>
       </c>
       <c r="O1144" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P1144" t="n">
-        <v>7900</v>
+        <v>5900</v>
       </c>
       <c r="Q1144" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1144" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1144" t="n">
-        <v>494</v>
+        <v>328</v>
       </c>
       <c r="T1144" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1145">
@@ -91927,7 +91927,7 @@
         </is>
       </c>
       <c r="D1145" s="2" t="n">
-        <v>44412</v>
+        <v>44175</v>
       </c>
       <c r="E1145" t="n">
         <v>4</v>
@@ -91960,24 +91960,24 @@
       </c>
       <c r="L1145" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1145" t="n">
-        <v>900</v>
+        <v>510</v>
       </c>
       <c r="N1145" t="n">
-        <v>2800</v>
+        <v>5800</v>
       </c>
       <c r="O1145" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="P1145" t="n">
-        <v>2900</v>
+        <v>5894</v>
       </c>
       <c r="Q1145" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1145" t="inlineStr">
@@ -91986,10 +91986,10 @@
         </is>
       </c>
       <c r="S1145" t="n">
-        <v>181</v>
+        <v>327</v>
       </c>
       <c r="T1145" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1146">
@@ -92007,7 +92007,7 @@
         </is>
       </c>
       <c r="D1146" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E1146" t="n">
         <v>4</v>
@@ -92040,20 +92040,20 @@
       </c>
       <c r="L1146" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1146" t="n">
-        <v>600</v>
+        <v>660</v>
       </c>
       <c r="N1146" t="n">
-        <v>1800</v>
+        <v>11800</v>
       </c>
       <c r="O1146" t="n">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="P1146" t="n">
-        <v>1900</v>
+        <v>11900</v>
       </c>
       <c r="Q1146" t="inlineStr">
         <is>
@@ -92066,7 +92066,7 @@
         </is>
       </c>
       <c r="S1146" t="n">
-        <v>119</v>
+        <v>744</v>
       </c>
       <c r="T1146" t="n">
         <v>16</v>
@@ -92087,7 +92087,7 @@
         </is>
       </c>
       <c r="D1147" s="2" t="n">
-        <v>44223</v>
+        <v>44279</v>
       </c>
       <c r="E1147" t="n">
         <v>4</v>
@@ -92120,11 +92120,11 @@
       </c>
       <c r="L1147" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1147" t="n">
-        <v>660</v>
+        <v>540</v>
       </c>
       <c r="N1147" t="n">
         <v>13800</v>
@@ -92167,7 +92167,7 @@
         </is>
       </c>
       <c r="D1148" s="2" t="n">
-        <v>44223</v>
+        <v>44279</v>
       </c>
       <c r="E1148" t="n">
         <v>4</v>
@@ -92200,20 +92200,20 @@
       </c>
       <c r="L1148" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1148" t="n">
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="N1148" t="n">
-        <v>15800</v>
+        <v>9800</v>
       </c>
       <c r="O1148" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P1148" t="n">
-        <v>15900</v>
+        <v>9900</v>
       </c>
       <c r="Q1148" t="inlineStr">
         <is>
@@ -92226,7 +92226,7 @@
         </is>
       </c>
       <c r="S1148" t="n">
-        <v>994</v>
+        <v>619</v>
       </c>
       <c r="T1148" t="n">
         <v>16</v>
@@ -92247,7 +92247,7 @@
         </is>
       </c>
       <c r="D1149" s="2" t="n">
-        <v>44223</v>
+        <v>44279</v>
       </c>
       <c r="E1149" t="n">
         <v>4</v>
@@ -92280,11 +92280,11 @@
       </c>
       <c r="L1149" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1149" t="n">
-        <v>510</v>
+        <v>450</v>
       </c>
       <c r="N1149" t="n">
         <v>11800</v>
@@ -92327,7 +92327,7 @@
         </is>
       </c>
       <c r="D1150" s="2" t="n">
-        <v>44223</v>
+        <v>44279</v>
       </c>
       <c r="E1150" t="n">
         <v>4</v>
@@ -92360,20 +92360,20 @@
       </c>
       <c r="L1150" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1150" t="n">
         <v>450</v>
       </c>
       <c r="N1150" t="n">
-        <v>12800</v>
+        <v>7800</v>
       </c>
       <c r="O1150" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P1150" t="n">
-        <v>12900</v>
+        <v>7900</v>
       </c>
       <c r="Q1150" t="inlineStr">
         <is>
@@ -92386,7 +92386,7 @@
         </is>
       </c>
       <c r="S1150" t="n">
-        <v>806</v>
+        <v>494</v>
       </c>
       <c r="T1150" t="n">
         <v>16</v>
@@ -92407,7 +92407,7 @@
         </is>
       </c>
       <c r="D1151" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E1151" t="n">
         <v>4</v>
@@ -92440,20 +92440,20 @@
       </c>
       <c r="L1151" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1151" t="n">
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="N1151" t="n">
-        <v>8800</v>
+        <v>2800</v>
       </c>
       <c r="O1151" t="n">
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="P1151" t="n">
-        <v>8900</v>
+        <v>2900</v>
       </c>
       <c r="Q1151" t="inlineStr">
         <is>
@@ -92466,7 +92466,7 @@
         </is>
       </c>
       <c r="S1151" t="n">
-        <v>556</v>
+        <v>181</v>
       </c>
       <c r="T1151" t="n">
         <v>16</v>
@@ -92487,7 +92487,7 @@
         </is>
       </c>
       <c r="D1152" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E1152" t="n">
         <v>4</v>
@@ -92520,20 +92520,20 @@
       </c>
       <c r="L1152" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1152" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="N1152" t="n">
-        <v>11800</v>
+        <v>1800</v>
       </c>
       <c r="O1152" t="n">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="P1152" t="n">
-        <v>11900</v>
+        <v>1900</v>
       </c>
       <c r="Q1152" t="inlineStr">
         <is>
@@ -92546,7 +92546,7 @@
         </is>
       </c>
       <c r="S1152" t="n">
-        <v>744</v>
+        <v>119</v>
       </c>
       <c r="T1152" t="n">
         <v>16</v>
@@ -92567,7 +92567,7 @@
         </is>
       </c>
       <c r="D1153" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E1153" t="n">
         <v>4</v>
@@ -92600,20 +92600,20 @@
       </c>
       <c r="L1153" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1153" t="n">
-        <v>600</v>
+        <v>660</v>
       </c>
       <c r="N1153" t="n">
-        <v>12800</v>
+        <v>13800</v>
       </c>
       <c r="O1153" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P1153" t="n">
-        <v>12900</v>
+        <v>13900</v>
       </c>
       <c r="Q1153" t="inlineStr">
         <is>
@@ -92626,7 +92626,7 @@
         </is>
       </c>
       <c r="S1153" t="n">
-        <v>806</v>
+        <v>869</v>
       </c>
       <c r="T1153" t="n">
         <v>16</v>
@@ -92647,7 +92647,7 @@
         </is>
       </c>
       <c r="D1154" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E1154" t="n">
         <v>4</v>
@@ -92680,20 +92680,20 @@
       </c>
       <c r="L1154" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1154" t="n">
-        <v>510</v>
+        <v>600</v>
       </c>
       <c r="N1154" t="n">
-        <v>9800</v>
+        <v>15800</v>
       </c>
       <c r="O1154" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P1154" t="n">
-        <v>9900</v>
+        <v>15900</v>
       </c>
       <c r="Q1154" t="inlineStr">
         <is>
@@ -92706,7 +92706,7 @@
         </is>
       </c>
       <c r="S1154" t="n">
-        <v>619</v>
+        <v>994</v>
       </c>
       <c r="T1154" t="n">
         <v>16</v>
@@ -92727,7 +92727,7 @@
         </is>
       </c>
       <c r="D1155" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E1155" t="n">
         <v>4</v>
@@ -92760,20 +92760,20 @@
       </c>
       <c r="L1155" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1155" t="n">
-        <v>450</v>
+        <v>510</v>
       </c>
       <c r="N1155" t="n">
-        <v>10800</v>
+        <v>11800</v>
       </c>
       <c r="O1155" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P1155" t="n">
-        <v>10900</v>
+        <v>11900</v>
       </c>
       <c r="Q1155" t="inlineStr">
         <is>
@@ -92786,7 +92786,7 @@
         </is>
       </c>
       <c r="S1155" t="n">
-        <v>681</v>
+        <v>744</v>
       </c>
       <c r="T1155" t="n">
         <v>16</v>
@@ -92807,7 +92807,7 @@
         </is>
       </c>
       <c r="D1156" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E1156" t="n">
         <v>4</v>
@@ -92840,20 +92840,20 @@
       </c>
       <c r="L1156" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1156" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="N1156" t="n">
-        <v>7800</v>
+        <v>12800</v>
       </c>
       <c r="O1156" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P1156" t="n">
-        <v>7900</v>
+        <v>12900</v>
       </c>
       <c r="Q1156" t="inlineStr">
         <is>
@@ -92866,7 +92866,7 @@
         </is>
       </c>
       <c r="S1156" t="n">
-        <v>494</v>
+        <v>806</v>
       </c>
       <c r="T1156" t="n">
         <v>16</v>
@@ -92887,7 +92887,7 @@
         </is>
       </c>
       <c r="D1157" s="2" t="n">
-        <v>44448</v>
+        <v>44223</v>
       </c>
       <c r="E1157" t="n">
         <v>4</v>
@@ -92920,20 +92920,20 @@
       </c>
       <c r="L1157" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1157" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="N1157" t="n">
-        <v>2800</v>
+        <v>8800</v>
       </c>
       <c r="O1157" t="n">
-        <v>3000</v>
+        <v>9000</v>
       </c>
       <c r="P1157" t="n">
-        <v>2900</v>
+        <v>8900</v>
       </c>
       <c r="Q1157" t="inlineStr">
         <is>
@@ -92942,11 +92942,11 @@
       </c>
       <c r="R1157" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1157" t="n">
-        <v>181</v>
+        <v>556</v>
       </c>
       <c r="T1157" t="n">
         <v>16</v>
@@ -92967,7 +92967,7 @@
         </is>
       </c>
       <c r="D1158" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E1158" t="n">
         <v>4</v>
@@ -93007,13 +93007,13 @@
         <v>750</v>
       </c>
       <c r="N1158" t="n">
-        <v>2800</v>
+        <v>11800</v>
       </c>
       <c r="O1158" t="n">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="P1158" t="n">
-        <v>2900</v>
+        <v>11900</v>
       </c>
       <c r="Q1158" t="inlineStr">
         <is>
@@ -93026,7 +93026,7 @@
         </is>
       </c>
       <c r="S1158" t="n">
-        <v>181</v>
+        <v>744</v>
       </c>
       <c r="T1158" t="n">
         <v>16</v>
@@ -93047,7 +93047,7 @@
         </is>
       </c>
       <c r="D1159" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E1159" t="n">
         <v>4</v>
@@ -93080,20 +93080,20 @@
       </c>
       <c r="L1159" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1159" t="n">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="N1159" t="n">
-        <v>1800</v>
+        <v>12800</v>
       </c>
       <c r="O1159" t="n">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="P1159" t="n">
-        <v>1900</v>
+        <v>12900</v>
       </c>
       <c r="Q1159" t="inlineStr">
         <is>
@@ -93102,11 +93102,11 @@
       </c>
       <c r="R1159" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1159" t="n">
-        <v>119</v>
+        <v>806</v>
       </c>
       <c r="T1159" t="n">
         <v>16</v>
@@ -93127,7 +93127,7 @@
         </is>
       </c>
       <c r="D1160" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E1160" t="n">
         <v>4</v>
@@ -93164,16 +93164,16 @@
         </is>
       </c>
       <c r="M1160" t="n">
-        <v>600</v>
+        <v>510</v>
       </c>
       <c r="N1160" t="n">
-        <v>1800</v>
+        <v>9800</v>
       </c>
       <c r="O1160" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="P1160" t="n">
-        <v>1900</v>
+        <v>9900</v>
       </c>
       <c r="Q1160" t="inlineStr">
         <is>
@@ -93186,7 +93186,7 @@
         </is>
       </c>
       <c r="S1160" t="n">
-        <v>119</v>
+        <v>619</v>
       </c>
       <c r="T1160" t="n">
         <v>16</v>
@@ -93207,7 +93207,7 @@
         </is>
       </c>
       <c r="D1161" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E1161" t="n">
         <v>4</v>
@@ -93240,20 +93240,20 @@
       </c>
       <c r="L1161" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1161" t="n">
         <v>450</v>
       </c>
       <c r="N1161" t="n">
-        <v>800</v>
+        <v>10800</v>
       </c>
       <c r="O1161" t="n">
-        <v>1000</v>
+        <v>11000</v>
       </c>
       <c r="P1161" t="n">
-        <v>900</v>
+        <v>10900</v>
       </c>
       <c r="Q1161" t="inlineStr">
         <is>
@@ -93262,11 +93262,11 @@
       </c>
       <c r="R1161" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1161" t="n">
-        <v>56</v>
+        <v>681</v>
       </c>
       <c r="T1161" t="n">
         <v>16</v>
@@ -93287,7 +93287,7 @@
         </is>
       </c>
       <c r="D1162" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E1162" t="n">
         <v>4</v>
@@ -93324,16 +93324,16 @@
         </is>
       </c>
       <c r="M1162" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="N1162" t="n">
-        <v>800</v>
+        <v>7800</v>
       </c>
       <c r="O1162" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="P1162" t="n">
-        <v>900</v>
+        <v>7900</v>
       </c>
       <c r="Q1162" t="inlineStr">
         <is>
@@ -93346,7 +93346,7 @@
         </is>
       </c>
       <c r="S1162" t="n">
-        <v>56</v>
+        <v>494</v>
       </c>
       <c r="T1162" t="n">
         <v>16</v>
@@ -93367,7 +93367,7 @@
         </is>
       </c>
       <c r="D1163" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E1163" t="n">
         <v>4</v>
@@ -93404,32 +93404,32 @@
         </is>
       </c>
       <c r="M1163" t="n">
-        <v>660</v>
+        <v>600</v>
       </c>
       <c r="N1163" t="n">
-        <v>7800</v>
+        <v>2800</v>
       </c>
       <c r="O1163" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="P1163" t="n">
-        <v>7900</v>
+        <v>2900</v>
       </c>
       <c r="Q1163" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R1163" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1163" t="n">
-        <v>439</v>
+        <v>181</v>
       </c>
       <c r="T1163" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1164">
@@ -93447,7 +93447,7 @@
         </is>
       </c>
       <c r="D1164" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E1164" t="n">
         <v>4</v>
@@ -93480,24 +93480,24 @@
       </c>
       <c r="L1164" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1164" t="n">
-        <v>510</v>
+        <v>750</v>
       </c>
       <c r="N1164" t="n">
-        <v>5800</v>
+        <v>2800</v>
       </c>
       <c r="O1164" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="P1164" t="n">
-        <v>5900</v>
+        <v>2900</v>
       </c>
       <c r="Q1164" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R1164" t="inlineStr">
@@ -93506,10 +93506,10 @@
         </is>
       </c>
       <c r="S1164" t="n">
-        <v>328</v>
+        <v>181</v>
       </c>
       <c r="T1164" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1165">
@@ -93527,7 +93527,7 @@
         </is>
       </c>
       <c r="D1165" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E1165" t="n">
         <v>4</v>
@@ -93560,36 +93560,36 @@
       </c>
       <c r="L1165" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1165" t="n">
-        <v>450</v>
+        <v>540</v>
       </c>
       <c r="N1165" t="n">
-        <v>3800</v>
+        <v>1800</v>
       </c>
       <c r="O1165" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="P1165" t="n">
-        <v>3900</v>
+        <v>1900</v>
       </c>
       <c r="Q1165" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R1165" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1165" t="n">
-        <v>217</v>
+        <v>119</v>
       </c>
       <c r="T1165" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1166">
@@ -93607,7 +93607,7 @@
         </is>
       </c>
       <c r="D1166" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E1166" t="n">
         <v>4</v>
@@ -93640,20 +93640,20 @@
       </c>
       <c r="L1166" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1166" t="n">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="N1166" t="n">
-        <v>15800</v>
+        <v>1800</v>
       </c>
       <c r="O1166" t="n">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="P1166" t="n">
-        <v>15900</v>
+        <v>1900</v>
       </c>
       <c r="Q1166" t="inlineStr">
         <is>
@@ -93662,11 +93662,11 @@
       </c>
       <c r="R1166" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1166" t="n">
-        <v>994</v>
+        <v>119</v>
       </c>
       <c r="T1166" t="n">
         <v>16</v>
@@ -93687,7 +93687,7 @@
         </is>
       </c>
       <c r="D1167" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E1167" t="n">
         <v>4</v>
@@ -93720,20 +93720,20 @@
       </c>
       <c r="L1167" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1167" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="N1167" t="n">
-        <v>15800</v>
+        <v>800</v>
       </c>
       <c r="O1167" t="n">
-        <v>16000</v>
+        <v>1000</v>
       </c>
       <c r="P1167" t="n">
-        <v>15900</v>
+        <v>900</v>
       </c>
       <c r="Q1167" t="inlineStr">
         <is>
@@ -93742,11 +93742,11 @@
       </c>
       <c r="R1167" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1167" t="n">
-        <v>994</v>
+        <v>56</v>
       </c>
       <c r="T1167" t="n">
         <v>16</v>
@@ -93767,7 +93767,7 @@
         </is>
       </c>
       <c r="D1168" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E1168" t="n">
         <v>4</v>
@@ -93800,20 +93800,20 @@
       </c>
       <c r="L1168" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1168" t="n">
         <v>450</v>
       </c>
       <c r="N1168" t="n">
-        <v>16800</v>
+        <v>800</v>
       </c>
       <c r="O1168" t="n">
-        <v>17000</v>
+        <v>1000</v>
       </c>
       <c r="P1168" t="n">
-        <v>16900</v>
+        <v>900</v>
       </c>
       <c r="Q1168" t="inlineStr">
         <is>
@@ -93822,11 +93822,11 @@
       </c>
       <c r="R1168" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1168" t="n">
-        <v>1056</v>
+        <v>56</v>
       </c>
       <c r="T1168" t="n">
         <v>16</v>
@@ -93847,7 +93847,7 @@
         </is>
       </c>
       <c r="D1169" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E1169" t="n">
         <v>4</v>
@@ -93880,24 +93880,24 @@
       </c>
       <c r="L1169" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1169" t="n">
-        <v>420</v>
+        <v>660</v>
       </c>
       <c r="N1169" t="n">
-        <v>16800</v>
+        <v>7800</v>
       </c>
       <c r="O1169" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="P1169" t="n">
-        <v>16900</v>
+        <v>7900</v>
       </c>
       <c r="Q1169" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1169" t="inlineStr">
@@ -93906,10 +93906,10 @@
         </is>
       </c>
       <c r="S1169" t="n">
-        <v>1056</v>
+        <v>439</v>
       </c>
       <c r="T1169" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1170">
@@ -93927,7 +93927,7 @@
         </is>
       </c>
       <c r="D1170" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E1170" t="n">
         <v>4</v>
@@ -93964,32 +93964,32 @@
         </is>
       </c>
       <c r="M1170" t="n">
-        <v>450</v>
+        <v>510</v>
       </c>
       <c r="N1170" t="n">
-        <v>13800</v>
+        <v>5800</v>
       </c>
       <c r="O1170" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="P1170" t="n">
-        <v>13900</v>
+        <v>5900</v>
       </c>
       <c r="Q1170" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1170" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1170" t="n">
-        <v>869</v>
+        <v>328</v>
       </c>
       <c r="T1170" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1171">
@@ -94007,7 +94007,7 @@
         </is>
       </c>
       <c r="D1171" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E1171" t="n">
         <v>4</v>
@@ -94040,24 +94040,24 @@
       </c>
       <c r="L1171" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1171" t="n">
-        <v>490</v>
+        <v>450</v>
       </c>
       <c r="N1171" t="n">
-        <v>13800</v>
+        <v>3800</v>
       </c>
       <c r="O1171" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="P1171" t="n">
-        <v>13900</v>
+        <v>3900</v>
       </c>
       <c r="Q1171" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1171" t="inlineStr">
@@ -94066,10 +94066,10 @@
         </is>
       </c>
       <c r="S1171" t="n">
-        <v>869</v>
+        <v>217</v>
       </c>
       <c r="T1171" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1172">
@@ -94120,11 +94120,11 @@
       </c>
       <c r="L1172" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1172" t="n">
-        <v>360</v>
+        <v>540</v>
       </c>
       <c r="N1172" t="n">
         <v>15800</v>
@@ -94200,11 +94200,11 @@
       </c>
       <c r="L1173" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1173" t="n">
-        <v>390</v>
+        <v>600</v>
       </c>
       <c r="N1173" t="n">
         <v>15800</v>
@@ -94280,20 +94280,20 @@
       </c>
       <c r="L1174" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1174" t="n">
-        <v>348</v>
+        <v>450</v>
       </c>
       <c r="N1174" t="n">
-        <v>10800</v>
+        <v>16800</v>
       </c>
       <c r="O1174" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P1174" t="n">
-        <v>10898</v>
+        <v>16900</v>
       </c>
       <c r="Q1174" t="inlineStr">
         <is>
@@ -94306,7 +94306,7 @@
         </is>
       </c>
       <c r="S1174" t="n">
-        <v>681</v>
+        <v>1056</v>
       </c>
       <c r="T1174" t="n">
         <v>16</v>
@@ -94360,20 +94360,20 @@
       </c>
       <c r="L1175" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1175" t="n">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="N1175" t="n">
-        <v>10800</v>
+        <v>16800</v>
       </c>
       <c r="O1175" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P1175" t="n">
-        <v>10900</v>
+        <v>16900</v>
       </c>
       <c r="Q1175" t="inlineStr">
         <is>
@@ -94386,7 +94386,7 @@
         </is>
       </c>
       <c r="S1175" t="n">
-        <v>681</v>
+        <v>1056</v>
       </c>
       <c r="T1175" t="n">
         <v>16</v>
@@ -94440,20 +94440,20 @@
       </c>
       <c r="L1176" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1176" t="n">
-        <v>240</v>
+        <v>450</v>
       </c>
       <c r="N1176" t="n">
-        <v>12800</v>
+        <v>13800</v>
       </c>
       <c r="O1176" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P1176" t="n">
-        <v>12900</v>
+        <v>13900</v>
       </c>
       <c r="Q1176" t="inlineStr">
         <is>
@@ -94466,7 +94466,7 @@
         </is>
       </c>
       <c r="S1176" t="n">
-        <v>806</v>
+        <v>869</v>
       </c>
       <c r="T1176" t="n">
         <v>16</v>
@@ -94520,20 +94520,20 @@
       </c>
       <c r="L1177" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1177" t="n">
-        <v>300</v>
+        <v>490</v>
       </c>
       <c r="N1177" t="n">
-        <v>12800</v>
+        <v>13800</v>
       </c>
       <c r="O1177" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P1177" t="n">
-        <v>12900</v>
+        <v>13900</v>
       </c>
       <c r="Q1177" t="inlineStr">
         <is>
@@ -94546,7 +94546,7 @@
         </is>
       </c>
       <c r="S1177" t="n">
-        <v>806</v>
+        <v>869</v>
       </c>
       <c r="T1177" t="n">
         <v>16</v>
@@ -94567,7 +94567,7 @@
         </is>
       </c>
       <c r="D1178" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1178" t="n">
         <v>4</v>
@@ -94600,20 +94600,20 @@
       </c>
       <c r="L1178" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1178" t="n">
-        <v>540</v>
+        <v>360</v>
       </c>
       <c r="N1178" t="n">
-        <v>3000</v>
+        <v>15800</v>
       </c>
       <c r="O1178" t="n">
-        <v>3200</v>
+        <v>16000</v>
       </c>
       <c r="P1178" t="n">
-        <v>3100</v>
+        <v>15900</v>
       </c>
       <c r="Q1178" t="inlineStr">
         <is>
@@ -94626,7 +94626,7 @@
         </is>
       </c>
       <c r="S1178" t="n">
-        <v>194</v>
+        <v>994</v>
       </c>
       <c r="T1178" t="n">
         <v>16</v>
@@ -94647,7 +94647,7 @@
         </is>
       </c>
       <c r="D1179" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1179" t="n">
         <v>4</v>
@@ -94680,20 +94680,20 @@
       </c>
       <c r="L1179" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1179" t="n">
-        <v>660</v>
+        <v>390</v>
       </c>
       <c r="N1179" t="n">
-        <v>3000</v>
+        <v>15800</v>
       </c>
       <c r="O1179" t="n">
-        <v>3200</v>
+        <v>16000</v>
       </c>
       <c r="P1179" t="n">
-        <v>3100</v>
+        <v>15900</v>
       </c>
       <c r="Q1179" t="inlineStr">
         <is>
@@ -94706,7 +94706,7 @@
         </is>
       </c>
       <c r="S1179" t="n">
-        <v>194</v>
+        <v>994</v>
       </c>
       <c r="T1179" t="n">
         <v>16</v>
@@ -94727,7 +94727,7 @@
         </is>
       </c>
       <c r="D1180" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1180" t="n">
         <v>4</v>
@@ -94760,20 +94760,20 @@
       </c>
       <c r="L1180" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1180" t="n">
-        <v>480</v>
+        <v>348</v>
       </c>
       <c r="N1180" t="n">
-        <v>2000</v>
+        <v>10800</v>
       </c>
       <c r="O1180" t="n">
-        <v>2200</v>
+        <v>11000</v>
       </c>
       <c r="P1180" t="n">
-        <v>2100</v>
+        <v>10898</v>
       </c>
       <c r="Q1180" t="inlineStr">
         <is>
@@ -94786,7 +94786,7 @@
         </is>
       </c>
       <c r="S1180" t="n">
-        <v>131</v>
+        <v>681</v>
       </c>
       <c r="T1180" t="n">
         <v>16</v>
@@ -94807,7 +94807,7 @@
         </is>
       </c>
       <c r="D1181" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1181" t="n">
         <v>4</v>
@@ -94840,20 +94840,20 @@
       </c>
       <c r="L1181" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1181" t="n">
-        <v>580</v>
+        <v>450</v>
       </c>
       <c r="N1181" t="n">
-        <v>2000</v>
+        <v>10800</v>
       </c>
       <c r="O1181" t="n">
-        <v>2200</v>
+        <v>11000</v>
       </c>
       <c r="P1181" t="n">
-        <v>2097</v>
+        <v>10900</v>
       </c>
       <c r="Q1181" t="inlineStr">
         <is>
@@ -94866,7 +94866,7 @@
         </is>
       </c>
       <c r="S1181" t="n">
-        <v>131</v>
+        <v>681</v>
       </c>
       <c r="T1181" t="n">
         <v>16</v>
@@ -94887,7 +94887,7 @@
         </is>
       </c>
       <c r="D1182" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1182" t="n">
         <v>4</v>
@@ -94920,20 +94920,20 @@
       </c>
       <c r="L1182" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1182" t="n">
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="N1182" t="n">
-        <v>1000</v>
+        <v>12800</v>
       </c>
       <c r="O1182" t="n">
-        <v>1200</v>
+        <v>13000</v>
       </c>
       <c r="P1182" t="n">
-        <v>1106</v>
+        <v>12900</v>
       </c>
       <c r="Q1182" t="inlineStr">
         <is>
@@ -94946,7 +94946,7 @@
         </is>
       </c>
       <c r="S1182" t="n">
-        <v>69</v>
+        <v>806</v>
       </c>
       <c r="T1182" t="n">
         <v>16</v>
@@ -94967,7 +94967,7 @@
         </is>
       </c>
       <c r="D1183" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1183" t="n">
         <v>4</v>
@@ -95000,20 +95000,20 @@
       </c>
       <c r="L1183" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1183" t="n">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="N1183" t="n">
-        <v>1000</v>
+        <v>12800</v>
       </c>
       <c r="O1183" t="n">
-        <v>1200</v>
+        <v>13000</v>
       </c>
       <c r="P1183" t="n">
-        <v>1100</v>
+        <v>12900</v>
       </c>
       <c r="Q1183" t="inlineStr">
         <is>
@@ -95026,7 +95026,7 @@
         </is>
       </c>
       <c r="S1183" t="n">
-        <v>69</v>
+        <v>806</v>
       </c>
       <c r="T1183" t="n">
         <v>16</v>
@@ -95047,7 +95047,7 @@
         </is>
       </c>
       <c r="D1184" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1184" t="n">
         <v>4</v>
@@ -95084,7 +95084,7 @@
         </is>
       </c>
       <c r="M1184" t="n">
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="N1184" t="n">
         <v>3000</v>
@@ -95127,7 +95127,7 @@
         </is>
       </c>
       <c r="D1185" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1185" t="n">
         <v>4</v>
@@ -95164,7 +95164,7 @@
         </is>
       </c>
       <c r="M1185" t="n">
-        <v>750</v>
+        <v>660</v>
       </c>
       <c r="N1185" t="n">
         <v>3000</v>
@@ -95207,7 +95207,7 @@
         </is>
       </c>
       <c r="D1186" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1186" t="n">
         <v>4</v>
@@ -95244,7 +95244,7 @@
         </is>
       </c>
       <c r="M1186" t="n">
-        <v>540</v>
+        <v>480</v>
       </c>
       <c r="N1186" t="n">
         <v>2000</v>
@@ -95287,7 +95287,7 @@
         </is>
       </c>
       <c r="D1187" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1187" t="n">
         <v>4</v>
@@ -95324,7 +95324,7 @@
         </is>
       </c>
       <c r="M1187" t="n">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="N1187" t="n">
         <v>2000</v>
@@ -95333,7 +95333,7 @@
         <v>2200</v>
       </c>
       <c r="P1187" t="n">
-        <v>2100</v>
+        <v>2097</v>
       </c>
       <c r="Q1187" t="inlineStr">
         <is>
@@ -95367,7 +95367,7 @@
         </is>
       </c>
       <c r="D1188" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1188" t="n">
         <v>4</v>
@@ -95404,7 +95404,7 @@
         </is>
       </c>
       <c r="M1188" t="n">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="N1188" t="n">
         <v>1000</v>
@@ -95413,7 +95413,7 @@
         <v>1200</v>
       </c>
       <c r="P1188" t="n">
-        <v>1100</v>
+        <v>1106</v>
       </c>
       <c r="Q1188" t="inlineStr">
         <is>
@@ -95447,7 +95447,7 @@
         </is>
       </c>
       <c r="D1189" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1189" t="n">
         <v>4</v>
@@ -95493,22 +95493,502 @@
         <v>1200</v>
       </c>
       <c r="P1189" t="n">
+        <v>1100</v>
+      </c>
+      <c r="Q1189" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R1189" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S1189" t="n">
+        <v>69</v>
+      </c>
+      <c r="T1189" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1190" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1190" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1190" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1190" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1190" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1190" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1190" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1190" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1190" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1190" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1190" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M1190" t="n">
+        <v>600</v>
+      </c>
+      <c r="N1190" t="n">
+        <v>3000</v>
+      </c>
+      <c r="O1190" t="n">
+        <v>3200</v>
+      </c>
+      <c r="P1190" t="n">
+        <v>3100</v>
+      </c>
+      <c r="Q1190" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R1190" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S1190" t="n">
+        <v>194</v>
+      </c>
+      <c r="T1190" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1191" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1191" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1191" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1191" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1191" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1191" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1191" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1191" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1191" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1191" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1191" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M1191" t="n">
+        <v>750</v>
+      </c>
+      <c r="N1191" t="n">
+        <v>3000</v>
+      </c>
+      <c r="O1191" t="n">
+        <v>3200</v>
+      </c>
+      <c r="P1191" t="n">
+        <v>3100</v>
+      </c>
+      <c r="Q1191" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R1191" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S1191" t="n">
+        <v>194</v>
+      </c>
+      <c r="T1191" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1192" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1192" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1192" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1192" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1192" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1192" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1192" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1192" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1192" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1192" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1192" t="inlineStr">
+        <is>
+          <t>2a amarillo</t>
+        </is>
+      </c>
+      <c r="M1192" t="n">
+        <v>540</v>
+      </c>
+      <c r="N1192" t="n">
+        <v>2000</v>
+      </c>
+      <c r="O1192" t="n">
+        <v>2200</v>
+      </c>
+      <c r="P1192" t="n">
+        <v>2100</v>
+      </c>
+      <c r="Q1192" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R1192" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S1192" t="n">
+        <v>131</v>
+      </c>
+      <c r="T1192" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1193" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1193" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1193" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1193" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1193" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1193" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1193" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1193" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1193" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1193" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1193" t="inlineStr">
+        <is>
+          <t>2a amarillo</t>
+        </is>
+      </c>
+      <c r="M1193" t="n">
+        <v>600</v>
+      </c>
+      <c r="N1193" t="n">
+        <v>2000</v>
+      </c>
+      <c r="O1193" t="n">
+        <v>2200</v>
+      </c>
+      <c r="P1193" t="n">
+        <v>2100</v>
+      </c>
+      <c r="Q1193" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R1193" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S1193" t="n">
+        <v>131</v>
+      </c>
+      <c r="T1193" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1194" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1194" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1194" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1194" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1194" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1194" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1194" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1194" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1194" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1194" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1194" t="inlineStr">
+        <is>
+          <t>3a amarillo</t>
+        </is>
+      </c>
+      <c r="M1194" t="n">
+        <v>360</v>
+      </c>
+      <c r="N1194" t="n">
+        <v>1000</v>
+      </c>
+      <c r="O1194" t="n">
+        <v>1200</v>
+      </c>
+      <c r="P1194" t="n">
+        <v>1100</v>
+      </c>
+      <c r="Q1194" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R1194" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S1194" t="n">
+        <v>69</v>
+      </c>
+      <c r="T1194" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1195" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1195" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1195" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1195" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1195" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1195" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1195" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1195" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1195" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1195" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1195" t="inlineStr">
+        <is>
+          <t>3a amarillo</t>
+        </is>
+      </c>
+      <c r="M1195" t="n">
+        <v>420</v>
+      </c>
+      <c r="N1195" t="n">
+        <v>1000</v>
+      </c>
+      <c r="O1195" t="n">
+        <v>1200</v>
+      </c>
+      <c r="P1195" t="n">
         <v>1093</v>
       </c>
-      <c r="Q1189" t="inlineStr">
-        <is>
-          <t>$/malla 16 kilos</t>
-        </is>
-      </c>
-      <c r="R1189" t="inlineStr">
+      <c r="Q1195" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R1195" t="inlineStr">
         <is>
           <t>Provincia del Elquí</t>
         </is>
       </c>
-      <c r="S1189" t="n">
+      <c r="S1195" t="n">
         <v>68</v>
       </c>
-      <c r="T1189" t="n">
+      <c r="T1195" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal La Palmera de La Serena - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal La Palmera de La Serena - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1251"/>
+  <dimension ref="A1:T1257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86087,7 +86087,7 @@
         </is>
       </c>
       <c r="D1072" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E1072" t="n">
         <v>4</v>
@@ -86124,16 +86124,16 @@
         </is>
       </c>
       <c r="M1072" t="n">
-        <v>780</v>
+        <v>600</v>
       </c>
       <c r="N1072" t="n">
-        <v>4300</v>
+        <v>3800</v>
       </c>
       <c r="O1072" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="P1072" t="n">
-        <v>4400</v>
+        <v>3900</v>
       </c>
       <c r="Q1072" t="inlineStr">
         <is>
@@ -86142,11 +86142,11 @@
       </c>
       <c r="R1072" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1072" t="n">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="T1072" t="n">
         <v>16</v>
@@ -86167,7 +86167,7 @@
         </is>
       </c>
       <c r="D1073" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E1073" t="n">
         <v>4</v>
@@ -86200,20 +86200,20 @@
       </c>
       <c r="L1073" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1073" t="n">
-        <v>540</v>
+        <v>750</v>
       </c>
       <c r="N1073" t="n">
-        <v>3300</v>
+        <v>3800</v>
       </c>
       <c r="O1073" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="P1073" t="n">
-        <v>3400</v>
+        <v>3900</v>
       </c>
       <c r="Q1073" t="inlineStr">
         <is>
@@ -86226,7 +86226,7 @@
         </is>
       </c>
       <c r="S1073" t="n">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="T1073" t="n">
         <v>16</v>
@@ -86247,7 +86247,7 @@
         </is>
       </c>
       <c r="D1074" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E1074" t="n">
         <v>4</v>
@@ -86280,20 +86280,20 @@
       </c>
       <c r="L1074" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1074" t="n">
-        <v>480</v>
+        <v>540</v>
       </c>
       <c r="N1074" t="n">
-        <v>2300</v>
+        <v>2800</v>
       </c>
       <c r="O1074" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="P1074" t="n">
-        <v>2400</v>
+        <v>2900</v>
       </c>
       <c r="Q1074" t="inlineStr">
         <is>
@@ -86302,11 +86302,11 @@
       </c>
       <c r="R1074" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1074" t="n">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="T1074" t="n">
         <v>16</v>
@@ -86327,7 +86327,7 @@
         </is>
       </c>
       <c r="D1075" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E1075" t="n">
         <v>4</v>
@@ -86360,20 +86360,20 @@
       </c>
       <c r="L1075" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1075" t="n">
         <v>600</v>
       </c>
       <c r="N1075" t="n">
-        <v>3300</v>
+        <v>2800</v>
       </c>
       <c r="O1075" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="P1075" t="n">
-        <v>3400</v>
+        <v>2900</v>
       </c>
       <c r="Q1075" t="inlineStr">
         <is>
@@ -86382,11 +86382,11 @@
       </c>
       <c r="R1075" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1075" t="n">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="T1075" t="n">
         <v>16</v>
@@ -86407,7 +86407,7 @@
         </is>
       </c>
       <c r="D1076" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E1076" t="n">
         <v>4</v>
@@ -86440,20 +86440,20 @@
       </c>
       <c r="L1076" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1076" t="n">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="N1076" t="n">
-        <v>3300</v>
+        <v>1800</v>
       </c>
       <c r="O1076" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="P1076" t="n">
-        <v>3400</v>
+        <v>1900</v>
       </c>
       <c r="Q1076" t="inlineStr">
         <is>
@@ -86462,11 +86462,11 @@
       </c>
       <c r="R1076" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1076" t="n">
-        <v>212</v>
+        <v>119</v>
       </c>
       <c r="T1076" t="n">
         <v>16</v>
@@ -86487,7 +86487,7 @@
         </is>
       </c>
       <c r="D1077" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E1077" t="n">
         <v>4</v>
@@ -86520,20 +86520,20 @@
       </c>
       <c r="L1077" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1077" t="n">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="N1077" t="n">
-        <v>2300</v>
+        <v>1800</v>
       </c>
       <c r="O1077" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="P1077" t="n">
-        <v>2400</v>
+        <v>1900</v>
       </c>
       <c r="Q1077" t="inlineStr">
         <is>
@@ -86542,11 +86542,11 @@
       </c>
       <c r="R1077" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1077" t="n">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="T1077" t="n">
         <v>16</v>
@@ -86567,7 +86567,7 @@
         </is>
       </c>
       <c r="D1078" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E1078" t="n">
         <v>4</v>
@@ -86600,20 +86600,20 @@
       </c>
       <c r="L1078" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1078" t="n">
-        <v>560</v>
+        <v>780</v>
       </c>
       <c r="N1078" t="n">
-        <v>2300</v>
+        <v>4300</v>
       </c>
       <c r="O1078" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="P1078" t="n">
-        <v>2400</v>
+        <v>4400</v>
       </c>
       <c r="Q1078" t="inlineStr">
         <is>
@@ -86626,7 +86626,7 @@
         </is>
       </c>
       <c r="S1078" t="n">
-        <v>150</v>
+        <v>275</v>
       </c>
       <c r="T1078" t="n">
         <v>16</v>
@@ -86647,7 +86647,7 @@
         </is>
       </c>
       <c r="D1079" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E1079" t="n">
         <v>4</v>
@@ -86680,20 +86680,20 @@
       </c>
       <c r="L1079" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1079" t="n">
-        <v>360</v>
+        <v>540</v>
       </c>
       <c r="N1079" t="n">
-        <v>1300</v>
+        <v>3300</v>
       </c>
       <c r="O1079" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="P1079" t="n">
-        <v>1400</v>
+        <v>3400</v>
       </c>
       <c r="Q1079" t="inlineStr">
         <is>
@@ -86702,11 +86702,11 @@
       </c>
       <c r="R1079" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1079" t="n">
-        <v>88</v>
+        <v>212</v>
       </c>
       <c r="T1079" t="n">
         <v>16</v>
@@ -86727,7 +86727,7 @@
         </is>
       </c>
       <c r="D1080" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E1080" t="n">
         <v>4</v>
@@ -86764,16 +86764,16 @@
         </is>
       </c>
       <c r="M1080" t="n">
-        <v>450</v>
+        <v>480</v>
       </c>
       <c r="N1080" t="n">
-        <v>1300</v>
+        <v>2300</v>
       </c>
       <c r="O1080" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="P1080" t="n">
-        <v>1400</v>
+        <v>2400</v>
       </c>
       <c r="Q1080" t="inlineStr">
         <is>
@@ -86786,7 +86786,7 @@
         </is>
       </c>
       <c r="S1080" t="n">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="T1080" t="n">
         <v>16</v>
@@ -86807,7 +86807,7 @@
         </is>
       </c>
       <c r="D1081" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E1081" t="n">
         <v>4</v>
@@ -86844,7 +86844,7 @@
         </is>
       </c>
       <c r="M1081" t="n">
-        <v>660</v>
+        <v>600</v>
       </c>
       <c r="N1081" t="n">
         <v>3300</v>
@@ -86862,7 +86862,7 @@
       </c>
       <c r="R1081" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1081" t="n">
@@ -86887,7 +86887,7 @@
         </is>
       </c>
       <c r="D1082" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E1082" t="n">
         <v>4</v>
@@ -86920,20 +86920,20 @@
       </c>
       <c r="L1082" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1082" t="n">
-        <v>540</v>
+        <v>750</v>
       </c>
       <c r="N1082" t="n">
-        <v>2300</v>
+        <v>3300</v>
       </c>
       <c r="O1082" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="P1082" t="n">
-        <v>2400</v>
+        <v>3400</v>
       </c>
       <c r="Q1082" t="inlineStr">
         <is>
@@ -86946,7 +86946,7 @@
         </is>
       </c>
       <c r="S1082" t="n">
-        <v>150</v>
+        <v>212</v>
       </c>
       <c r="T1082" t="n">
         <v>16</v>
@@ -86967,7 +86967,7 @@
         </is>
       </c>
       <c r="D1083" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E1083" t="n">
         <v>4</v>
@@ -87000,20 +87000,20 @@
       </c>
       <c r="L1083" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1083" t="n">
-        <v>450</v>
+        <v>560</v>
       </c>
       <c r="N1083" t="n">
-        <v>1300</v>
+        <v>2300</v>
       </c>
       <c r="O1083" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="P1083" t="n">
-        <v>1400</v>
+        <v>2400</v>
       </c>
       <c r="Q1083" t="inlineStr">
         <is>
@@ -87022,11 +87022,11 @@
       </c>
       <c r="R1083" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1083" t="n">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="T1083" t="n">
         <v>16</v>
@@ -87047,7 +87047,7 @@
         </is>
       </c>
       <c r="D1084" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E1084" t="n">
         <v>4</v>
@@ -87080,20 +87080,20 @@
       </c>
       <c r="L1084" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1084" t="n">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="N1084" t="n">
-        <v>14800</v>
+        <v>2300</v>
       </c>
       <c r="O1084" t="n">
-        <v>15000</v>
+        <v>2500</v>
       </c>
       <c r="P1084" t="n">
-        <v>14900</v>
+        <v>2400</v>
       </c>
       <c r="Q1084" t="inlineStr">
         <is>
@@ -87102,11 +87102,11 @@
       </c>
       <c r="R1084" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1084" t="n">
-        <v>931</v>
+        <v>150</v>
       </c>
       <c r="T1084" t="n">
         <v>16</v>
@@ -87127,7 +87127,7 @@
         </is>
       </c>
       <c r="D1085" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E1085" t="n">
         <v>4</v>
@@ -87160,20 +87160,20 @@
       </c>
       <c r="L1085" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1085" t="n">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="N1085" t="n">
-        <v>14800</v>
+        <v>1300</v>
       </c>
       <c r="O1085" t="n">
-        <v>15000</v>
+        <v>1500</v>
       </c>
       <c r="P1085" t="n">
-        <v>14900</v>
+        <v>1400</v>
       </c>
       <c r="Q1085" t="inlineStr">
         <is>
@@ -87182,11 +87182,11 @@
       </c>
       <c r="R1085" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1085" t="n">
-        <v>931</v>
+        <v>88</v>
       </c>
       <c r="T1085" t="n">
         <v>16</v>
@@ -87207,7 +87207,7 @@
         </is>
       </c>
       <c r="D1086" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E1086" t="n">
         <v>4</v>
@@ -87240,20 +87240,20 @@
       </c>
       <c r="L1086" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1086" t="n">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="N1086" t="n">
-        <v>16800</v>
+        <v>1300</v>
       </c>
       <c r="O1086" t="n">
-        <v>17000</v>
+        <v>1500</v>
       </c>
       <c r="P1086" t="n">
-        <v>16900</v>
+        <v>1400</v>
       </c>
       <c r="Q1086" t="inlineStr">
         <is>
@@ -87262,11 +87262,11 @@
       </c>
       <c r="R1086" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1086" t="n">
-        <v>1056</v>
+        <v>88</v>
       </c>
       <c r="T1086" t="n">
         <v>16</v>
@@ -87287,7 +87287,7 @@
         </is>
       </c>
       <c r="D1087" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E1087" t="n">
         <v>4</v>
@@ -87320,20 +87320,20 @@
       </c>
       <c r="L1087" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1087" t="n">
-        <v>450</v>
+        <v>660</v>
       </c>
       <c r="N1087" t="n">
-        <v>16800</v>
+        <v>3300</v>
       </c>
       <c r="O1087" t="n">
-        <v>17000</v>
+        <v>3500</v>
       </c>
       <c r="P1087" t="n">
-        <v>16900</v>
+        <v>3400</v>
       </c>
       <c r="Q1087" t="inlineStr">
         <is>
@@ -87346,7 +87346,7 @@
         </is>
       </c>
       <c r="S1087" t="n">
-        <v>1056</v>
+        <v>212</v>
       </c>
       <c r="T1087" t="n">
         <v>16</v>
@@ -87367,7 +87367,7 @@
         </is>
       </c>
       <c r="D1088" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E1088" t="n">
         <v>4</v>
@@ -87404,16 +87404,16 @@
         </is>
       </c>
       <c r="M1088" t="n">
-        <v>450</v>
+        <v>540</v>
       </c>
       <c r="N1088" t="n">
-        <v>11800</v>
+        <v>2300</v>
       </c>
       <c r="O1088" t="n">
-        <v>12000</v>
+        <v>2500</v>
       </c>
       <c r="P1088" t="n">
-        <v>11900</v>
+        <v>2400</v>
       </c>
       <c r="Q1088" t="inlineStr">
         <is>
@@ -87422,11 +87422,11 @@
       </c>
       <c r="R1088" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1088" t="n">
-        <v>744</v>
+        <v>150</v>
       </c>
       <c r="T1088" t="n">
         <v>16</v>
@@ -87447,7 +87447,7 @@
         </is>
       </c>
       <c r="D1089" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E1089" t="n">
         <v>4</v>
@@ -87480,20 +87480,20 @@
       </c>
       <c r="L1089" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1089" t="n">
-        <v>390</v>
+        <v>450</v>
       </c>
       <c r="N1089" t="n">
-        <v>11800</v>
+        <v>1300</v>
       </c>
       <c r="O1089" t="n">
-        <v>12000</v>
+        <v>1500</v>
       </c>
       <c r="P1089" t="n">
-        <v>11908</v>
+        <v>1400</v>
       </c>
       <c r="Q1089" t="inlineStr">
         <is>
@@ -87506,7 +87506,7 @@
         </is>
       </c>
       <c r="S1089" t="n">
-        <v>744</v>
+        <v>88</v>
       </c>
       <c r="T1089" t="n">
         <v>16</v>
@@ -87560,20 +87560,20 @@
       </c>
       <c r="L1090" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1090" t="n">
-        <v>390</v>
+        <v>480</v>
       </c>
       <c r="N1090" t="n">
-        <v>13800</v>
+        <v>14800</v>
       </c>
       <c r="O1090" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P1090" t="n">
-        <v>13900</v>
+        <v>14900</v>
       </c>
       <c r="Q1090" t="inlineStr">
         <is>
@@ -87586,7 +87586,7 @@
         </is>
       </c>
       <c r="S1090" t="n">
-        <v>869</v>
+        <v>931</v>
       </c>
       <c r="T1090" t="n">
         <v>16</v>
@@ -87640,20 +87640,20 @@
       </c>
       <c r="L1091" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1091" t="n">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="N1091" t="n">
-        <v>13800</v>
+        <v>14800</v>
       </c>
       <c r="O1091" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P1091" t="n">
-        <v>13900</v>
+        <v>14900</v>
       </c>
       <c r="Q1091" t="inlineStr">
         <is>
@@ -87666,7 +87666,7 @@
         </is>
       </c>
       <c r="S1091" t="n">
-        <v>869</v>
+        <v>931</v>
       </c>
       <c r="T1091" t="n">
         <v>16</v>
@@ -87720,20 +87720,20 @@
       </c>
       <c r="L1092" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1092" t="n">
-        <v>320</v>
+        <v>420</v>
       </c>
       <c r="N1092" t="n">
-        <v>9800</v>
+        <v>16800</v>
       </c>
       <c r="O1092" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P1092" t="n">
-        <v>9900</v>
+        <v>16900</v>
       </c>
       <c r="Q1092" t="inlineStr">
         <is>
@@ -87746,7 +87746,7 @@
         </is>
       </c>
       <c r="S1092" t="n">
-        <v>619</v>
+        <v>1056</v>
       </c>
       <c r="T1092" t="n">
         <v>16</v>
@@ -87800,20 +87800,20 @@
       </c>
       <c r="L1093" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1093" t="n">
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="N1093" t="n">
-        <v>9800</v>
+        <v>16800</v>
       </c>
       <c r="O1093" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P1093" t="n">
-        <v>9900</v>
+        <v>16900</v>
       </c>
       <c r="Q1093" t="inlineStr">
         <is>
@@ -87826,7 +87826,7 @@
         </is>
       </c>
       <c r="S1093" t="n">
-        <v>619</v>
+        <v>1056</v>
       </c>
       <c r="T1093" t="n">
         <v>16</v>
@@ -87880,20 +87880,20 @@
       </c>
       <c r="L1094" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1094" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="N1094" t="n">
-        <v>10800</v>
+        <v>11800</v>
       </c>
       <c r="O1094" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P1094" t="n">
-        <v>10900</v>
+        <v>11900</v>
       </c>
       <c r="Q1094" t="inlineStr">
         <is>
@@ -87906,7 +87906,7 @@
         </is>
       </c>
       <c r="S1094" t="n">
-        <v>681</v>
+        <v>744</v>
       </c>
       <c r="T1094" t="n">
         <v>16</v>
@@ -87960,20 +87960,20 @@
       </c>
       <c r="L1095" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1095" t="n">
-        <v>340</v>
+        <v>390</v>
       </c>
       <c r="N1095" t="n">
-        <v>10800</v>
+        <v>11800</v>
       </c>
       <c r="O1095" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P1095" t="n">
-        <v>10906</v>
+        <v>11908</v>
       </c>
       <c r="Q1095" t="inlineStr">
         <is>
@@ -87986,7 +87986,7 @@
         </is>
       </c>
       <c r="S1095" t="n">
-        <v>682</v>
+        <v>744</v>
       </c>
       <c r="T1095" t="n">
         <v>16</v>
@@ -88007,7 +88007,7 @@
         </is>
       </c>
       <c r="D1096" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E1096" t="n">
         <v>4</v>
@@ -88040,20 +88040,20 @@
       </c>
       <c r="L1096" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1096" t="n">
-        <v>720</v>
+        <v>390</v>
       </c>
       <c r="N1096" t="n">
-        <v>3800</v>
+        <v>13800</v>
       </c>
       <c r="O1096" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="P1096" t="n">
-        <v>3900</v>
+        <v>13900</v>
       </c>
       <c r="Q1096" t="inlineStr">
         <is>
@@ -88062,11 +88062,11 @@
       </c>
       <c r="R1096" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1096" t="n">
-        <v>244</v>
+        <v>869</v>
       </c>
       <c r="T1096" t="n">
         <v>16</v>
@@ -88087,7 +88087,7 @@
         </is>
       </c>
       <c r="D1097" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E1097" t="n">
         <v>4</v>
@@ -88120,20 +88120,20 @@
       </c>
       <c r="L1097" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1097" t="n">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="N1097" t="n">
-        <v>2800</v>
+        <v>13800</v>
       </c>
       <c r="O1097" t="n">
-        <v>3000</v>
+        <v>14000</v>
       </c>
       <c r="P1097" t="n">
-        <v>2900</v>
+        <v>13900</v>
       </c>
       <c r="Q1097" t="inlineStr">
         <is>
@@ -88146,7 +88146,7 @@
         </is>
       </c>
       <c r="S1097" t="n">
-        <v>181</v>
+        <v>869</v>
       </c>
       <c r="T1097" t="n">
         <v>16</v>
@@ -88167,7 +88167,7 @@
         </is>
       </c>
       <c r="D1098" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E1098" t="n">
         <v>4</v>
@@ -88204,16 +88204,16 @@
         </is>
       </c>
       <c r="M1098" t="n">
-        <v>480</v>
+        <v>320</v>
       </c>
       <c r="N1098" t="n">
-        <v>1800</v>
+        <v>9800</v>
       </c>
       <c r="O1098" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="P1098" t="n">
-        <v>1900</v>
+        <v>9900</v>
       </c>
       <c r="Q1098" t="inlineStr">
         <is>
@@ -88222,11 +88222,11 @@
       </c>
       <c r="R1098" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1098" t="n">
-        <v>119</v>
+        <v>619</v>
       </c>
       <c r="T1098" t="n">
         <v>16</v>
@@ -88247,7 +88247,7 @@
         </is>
       </c>
       <c r="D1099" s="2" t="n">
-        <v>44172</v>
+        <v>44263</v>
       </c>
       <c r="E1099" t="n">
         <v>4</v>
@@ -88280,36 +88280,36 @@
       </c>
       <c r="L1099" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1099" t="n">
-        <v>450</v>
+        <v>360</v>
       </c>
       <c r="N1099" t="n">
-        <v>8800</v>
+        <v>9800</v>
       </c>
       <c r="O1099" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P1099" t="n">
-        <v>8900</v>
+        <v>9900</v>
       </c>
       <c r="Q1099" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R1099" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1099" t="n">
-        <v>494</v>
+        <v>619</v>
       </c>
       <c r="T1099" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1100">
@@ -88327,7 +88327,7 @@
         </is>
       </c>
       <c r="D1100" s="2" t="n">
-        <v>44172</v>
+        <v>44263</v>
       </c>
       <c r="E1100" t="n">
         <v>4</v>
@@ -88360,36 +88360,36 @@
       </c>
       <c r="L1100" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1100" t="n">
-        <v>580</v>
+        <v>300</v>
       </c>
       <c r="N1100" t="n">
-        <v>8800</v>
+        <v>10800</v>
       </c>
       <c r="O1100" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P1100" t="n">
-        <v>8900</v>
+        <v>10900</v>
       </c>
       <c r="Q1100" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R1100" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1100" t="n">
-        <v>494</v>
+        <v>681</v>
       </c>
       <c r="T1100" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1101">
@@ -88407,7 +88407,7 @@
         </is>
       </c>
       <c r="D1101" s="2" t="n">
-        <v>44172</v>
+        <v>44263</v>
       </c>
       <c r="E1101" t="n">
         <v>4</v>
@@ -88440,11 +88440,11 @@
       </c>
       <c r="L1101" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1101" t="n">
-        <v>700</v>
+        <v>340</v>
       </c>
       <c r="N1101" t="n">
         <v>10800</v>
@@ -88453,23 +88453,23 @@
         <v>11000</v>
       </c>
       <c r="P1101" t="n">
-        <v>10900</v>
+        <v>10906</v>
       </c>
       <c r="Q1101" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R1101" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1101" t="n">
-        <v>606</v>
+        <v>682</v>
       </c>
       <c r="T1101" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1102">
@@ -88487,7 +88487,7 @@
         </is>
       </c>
       <c r="D1102" s="2" t="n">
-        <v>44172</v>
+        <v>44363</v>
       </c>
       <c r="E1102" t="n">
         <v>4</v>
@@ -88520,24 +88520,24 @@
       </c>
       <c r="L1102" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1102" t="n">
-        <v>700</v>
+        <v>720</v>
       </c>
       <c r="N1102" t="n">
-        <v>10800</v>
+        <v>3800</v>
       </c>
       <c r="O1102" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="P1102" t="n">
-        <v>10893</v>
+        <v>3900</v>
       </c>
       <c r="Q1102" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R1102" t="inlineStr">
@@ -88546,10 +88546,10 @@
         </is>
       </c>
       <c r="S1102" t="n">
-        <v>605</v>
+        <v>244</v>
       </c>
       <c r="T1102" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1103">
@@ -88567,7 +88567,7 @@
         </is>
       </c>
       <c r="D1103" s="2" t="n">
-        <v>44172</v>
+        <v>44363</v>
       </c>
       <c r="E1103" t="n">
         <v>4</v>
@@ -88604,32 +88604,32 @@
         </is>
       </c>
       <c r="M1103" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="N1103" t="n">
-        <v>5800</v>
+        <v>2800</v>
       </c>
       <c r="O1103" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="P1103" t="n">
-        <v>5900</v>
+        <v>2900</v>
       </c>
       <c r="Q1103" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R1103" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1103" t="n">
-        <v>328</v>
+        <v>181</v>
       </c>
       <c r="T1103" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1104">
@@ -88647,7 +88647,7 @@
         </is>
       </c>
       <c r="D1104" s="2" t="n">
-        <v>44172</v>
+        <v>44363</v>
       </c>
       <c r="E1104" t="n">
         <v>4</v>
@@ -88680,24 +88680,24 @@
       </c>
       <c r="L1104" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1104" t="n">
         <v>480</v>
       </c>
       <c r="N1104" t="n">
-        <v>5800</v>
+        <v>1800</v>
       </c>
       <c r="O1104" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="P1104" t="n">
-        <v>5900</v>
+        <v>1900</v>
       </c>
       <c r="Q1104" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R1104" t="inlineStr">
@@ -88706,10 +88706,10 @@
         </is>
       </c>
       <c r="S1104" t="n">
-        <v>328</v>
+        <v>119</v>
       </c>
       <c r="T1104" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1105">
@@ -88760,20 +88760,20 @@
       </c>
       <c r="L1105" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1105" t="n">
-        <v>510</v>
+        <v>450</v>
       </c>
       <c r="N1105" t="n">
-        <v>7800</v>
+        <v>8800</v>
       </c>
       <c r="O1105" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P1105" t="n">
-        <v>7894</v>
+        <v>8900</v>
       </c>
       <c r="Q1105" t="inlineStr">
         <is>
@@ -88786,7 +88786,7 @@
         </is>
       </c>
       <c r="S1105" t="n">
-        <v>439</v>
+        <v>494</v>
       </c>
       <c r="T1105" t="n">
         <v>18</v>
@@ -88840,20 +88840,20 @@
       </c>
       <c r="L1106" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1106" t="n">
-        <v>540</v>
+        <v>580</v>
       </c>
       <c r="N1106" t="n">
-        <v>7800</v>
+        <v>8800</v>
       </c>
       <c r="O1106" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P1106" t="n">
-        <v>7900</v>
+        <v>8900</v>
       </c>
       <c r="Q1106" t="inlineStr">
         <is>
@@ -88866,7 +88866,7 @@
         </is>
       </c>
       <c r="S1106" t="n">
-        <v>439</v>
+        <v>494</v>
       </c>
       <c r="T1106" t="n">
         <v>18</v>
@@ -88920,20 +88920,20 @@
       </c>
       <c r="L1107" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1107" t="n">
-        <v>420</v>
+        <v>700</v>
       </c>
       <c r="N1107" t="n">
-        <v>3800</v>
+        <v>10800</v>
       </c>
       <c r="O1107" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="P1107" t="n">
-        <v>3893</v>
+        <v>10900</v>
       </c>
       <c r="Q1107" t="inlineStr">
         <is>
@@ -88946,7 +88946,7 @@
         </is>
       </c>
       <c r="S1107" t="n">
-        <v>216</v>
+        <v>606</v>
       </c>
       <c r="T1107" t="n">
         <v>18</v>
@@ -89000,20 +89000,20 @@
       </c>
       <c r="L1108" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1108" t="n">
-        <v>420</v>
+        <v>700</v>
       </c>
       <c r="N1108" t="n">
-        <v>3800</v>
+        <v>10800</v>
       </c>
       <c r="O1108" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="P1108" t="n">
-        <v>3900</v>
+        <v>10893</v>
       </c>
       <c r="Q1108" t="inlineStr">
         <is>
@@ -89026,7 +89026,7 @@
         </is>
       </c>
       <c r="S1108" t="n">
-        <v>217</v>
+        <v>605</v>
       </c>
       <c r="T1108" t="n">
         <v>18</v>
@@ -89080,11 +89080,11 @@
       </c>
       <c r="L1109" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1109" t="n">
-        <v>450</v>
+        <v>480</v>
       </c>
       <c r="N1109" t="n">
         <v>5800</v>
@@ -89160,7 +89160,7 @@
       </c>
       <c r="L1110" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1110" t="n">
@@ -89173,7 +89173,7 @@
         <v>6000</v>
       </c>
       <c r="P1110" t="n">
-        <v>5906</v>
+        <v>5900</v>
       </c>
       <c r="Q1110" t="inlineStr">
         <is>
@@ -89207,7 +89207,7 @@
         </is>
       </c>
       <c r="D1111" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E1111" t="n">
         <v>4</v>
@@ -89240,24 +89240,24 @@
       </c>
       <c r="L1111" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1111" t="n">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="N1111" t="n">
-        <v>11300</v>
+        <v>7800</v>
       </c>
       <c r="O1111" t="n">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="P1111" t="n">
-        <v>11400</v>
+        <v>7894</v>
       </c>
       <c r="Q1111" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1111" t="inlineStr">
@@ -89266,10 +89266,10 @@
         </is>
       </c>
       <c r="S1111" t="n">
-        <v>712</v>
+        <v>439</v>
       </c>
       <c r="T1111" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1112">
@@ -89287,7 +89287,7 @@
         </is>
       </c>
       <c r="D1112" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E1112" t="n">
         <v>4</v>
@@ -89320,24 +89320,24 @@
       </c>
       <c r="L1112" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1112" t="n">
-        <v>660</v>
+        <v>540</v>
       </c>
       <c r="N1112" t="n">
-        <v>11300</v>
+        <v>7800</v>
       </c>
       <c r="O1112" t="n">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="P1112" t="n">
-        <v>11400</v>
+        <v>7900</v>
       </c>
       <c r="Q1112" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1112" t="inlineStr">
@@ -89346,10 +89346,10 @@
         </is>
       </c>
       <c r="S1112" t="n">
-        <v>712</v>
+        <v>439</v>
       </c>
       <c r="T1112" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1113">
@@ -89367,7 +89367,7 @@
         </is>
       </c>
       <c r="D1113" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E1113" t="n">
         <v>4</v>
@@ -89400,24 +89400,24 @@
       </c>
       <c r="L1113" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1113" t="n">
-        <v>470</v>
+        <v>420</v>
       </c>
       <c r="N1113" t="n">
-        <v>11800</v>
+        <v>3800</v>
       </c>
       <c r="O1113" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="P1113" t="n">
-        <v>11900</v>
+        <v>3893</v>
       </c>
       <c r="Q1113" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1113" t="inlineStr">
@@ -89426,10 +89426,10 @@
         </is>
       </c>
       <c r="S1113" t="n">
-        <v>744</v>
+        <v>216</v>
       </c>
       <c r="T1113" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1114">
@@ -89447,7 +89447,7 @@
         </is>
       </c>
       <c r="D1114" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E1114" t="n">
         <v>4</v>
@@ -89480,24 +89480,24 @@
       </c>
       <c r="L1114" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1114" t="n">
-        <v>510</v>
+        <v>420</v>
       </c>
       <c r="N1114" t="n">
-        <v>11800</v>
+        <v>3800</v>
       </c>
       <c r="O1114" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="P1114" t="n">
-        <v>11900</v>
+        <v>3900</v>
       </c>
       <c r="Q1114" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1114" t="inlineStr">
@@ -89506,10 +89506,10 @@
         </is>
       </c>
       <c r="S1114" t="n">
-        <v>744</v>
+        <v>217</v>
       </c>
       <c r="T1114" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1115">
@@ -89527,7 +89527,7 @@
         </is>
       </c>
       <c r="D1115" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E1115" t="n">
         <v>4</v>
@@ -89560,24 +89560,24 @@
       </c>
       <c r="L1115" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1115" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="N1115" t="n">
-        <v>9300</v>
+        <v>5800</v>
       </c>
       <c r="O1115" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="P1115" t="n">
-        <v>9400</v>
+        <v>5900</v>
       </c>
       <c r="Q1115" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1115" t="inlineStr">
@@ -89586,10 +89586,10 @@
         </is>
       </c>
       <c r="S1115" t="n">
-        <v>588</v>
+        <v>328</v>
       </c>
       <c r="T1115" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1116">
@@ -89607,7 +89607,7 @@
         </is>
       </c>
       <c r="D1116" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E1116" t="n">
         <v>4</v>
@@ -89640,24 +89640,24 @@
       </c>
       <c r="L1116" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1116" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="N1116" t="n">
-        <v>9300</v>
+        <v>5800</v>
       </c>
       <c r="O1116" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="P1116" t="n">
-        <v>9400</v>
+        <v>5906</v>
       </c>
       <c r="Q1116" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1116" t="inlineStr">
@@ -89666,10 +89666,10 @@
         </is>
       </c>
       <c r="S1116" t="n">
-        <v>588</v>
+        <v>328</v>
       </c>
       <c r="T1116" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1117">
@@ -89720,20 +89720,20 @@
       </c>
       <c r="L1117" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1117" t="n">
-        <v>480</v>
+        <v>540</v>
       </c>
       <c r="N1117" t="n">
-        <v>9800</v>
+        <v>11300</v>
       </c>
       <c r="O1117" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="P1117" t="n">
-        <v>9906</v>
+        <v>11400</v>
       </c>
       <c r="Q1117" t="inlineStr">
         <is>
@@ -89746,7 +89746,7 @@
         </is>
       </c>
       <c r="S1117" t="n">
-        <v>619</v>
+        <v>712</v>
       </c>
       <c r="T1117" t="n">
         <v>16</v>
@@ -89800,20 +89800,20 @@
       </c>
       <c r="L1118" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1118" t="n">
-        <v>470</v>
+        <v>660</v>
       </c>
       <c r="N1118" t="n">
-        <v>9800</v>
+        <v>11300</v>
       </c>
       <c r="O1118" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="P1118" t="n">
-        <v>9900</v>
+        <v>11400</v>
       </c>
       <c r="Q1118" t="inlineStr">
         <is>
@@ -89826,7 +89826,7 @@
         </is>
       </c>
       <c r="S1118" t="n">
-        <v>619</v>
+        <v>712</v>
       </c>
       <c r="T1118" t="n">
         <v>16</v>
@@ -89880,20 +89880,20 @@
       </c>
       <c r="L1119" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1119" t="n">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="N1119" t="n">
-        <v>7300</v>
+        <v>11800</v>
       </c>
       <c r="O1119" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="P1119" t="n">
-        <v>7400</v>
+        <v>11900</v>
       </c>
       <c r="Q1119" t="inlineStr">
         <is>
@@ -89906,7 +89906,7 @@
         </is>
       </c>
       <c r="S1119" t="n">
-        <v>462</v>
+        <v>744</v>
       </c>
       <c r="T1119" t="n">
         <v>16</v>
@@ -89960,20 +89960,20 @@
       </c>
       <c r="L1120" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1120" t="n">
-        <v>420</v>
+        <v>510</v>
       </c>
       <c r="N1120" t="n">
-        <v>7300</v>
+        <v>11800</v>
       </c>
       <c r="O1120" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="P1120" t="n">
-        <v>7400</v>
+        <v>11900</v>
       </c>
       <c r="Q1120" t="inlineStr">
         <is>
@@ -89986,7 +89986,7 @@
         </is>
       </c>
       <c r="S1120" t="n">
-        <v>462</v>
+        <v>744</v>
       </c>
       <c r="T1120" t="n">
         <v>16</v>
@@ -90040,20 +90040,20 @@
       </c>
       <c r="L1121" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1121" t="n">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="N1121" t="n">
-        <v>7800</v>
+        <v>9300</v>
       </c>
       <c r="O1121" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="P1121" t="n">
-        <v>7900</v>
+        <v>9400</v>
       </c>
       <c r="Q1121" t="inlineStr">
         <is>
@@ -90066,7 +90066,7 @@
         </is>
       </c>
       <c r="S1121" t="n">
-        <v>494</v>
+        <v>588</v>
       </c>
       <c r="T1121" t="n">
         <v>16</v>
@@ -90120,20 +90120,20 @@
       </c>
       <c r="L1122" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1122" t="n">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="N1122" t="n">
-        <v>7800</v>
+        <v>9300</v>
       </c>
       <c r="O1122" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="P1122" t="n">
-        <v>7900</v>
+        <v>9400</v>
       </c>
       <c r="Q1122" t="inlineStr">
         <is>
@@ -90146,7 +90146,7 @@
         </is>
       </c>
       <c r="S1122" t="n">
-        <v>494</v>
+        <v>588</v>
       </c>
       <c r="T1122" t="n">
         <v>16</v>
@@ -90167,7 +90167,7 @@
         </is>
       </c>
       <c r="D1123" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E1123" t="n">
         <v>4</v>
@@ -90200,20 +90200,20 @@
       </c>
       <c r="L1123" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1123" t="n">
-        <v>540</v>
+        <v>480</v>
       </c>
       <c r="N1123" t="n">
-        <v>3800</v>
+        <v>9800</v>
       </c>
       <c r="O1123" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="P1123" t="n">
-        <v>3900</v>
+        <v>9906</v>
       </c>
       <c r="Q1123" t="inlineStr">
         <is>
@@ -90226,7 +90226,7 @@
         </is>
       </c>
       <c r="S1123" t="n">
-        <v>244</v>
+        <v>619</v>
       </c>
       <c r="T1123" t="n">
         <v>16</v>
@@ -90247,7 +90247,7 @@
         </is>
       </c>
       <c r="D1124" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E1124" t="n">
         <v>4</v>
@@ -90280,20 +90280,20 @@
       </c>
       <c r="L1124" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1124" t="n">
-        <v>600</v>
+        <v>470</v>
       </c>
       <c r="N1124" t="n">
-        <v>3800</v>
+        <v>9800</v>
       </c>
       <c r="O1124" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="P1124" t="n">
-        <v>3900</v>
+        <v>9900</v>
       </c>
       <c r="Q1124" t="inlineStr">
         <is>
@@ -90306,7 +90306,7 @@
         </is>
       </c>
       <c r="S1124" t="n">
-        <v>244</v>
+        <v>619</v>
       </c>
       <c r="T1124" t="n">
         <v>16</v>
@@ -90327,7 +90327,7 @@
         </is>
       </c>
       <c r="D1125" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E1125" t="n">
         <v>4</v>
@@ -90360,20 +90360,20 @@
       </c>
       <c r="L1125" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1125" t="n">
         <v>450</v>
       </c>
       <c r="N1125" t="n">
-        <v>2800</v>
+        <v>7300</v>
       </c>
       <c r="O1125" t="n">
-        <v>3000</v>
+        <v>7500</v>
       </c>
       <c r="P1125" t="n">
-        <v>2900</v>
+        <v>7400</v>
       </c>
       <c r="Q1125" t="inlineStr">
         <is>
@@ -90386,7 +90386,7 @@
         </is>
       </c>
       <c r="S1125" t="n">
-        <v>181</v>
+        <v>462</v>
       </c>
       <c r="T1125" t="n">
         <v>16</v>
@@ -90407,7 +90407,7 @@
         </is>
       </c>
       <c r="D1126" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E1126" t="n">
         <v>4</v>
@@ -90440,20 +90440,20 @@
       </c>
       <c r="L1126" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1126" t="n">
-        <v>510</v>
+        <v>420</v>
       </c>
       <c r="N1126" t="n">
-        <v>2800</v>
+        <v>7300</v>
       </c>
       <c r="O1126" t="n">
-        <v>3000</v>
+        <v>7500</v>
       </c>
       <c r="P1126" t="n">
-        <v>2900</v>
+        <v>7400</v>
       </c>
       <c r="Q1126" t="inlineStr">
         <is>
@@ -90466,7 +90466,7 @@
         </is>
       </c>
       <c r="S1126" t="n">
-        <v>181</v>
+        <v>462</v>
       </c>
       <c r="T1126" t="n">
         <v>16</v>
@@ -90487,7 +90487,7 @@
         </is>
       </c>
       <c r="D1127" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E1127" t="n">
         <v>4</v>
@@ -90520,20 +90520,20 @@
       </c>
       <c r="L1127" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1127" t="n">
         <v>360</v>
       </c>
       <c r="N1127" t="n">
-        <v>1800</v>
+        <v>7800</v>
       </c>
       <c r="O1127" t="n">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="P1127" t="n">
-        <v>1900</v>
+        <v>7900</v>
       </c>
       <c r="Q1127" t="inlineStr">
         <is>
@@ -90546,7 +90546,7 @@
         </is>
       </c>
       <c r="S1127" t="n">
-        <v>119</v>
+        <v>494</v>
       </c>
       <c r="T1127" t="n">
         <v>16</v>
@@ -90567,7 +90567,7 @@
         </is>
       </c>
       <c r="D1128" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E1128" t="n">
         <v>4</v>
@@ -90600,20 +90600,20 @@
       </c>
       <c r="L1128" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1128" t="n">
-        <v>390</v>
+        <v>360</v>
       </c>
       <c r="N1128" t="n">
-        <v>1800</v>
+        <v>7800</v>
       </c>
       <c r="O1128" t="n">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="P1128" t="n">
-        <v>1900</v>
+        <v>7900</v>
       </c>
       <c r="Q1128" t="inlineStr">
         <is>
@@ -90626,7 +90626,7 @@
         </is>
       </c>
       <c r="S1128" t="n">
-        <v>119</v>
+        <v>494</v>
       </c>
       <c r="T1128" t="n">
         <v>16</v>
@@ -90647,7 +90647,7 @@
         </is>
       </c>
       <c r="D1129" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E1129" t="n">
         <v>4</v>
@@ -90684,16 +90684,16 @@
         </is>
       </c>
       <c r="M1129" t="n">
-        <v>690</v>
+        <v>540</v>
       </c>
       <c r="N1129" t="n">
-        <v>11800</v>
+        <v>3800</v>
       </c>
       <c r="O1129" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="P1129" t="n">
-        <v>11900</v>
+        <v>3900</v>
       </c>
       <c r="Q1129" t="inlineStr">
         <is>
@@ -90702,11 +90702,11 @@
       </c>
       <c r="R1129" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1129" t="n">
-        <v>744</v>
+        <v>244</v>
       </c>
       <c r="T1129" t="n">
         <v>16</v>
@@ -90727,7 +90727,7 @@
         </is>
       </c>
       <c r="D1130" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E1130" t="n">
         <v>4</v>
@@ -90760,20 +90760,20 @@
       </c>
       <c r="L1130" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1130" t="n">
         <v>600</v>
       </c>
       <c r="N1130" t="n">
-        <v>11800</v>
+        <v>3800</v>
       </c>
       <c r="O1130" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="P1130" t="n">
-        <v>11900</v>
+        <v>3900</v>
       </c>
       <c r="Q1130" t="inlineStr">
         <is>
@@ -90786,7 +90786,7 @@
         </is>
       </c>
       <c r="S1130" t="n">
-        <v>744</v>
+        <v>244</v>
       </c>
       <c r="T1130" t="n">
         <v>16</v>
@@ -90807,7 +90807,7 @@
         </is>
       </c>
       <c r="D1131" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E1131" t="n">
         <v>4</v>
@@ -90844,16 +90844,16 @@
         </is>
       </c>
       <c r="M1131" t="n">
-        <v>510</v>
+        <v>450</v>
       </c>
       <c r="N1131" t="n">
-        <v>9800</v>
+        <v>2800</v>
       </c>
       <c r="O1131" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="P1131" t="n">
-        <v>9900</v>
+        <v>2900</v>
       </c>
       <c r="Q1131" t="inlineStr">
         <is>
@@ -90862,11 +90862,11 @@
       </c>
       <c r="R1131" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1131" t="n">
-        <v>619</v>
+        <v>181</v>
       </c>
       <c r="T1131" t="n">
         <v>16</v>
@@ -90887,7 +90887,7 @@
         </is>
       </c>
       <c r="D1132" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E1132" t="n">
         <v>4</v>
@@ -90920,20 +90920,20 @@
       </c>
       <c r="L1132" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1132" t="n">
-        <v>450</v>
+        <v>510</v>
       </c>
       <c r="N1132" t="n">
-        <v>9800</v>
+        <v>2800</v>
       </c>
       <c r="O1132" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="P1132" t="n">
-        <v>9900</v>
+        <v>2900</v>
       </c>
       <c r="Q1132" t="inlineStr">
         <is>
@@ -90946,7 +90946,7 @@
         </is>
       </c>
       <c r="S1132" t="n">
-        <v>619</v>
+        <v>181</v>
       </c>
       <c r="T1132" t="n">
         <v>16</v>
@@ -90967,7 +90967,7 @@
         </is>
       </c>
       <c r="D1133" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E1133" t="n">
         <v>4</v>
@@ -91007,13 +91007,13 @@
         <v>360</v>
       </c>
       <c r="N1133" t="n">
-        <v>7800</v>
+        <v>1800</v>
       </c>
       <c r="O1133" t="n">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="P1133" t="n">
-        <v>7900</v>
+        <v>1900</v>
       </c>
       <c r="Q1133" t="inlineStr">
         <is>
@@ -91022,11 +91022,11 @@
       </c>
       <c r="R1133" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1133" t="n">
-        <v>494</v>
+        <v>119</v>
       </c>
       <c r="T1133" t="n">
         <v>16</v>
@@ -91047,7 +91047,7 @@
         </is>
       </c>
       <c r="D1134" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E1134" t="n">
         <v>4</v>
@@ -91080,20 +91080,20 @@
       </c>
       <c r="L1134" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1134" t="n">
-        <v>750</v>
+        <v>390</v>
       </c>
       <c r="N1134" t="n">
-        <v>11800</v>
+        <v>1800</v>
       </c>
       <c r="O1134" t="n">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="P1134" t="n">
-        <v>11900</v>
+        <v>1900</v>
       </c>
       <c r="Q1134" t="inlineStr">
         <is>
@@ -91106,7 +91106,7 @@
         </is>
       </c>
       <c r="S1134" t="n">
-        <v>744</v>
+        <v>119</v>
       </c>
       <c r="T1134" t="n">
         <v>16</v>
@@ -91127,7 +91127,7 @@
         </is>
       </c>
       <c r="D1135" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E1135" t="n">
         <v>4</v>
@@ -91160,20 +91160,20 @@
       </c>
       <c r="L1135" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1135" t="n">
-        <v>550</v>
+        <v>690</v>
       </c>
       <c r="N1135" t="n">
-        <v>12800</v>
+        <v>11800</v>
       </c>
       <c r="O1135" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P1135" t="n">
-        <v>12909</v>
+        <v>11900</v>
       </c>
       <c r="Q1135" t="inlineStr">
         <is>
@@ -91186,7 +91186,7 @@
         </is>
       </c>
       <c r="S1135" t="n">
-        <v>807</v>
+        <v>744</v>
       </c>
       <c r="T1135" t="n">
         <v>16</v>
@@ -91207,7 +91207,7 @@
         </is>
       </c>
       <c r="D1136" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E1136" t="n">
         <v>4</v>
@@ -91240,20 +91240,20 @@
       </c>
       <c r="L1136" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1136" t="n">
-        <v>510</v>
+        <v>600</v>
       </c>
       <c r="N1136" t="n">
-        <v>9800</v>
+        <v>11800</v>
       </c>
       <c r="O1136" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P1136" t="n">
-        <v>9900</v>
+        <v>11900</v>
       </c>
       <c r="Q1136" t="inlineStr">
         <is>
@@ -91266,7 +91266,7 @@
         </is>
       </c>
       <c r="S1136" t="n">
-        <v>619</v>
+        <v>744</v>
       </c>
       <c r="T1136" t="n">
         <v>16</v>
@@ -91287,7 +91287,7 @@
         </is>
       </c>
       <c r="D1137" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E1137" t="n">
         <v>4</v>
@@ -91320,20 +91320,20 @@
       </c>
       <c r="L1137" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1137" t="n">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="N1137" t="n">
-        <v>10800</v>
+        <v>9800</v>
       </c>
       <c r="O1137" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P1137" t="n">
-        <v>10890</v>
+        <v>9900</v>
       </c>
       <c r="Q1137" t="inlineStr">
         <is>
@@ -91346,7 +91346,7 @@
         </is>
       </c>
       <c r="S1137" t="n">
-        <v>681</v>
+        <v>619</v>
       </c>
       <c r="T1137" t="n">
         <v>16</v>
@@ -91367,7 +91367,7 @@
         </is>
       </c>
       <c r="D1138" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E1138" t="n">
         <v>4</v>
@@ -91400,20 +91400,20 @@
       </c>
       <c r="L1138" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1138" t="n">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="N1138" t="n">
-        <v>7800</v>
+        <v>9800</v>
       </c>
       <c r="O1138" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P1138" t="n">
-        <v>7900</v>
+        <v>9900</v>
       </c>
       <c r="Q1138" t="inlineStr">
         <is>
@@ -91426,7 +91426,7 @@
         </is>
       </c>
       <c r="S1138" t="n">
-        <v>494</v>
+        <v>619</v>
       </c>
       <c r="T1138" t="n">
         <v>16</v>
@@ -91447,7 +91447,7 @@
         </is>
       </c>
       <c r="D1139" s="2" t="n">
-        <v>44223</v>
+        <v>44328</v>
       </c>
       <c r="E1139" t="n">
         <v>4</v>
@@ -91480,20 +91480,20 @@
       </c>
       <c r="L1139" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1139" t="n">
-        <v>660</v>
+        <v>360</v>
       </c>
       <c r="N1139" t="n">
-        <v>13800</v>
+        <v>7800</v>
       </c>
       <c r="O1139" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P1139" t="n">
-        <v>13900</v>
+        <v>7900</v>
       </c>
       <c r="Q1139" t="inlineStr">
         <is>
@@ -91506,7 +91506,7 @@
         </is>
       </c>
       <c r="S1139" t="n">
-        <v>869</v>
+        <v>494</v>
       </c>
       <c r="T1139" t="n">
         <v>16</v>
@@ -91527,7 +91527,7 @@
         </is>
       </c>
       <c r="D1140" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E1140" t="n">
         <v>4</v>
@@ -91560,20 +91560,20 @@
       </c>
       <c r="L1140" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1140" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="N1140" t="n">
-        <v>15800</v>
+        <v>11800</v>
       </c>
       <c r="O1140" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P1140" t="n">
-        <v>15900</v>
+        <v>11900</v>
       </c>
       <c r="Q1140" t="inlineStr">
         <is>
@@ -91586,7 +91586,7 @@
         </is>
       </c>
       <c r="S1140" t="n">
-        <v>994</v>
+        <v>744</v>
       </c>
       <c r="T1140" t="n">
         <v>16</v>
@@ -91607,7 +91607,7 @@
         </is>
       </c>
       <c r="D1141" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E1141" t="n">
         <v>4</v>
@@ -91640,20 +91640,20 @@
       </c>
       <c r="L1141" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1141" t="n">
-        <v>510</v>
+        <v>550</v>
       </c>
       <c r="N1141" t="n">
-        <v>11800</v>
+        <v>12800</v>
       </c>
       <c r="O1141" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P1141" t="n">
-        <v>11900</v>
+        <v>12909</v>
       </c>
       <c r="Q1141" t="inlineStr">
         <is>
@@ -91666,7 +91666,7 @@
         </is>
       </c>
       <c r="S1141" t="n">
-        <v>744</v>
+        <v>807</v>
       </c>
       <c r="T1141" t="n">
         <v>16</v>
@@ -91687,7 +91687,7 @@
         </is>
       </c>
       <c r="D1142" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E1142" t="n">
         <v>4</v>
@@ -91720,20 +91720,20 @@
       </c>
       <c r="L1142" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1142" t="n">
-        <v>450</v>
+        <v>510</v>
       </c>
       <c r="N1142" t="n">
-        <v>12800</v>
+        <v>9800</v>
       </c>
       <c r="O1142" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P1142" t="n">
-        <v>12900</v>
+        <v>9900</v>
       </c>
       <c r="Q1142" t="inlineStr">
         <is>
@@ -91746,7 +91746,7 @@
         </is>
       </c>
       <c r="S1142" t="n">
-        <v>806</v>
+        <v>619</v>
       </c>
       <c r="T1142" t="n">
         <v>16</v>
@@ -91767,7 +91767,7 @@
         </is>
       </c>
       <c r="D1143" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E1143" t="n">
         <v>4</v>
@@ -91800,20 +91800,20 @@
       </c>
       <c r="L1143" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1143" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="N1143" t="n">
-        <v>8800</v>
+        <v>10800</v>
       </c>
       <c r="O1143" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P1143" t="n">
-        <v>8900</v>
+        <v>10890</v>
       </c>
       <c r="Q1143" t="inlineStr">
         <is>
@@ -91826,7 +91826,7 @@
         </is>
       </c>
       <c r="S1143" t="n">
-        <v>556</v>
+        <v>681</v>
       </c>
       <c r="T1143" t="n">
         <v>16</v>
@@ -91847,7 +91847,7 @@
         </is>
       </c>
       <c r="D1144" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E1144" t="n">
         <v>4</v>
@@ -91880,20 +91880,20 @@
       </c>
       <c r="L1144" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1144" t="n">
-        <v>600</v>
+        <v>420</v>
       </c>
       <c r="N1144" t="n">
-        <v>11800</v>
+        <v>7800</v>
       </c>
       <c r="O1144" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P1144" t="n">
-        <v>11900</v>
+        <v>7900</v>
       </c>
       <c r="Q1144" t="inlineStr">
         <is>
@@ -91902,11 +91902,11 @@
       </c>
       <c r="R1144" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1144" t="n">
-        <v>744</v>
+        <v>494</v>
       </c>
       <c r="T1144" t="n">
         <v>16</v>
@@ -91927,7 +91927,7 @@
         </is>
       </c>
       <c r="D1145" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E1145" t="n">
         <v>4</v>
@@ -91964,16 +91964,16 @@
         </is>
       </c>
       <c r="M1145" t="n">
-        <v>750</v>
+        <v>660</v>
       </c>
       <c r="N1145" t="n">
-        <v>11800</v>
+        <v>13800</v>
       </c>
       <c r="O1145" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P1145" t="n">
-        <v>11900</v>
+        <v>13900</v>
       </c>
       <c r="Q1145" t="inlineStr">
         <is>
@@ -91986,7 +91986,7 @@
         </is>
       </c>
       <c r="S1145" t="n">
-        <v>744</v>
+        <v>869</v>
       </c>
       <c r="T1145" t="n">
         <v>16</v>
@@ -92007,7 +92007,7 @@
         </is>
       </c>
       <c r="D1146" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E1146" t="n">
         <v>4</v>
@@ -92044,16 +92044,16 @@
         </is>
       </c>
       <c r="M1146" t="n">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="N1146" t="n">
-        <v>11800</v>
+        <v>15800</v>
       </c>
       <c r="O1146" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P1146" t="n">
-        <v>11900</v>
+        <v>15900</v>
       </c>
       <c r="Q1146" t="inlineStr">
         <is>
@@ -92062,11 +92062,11 @@
       </c>
       <c r="R1146" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1146" t="n">
-        <v>744</v>
+        <v>994</v>
       </c>
       <c r="T1146" t="n">
         <v>16</v>
@@ -92087,7 +92087,7 @@
         </is>
       </c>
       <c r="D1147" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E1147" t="n">
         <v>4</v>
@@ -92120,11 +92120,11 @@
       </c>
       <c r="L1147" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1147" t="n">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="N1147" t="n">
         <v>11800</v>
@@ -92167,7 +92167,7 @@
         </is>
       </c>
       <c r="D1148" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E1148" t="n">
         <v>4</v>
@@ -92200,20 +92200,20 @@
       </c>
       <c r="L1148" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1148" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="N1148" t="n">
-        <v>9800</v>
+        <v>12800</v>
       </c>
       <c r="O1148" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P1148" t="n">
-        <v>9900</v>
+        <v>12900</v>
       </c>
       <c r="Q1148" t="inlineStr">
         <is>
@@ -92222,11 +92222,11 @@
       </c>
       <c r="R1148" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1148" t="n">
-        <v>619</v>
+        <v>806</v>
       </c>
       <c r="T1148" t="n">
         <v>16</v>
@@ -92247,7 +92247,7 @@
         </is>
       </c>
       <c r="D1149" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E1149" t="n">
         <v>4</v>
@@ -92280,20 +92280,20 @@
       </c>
       <c r="L1149" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1149" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="N1149" t="n">
-        <v>9800</v>
+        <v>8800</v>
       </c>
       <c r="O1149" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P1149" t="n">
-        <v>9900</v>
+        <v>8900</v>
       </c>
       <c r="Q1149" t="inlineStr">
         <is>
@@ -92306,7 +92306,7 @@
         </is>
       </c>
       <c r="S1149" t="n">
-        <v>619</v>
+        <v>556</v>
       </c>
       <c r="T1149" t="n">
         <v>16</v>
@@ -92360,20 +92360,20 @@
       </c>
       <c r="L1150" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1150" t="n">
-        <v>470</v>
+        <v>600</v>
       </c>
       <c r="N1150" t="n">
-        <v>9800</v>
+        <v>11800</v>
       </c>
       <c r="O1150" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P1150" t="n">
-        <v>9900</v>
+        <v>11900</v>
       </c>
       <c r="Q1150" t="inlineStr">
         <is>
@@ -92386,7 +92386,7 @@
         </is>
       </c>
       <c r="S1150" t="n">
-        <v>619</v>
+        <v>744</v>
       </c>
       <c r="T1150" t="n">
         <v>16</v>
@@ -92440,20 +92440,20 @@
       </c>
       <c r="L1151" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1151" t="n">
-        <v>540</v>
+        <v>750</v>
       </c>
       <c r="N1151" t="n">
-        <v>9800</v>
+        <v>11800</v>
       </c>
       <c r="O1151" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P1151" t="n">
-        <v>9900</v>
+        <v>11900</v>
       </c>
       <c r="Q1151" t="inlineStr">
         <is>
@@ -92466,7 +92466,7 @@
         </is>
       </c>
       <c r="S1151" t="n">
-        <v>619</v>
+        <v>744</v>
       </c>
       <c r="T1151" t="n">
         <v>16</v>
@@ -92520,20 +92520,20 @@
       </c>
       <c r="L1152" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1152" t="n">
-        <v>450</v>
+        <v>540</v>
       </c>
       <c r="N1152" t="n">
-        <v>7800</v>
+        <v>11800</v>
       </c>
       <c r="O1152" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P1152" t="n">
-        <v>7900</v>
+        <v>11900</v>
       </c>
       <c r="Q1152" t="inlineStr">
         <is>
@@ -92546,7 +92546,7 @@
         </is>
       </c>
       <c r="S1152" t="n">
-        <v>494</v>
+        <v>744</v>
       </c>
       <c r="T1152" t="n">
         <v>16</v>
@@ -92600,20 +92600,20 @@
       </c>
       <c r="L1153" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1153" t="n">
         <v>540</v>
       </c>
       <c r="N1153" t="n">
-        <v>7800</v>
+        <v>11800</v>
       </c>
       <c r="O1153" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P1153" t="n">
-        <v>7900</v>
+        <v>11900</v>
       </c>
       <c r="Q1153" t="inlineStr">
         <is>
@@ -92626,7 +92626,7 @@
         </is>
       </c>
       <c r="S1153" t="n">
-        <v>494</v>
+        <v>744</v>
       </c>
       <c r="T1153" t="n">
         <v>16</v>
@@ -92680,20 +92680,20 @@
       </c>
       <c r="L1154" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1154" t="n">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="N1154" t="n">
-        <v>7800</v>
+        <v>9800</v>
       </c>
       <c r="O1154" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P1154" t="n">
-        <v>7900</v>
+        <v>9900</v>
       </c>
       <c r="Q1154" t="inlineStr">
         <is>
@@ -92706,7 +92706,7 @@
         </is>
       </c>
       <c r="S1154" t="n">
-        <v>494</v>
+        <v>619</v>
       </c>
       <c r="T1154" t="n">
         <v>16</v>
@@ -92760,20 +92760,20 @@
       </c>
       <c r="L1155" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1155" t="n">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="N1155" t="n">
-        <v>7800</v>
+        <v>9800</v>
       </c>
       <c r="O1155" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P1155" t="n">
-        <v>7900</v>
+        <v>9900</v>
       </c>
       <c r="Q1155" t="inlineStr">
         <is>
@@ -92786,7 +92786,7 @@
         </is>
       </c>
       <c r="S1155" t="n">
-        <v>494</v>
+        <v>619</v>
       </c>
       <c r="T1155" t="n">
         <v>16</v>
@@ -92807,7 +92807,7 @@
         </is>
       </c>
       <c r="D1156" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E1156" t="n">
         <v>4</v>
@@ -92840,20 +92840,20 @@
       </c>
       <c r="L1156" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1156" t="n">
-        <v>640</v>
+        <v>470</v>
       </c>
       <c r="N1156" t="n">
-        <v>2800</v>
+        <v>9800</v>
       </c>
       <c r="O1156" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="P1156" t="n">
-        <v>2903</v>
+        <v>9900</v>
       </c>
       <c r="Q1156" t="inlineStr">
         <is>
@@ -92866,7 +92866,7 @@
         </is>
       </c>
       <c r="S1156" t="n">
-        <v>181</v>
+        <v>619</v>
       </c>
       <c r="T1156" t="n">
         <v>16</v>
@@ -92887,7 +92887,7 @@
         </is>
       </c>
       <c r="D1157" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E1157" t="n">
         <v>4</v>
@@ -92920,20 +92920,20 @@
       </c>
       <c r="L1157" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1157" t="n">
-        <v>750</v>
+        <v>540</v>
       </c>
       <c r="N1157" t="n">
-        <v>2800</v>
+        <v>9800</v>
       </c>
       <c r="O1157" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="P1157" t="n">
-        <v>2900</v>
+        <v>9900</v>
       </c>
       <c r="Q1157" t="inlineStr">
         <is>
@@ -92946,7 +92946,7 @@
         </is>
       </c>
       <c r="S1157" t="n">
-        <v>181</v>
+        <v>619</v>
       </c>
       <c r="T1157" t="n">
         <v>16</v>
@@ -92967,7 +92967,7 @@
         </is>
       </c>
       <c r="D1158" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E1158" t="n">
         <v>4</v>
@@ -93000,20 +93000,20 @@
       </c>
       <c r="L1158" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1158" t="n">
-        <v>580</v>
+        <v>450</v>
       </c>
       <c r="N1158" t="n">
-        <v>1800</v>
+        <v>7800</v>
       </c>
       <c r="O1158" t="n">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="P1158" t="n">
-        <v>1900</v>
+        <v>7900</v>
       </c>
       <c r="Q1158" t="inlineStr">
         <is>
@@ -93026,7 +93026,7 @@
         </is>
       </c>
       <c r="S1158" t="n">
-        <v>119</v>
+        <v>494</v>
       </c>
       <c r="T1158" t="n">
         <v>16</v>
@@ -93047,7 +93047,7 @@
         </is>
       </c>
       <c r="D1159" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E1159" t="n">
         <v>4</v>
@@ -93080,20 +93080,20 @@
       </c>
       <c r="L1159" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1159" t="n">
-        <v>620</v>
+        <v>540</v>
       </c>
       <c r="N1159" t="n">
-        <v>1800</v>
+        <v>7800</v>
       </c>
       <c r="O1159" t="n">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="P1159" t="n">
-        <v>1900</v>
+        <v>7900</v>
       </c>
       <c r="Q1159" t="inlineStr">
         <is>
@@ -93106,7 +93106,7 @@
         </is>
       </c>
       <c r="S1159" t="n">
-        <v>119</v>
+        <v>494</v>
       </c>
       <c r="T1159" t="n">
         <v>16</v>
@@ -93127,7 +93127,7 @@
         </is>
       </c>
       <c r="D1160" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E1160" t="n">
         <v>4</v>
@@ -93160,20 +93160,20 @@
       </c>
       <c r="L1160" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1160" t="n">
-        <v>450</v>
+        <v>360</v>
       </c>
       <c r="N1160" t="n">
-        <v>800</v>
+        <v>7800</v>
       </c>
       <c r="O1160" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="P1160" t="n">
-        <v>900</v>
+        <v>7900</v>
       </c>
       <c r="Q1160" t="inlineStr">
         <is>
@@ -93186,7 +93186,7 @@
         </is>
       </c>
       <c r="S1160" t="n">
-        <v>56</v>
+        <v>494</v>
       </c>
       <c r="T1160" t="n">
         <v>16</v>
@@ -93207,7 +93207,7 @@
         </is>
       </c>
       <c r="D1161" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E1161" t="n">
         <v>4</v>
@@ -93240,20 +93240,20 @@
       </c>
       <c r="L1161" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1161" t="n">
-        <v>540</v>
+        <v>360</v>
       </c>
       <c r="N1161" t="n">
-        <v>800</v>
+        <v>7800</v>
       </c>
       <c r="O1161" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="P1161" t="n">
-        <v>900</v>
+        <v>7900</v>
       </c>
       <c r="Q1161" t="inlineStr">
         <is>
@@ -93266,7 +93266,7 @@
         </is>
       </c>
       <c r="S1161" t="n">
-        <v>56</v>
+        <v>494</v>
       </c>
       <c r="T1161" t="n">
         <v>16</v>
@@ -93287,7 +93287,7 @@
         </is>
       </c>
       <c r="D1162" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E1162" t="n">
         <v>4</v>
@@ -93324,16 +93324,16 @@
         </is>
       </c>
       <c r="M1162" t="n">
-        <v>520</v>
+        <v>640</v>
       </c>
       <c r="N1162" t="n">
-        <v>9800</v>
+        <v>2800</v>
       </c>
       <c r="O1162" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="P1162" t="n">
-        <v>9900</v>
+        <v>2903</v>
       </c>
       <c r="Q1162" t="inlineStr">
         <is>
@@ -93346,7 +93346,7 @@
         </is>
       </c>
       <c r="S1162" t="n">
-        <v>619</v>
+        <v>181</v>
       </c>
       <c r="T1162" t="n">
         <v>16</v>
@@ -93367,7 +93367,7 @@
         </is>
       </c>
       <c r="D1163" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E1163" t="n">
         <v>4</v>
@@ -93404,16 +93404,16 @@
         </is>
       </c>
       <c r="M1163" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="N1163" t="n">
-        <v>9800</v>
+        <v>2800</v>
       </c>
       <c r="O1163" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="P1163" t="n">
-        <v>9900</v>
+        <v>2900</v>
       </c>
       <c r="Q1163" t="inlineStr">
         <is>
@@ -93426,7 +93426,7 @@
         </is>
       </c>
       <c r="S1163" t="n">
-        <v>619</v>
+        <v>181</v>
       </c>
       <c r="T1163" t="n">
         <v>16</v>
@@ -93447,7 +93447,7 @@
         </is>
       </c>
       <c r="D1164" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E1164" t="n">
         <v>4</v>
@@ -93480,20 +93480,20 @@
       </c>
       <c r="L1164" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1164" t="n">
-        <v>450</v>
+        <v>580</v>
       </c>
       <c r="N1164" t="n">
-        <v>10800</v>
+        <v>1800</v>
       </c>
       <c r="O1164" t="n">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="P1164" t="n">
-        <v>10900</v>
+        <v>1900</v>
       </c>
       <c r="Q1164" t="inlineStr">
         <is>
@@ -93506,7 +93506,7 @@
         </is>
       </c>
       <c r="S1164" t="n">
-        <v>681</v>
+        <v>119</v>
       </c>
       <c r="T1164" t="n">
         <v>16</v>
@@ -93527,7 +93527,7 @@
         </is>
       </c>
       <c r="D1165" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E1165" t="n">
         <v>4</v>
@@ -93560,20 +93560,20 @@
       </c>
       <c r="L1165" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1165" t="n">
-        <v>450</v>
+        <v>620</v>
       </c>
       <c r="N1165" t="n">
-        <v>10800</v>
+        <v>1800</v>
       </c>
       <c r="O1165" t="n">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="P1165" t="n">
-        <v>10900</v>
+        <v>1900</v>
       </c>
       <c r="Q1165" t="inlineStr">
         <is>
@@ -93586,7 +93586,7 @@
         </is>
       </c>
       <c r="S1165" t="n">
-        <v>681</v>
+        <v>119</v>
       </c>
       <c r="T1165" t="n">
         <v>16</v>
@@ -93607,7 +93607,7 @@
         </is>
       </c>
       <c r="D1166" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E1166" t="n">
         <v>4</v>
@@ -93640,20 +93640,20 @@
       </c>
       <c r="L1166" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1166" t="n">
         <v>450</v>
       </c>
       <c r="N1166" t="n">
-        <v>7800</v>
+        <v>800</v>
       </c>
       <c r="O1166" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="P1166" t="n">
-        <v>7900</v>
+        <v>900</v>
       </c>
       <c r="Q1166" t="inlineStr">
         <is>
@@ -93666,7 +93666,7 @@
         </is>
       </c>
       <c r="S1166" t="n">
-        <v>494</v>
+        <v>56</v>
       </c>
       <c r="T1166" t="n">
         <v>16</v>
@@ -93687,7 +93687,7 @@
         </is>
       </c>
       <c r="D1167" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E1167" t="n">
         <v>4</v>
@@ -93720,20 +93720,20 @@
       </c>
       <c r="L1167" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1167" t="n">
-        <v>450</v>
+        <v>540</v>
       </c>
       <c r="N1167" t="n">
-        <v>7800</v>
+        <v>800</v>
       </c>
       <c r="O1167" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="P1167" t="n">
-        <v>7900</v>
+        <v>900</v>
       </c>
       <c r="Q1167" t="inlineStr">
         <is>
@@ -93746,7 +93746,7 @@
         </is>
       </c>
       <c r="S1167" t="n">
-        <v>494</v>
+        <v>56</v>
       </c>
       <c r="T1167" t="n">
         <v>16</v>
@@ -93800,20 +93800,20 @@
       </c>
       <c r="L1168" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1168" t="n">
-        <v>360</v>
+        <v>520</v>
       </c>
       <c r="N1168" t="n">
-        <v>8800</v>
+        <v>9800</v>
       </c>
       <c r="O1168" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P1168" t="n">
-        <v>8900</v>
+        <v>9900</v>
       </c>
       <c r="Q1168" t="inlineStr">
         <is>
@@ -93826,7 +93826,7 @@
         </is>
       </c>
       <c r="S1168" t="n">
-        <v>556</v>
+        <v>619</v>
       </c>
       <c r="T1168" t="n">
         <v>16</v>
@@ -93880,20 +93880,20 @@
       </c>
       <c r="L1169" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1169" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="N1169" t="n">
-        <v>8800</v>
+        <v>9800</v>
       </c>
       <c r="O1169" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P1169" t="n">
-        <v>8900</v>
+        <v>9900</v>
       </c>
       <c r="Q1169" t="inlineStr">
         <is>
@@ -93906,7 +93906,7 @@
         </is>
       </c>
       <c r="S1169" t="n">
-        <v>556</v>
+        <v>619</v>
       </c>
       <c r="T1169" t="n">
         <v>16</v>
@@ -93960,20 +93960,20 @@
       </c>
       <c r="L1170" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1170" t="n">
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="N1170" t="n">
-        <v>5800</v>
+        <v>10800</v>
       </c>
       <c r="O1170" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="P1170" t="n">
-        <v>5900</v>
+        <v>10900</v>
       </c>
       <c r="Q1170" t="inlineStr">
         <is>
@@ -93986,7 +93986,7 @@
         </is>
       </c>
       <c r="S1170" t="n">
-        <v>369</v>
+        <v>681</v>
       </c>
       <c r="T1170" t="n">
         <v>16</v>
@@ -94040,20 +94040,20 @@
       </c>
       <c r="L1171" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1171" t="n">
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="N1171" t="n">
-        <v>5800</v>
+        <v>10800</v>
       </c>
       <c r="O1171" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="P1171" t="n">
-        <v>5900</v>
+        <v>10900</v>
       </c>
       <c r="Q1171" t="inlineStr">
         <is>
@@ -94066,7 +94066,7 @@
         </is>
       </c>
       <c r="S1171" t="n">
-        <v>369</v>
+        <v>681</v>
       </c>
       <c r="T1171" t="n">
         <v>16</v>
@@ -94120,20 +94120,20 @@
       </c>
       <c r="L1172" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1172" t="n">
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="N1172" t="n">
-        <v>6800</v>
+        <v>7800</v>
       </c>
       <c r="O1172" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P1172" t="n">
-        <v>6900</v>
+        <v>7900</v>
       </c>
       <c r="Q1172" t="inlineStr">
         <is>
@@ -94146,7 +94146,7 @@
         </is>
       </c>
       <c r="S1172" t="n">
-        <v>431</v>
+        <v>494</v>
       </c>
       <c r="T1172" t="n">
         <v>16</v>
@@ -94200,20 +94200,20 @@
       </c>
       <c r="L1173" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1173" t="n">
-        <v>390</v>
+        <v>450</v>
       </c>
       <c r="N1173" t="n">
-        <v>6800</v>
+        <v>7800</v>
       </c>
       <c r="O1173" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P1173" t="n">
-        <v>6900</v>
+        <v>7900</v>
       </c>
       <c r="Q1173" t="inlineStr">
         <is>
@@ -94226,7 +94226,7 @@
         </is>
       </c>
       <c r="S1173" t="n">
-        <v>431</v>
+        <v>494</v>
       </c>
       <c r="T1173" t="n">
         <v>16</v>
@@ -94247,7 +94247,7 @@
         </is>
       </c>
       <c r="D1174" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E1174" t="n">
         <v>4</v>
@@ -94280,20 +94280,20 @@
       </c>
       <c r="L1174" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1174" t="n">
-        <v>750</v>
+        <v>360</v>
       </c>
       <c r="N1174" t="n">
-        <v>11800</v>
+        <v>8800</v>
       </c>
       <c r="O1174" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P1174" t="n">
-        <v>11900</v>
+        <v>8900</v>
       </c>
       <c r="Q1174" t="inlineStr">
         <is>
@@ -94302,11 +94302,11 @@
       </c>
       <c r="R1174" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1174" t="n">
-        <v>744</v>
+        <v>556</v>
       </c>
       <c r="T1174" t="n">
         <v>16</v>
@@ -94327,7 +94327,7 @@
         </is>
       </c>
       <c r="D1175" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E1175" t="n">
         <v>4</v>
@@ -94360,20 +94360,20 @@
       </c>
       <c r="L1175" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1175" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="N1175" t="n">
-        <v>12800</v>
+        <v>8800</v>
       </c>
       <c r="O1175" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P1175" t="n">
-        <v>12900</v>
+        <v>8900</v>
       </c>
       <c r="Q1175" t="inlineStr">
         <is>
@@ -94386,7 +94386,7 @@
         </is>
       </c>
       <c r="S1175" t="n">
-        <v>806</v>
+        <v>556</v>
       </c>
       <c r="T1175" t="n">
         <v>16</v>
@@ -94407,7 +94407,7 @@
         </is>
       </c>
       <c r="D1176" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E1176" t="n">
         <v>4</v>
@@ -94440,20 +94440,20 @@
       </c>
       <c r="L1176" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1176" t="n">
-        <v>510</v>
+        <v>360</v>
       </c>
       <c r="N1176" t="n">
-        <v>9800</v>
+        <v>5800</v>
       </c>
       <c r="O1176" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P1176" t="n">
-        <v>9900</v>
+        <v>5900</v>
       </c>
       <c r="Q1176" t="inlineStr">
         <is>
@@ -94462,11 +94462,11 @@
       </c>
       <c r="R1176" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1176" t="n">
-        <v>619</v>
+        <v>369</v>
       </c>
       <c r="T1176" t="n">
         <v>16</v>
@@ -94487,7 +94487,7 @@
         </is>
       </c>
       <c r="D1177" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E1177" t="n">
         <v>4</v>
@@ -94520,20 +94520,20 @@
       </c>
       <c r="L1177" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1177" t="n">
-        <v>450</v>
+        <v>360</v>
       </c>
       <c r="N1177" t="n">
-        <v>10800</v>
+        <v>5800</v>
       </c>
       <c r="O1177" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="P1177" t="n">
-        <v>10900</v>
+        <v>5900</v>
       </c>
       <c r="Q1177" t="inlineStr">
         <is>
@@ -94546,7 +94546,7 @@
         </is>
       </c>
       <c r="S1177" t="n">
-        <v>681</v>
+        <v>369</v>
       </c>
       <c r="T1177" t="n">
         <v>16</v>
@@ -94567,7 +94567,7 @@
         </is>
       </c>
       <c r="D1178" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E1178" t="n">
         <v>4</v>
@@ -94600,20 +94600,20 @@
       </c>
       <c r="L1178" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1178" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="N1178" t="n">
-        <v>7800</v>
+        <v>6800</v>
       </c>
       <c r="O1178" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P1178" t="n">
-        <v>7900</v>
+        <v>6900</v>
       </c>
       <c r="Q1178" t="inlineStr">
         <is>
@@ -94622,11 +94622,11 @@
       </c>
       <c r="R1178" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1178" t="n">
-        <v>494</v>
+        <v>431</v>
       </c>
       <c r="T1178" t="n">
         <v>16</v>
@@ -94647,7 +94647,7 @@
         </is>
       </c>
       <c r="D1179" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E1179" t="n">
         <v>4</v>
@@ -94680,20 +94680,20 @@
       </c>
       <c r="L1179" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1179" t="n">
-        <v>600</v>
+        <v>390</v>
       </c>
       <c r="N1179" t="n">
-        <v>3300</v>
+        <v>6800</v>
       </c>
       <c r="O1179" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="P1179" t="n">
-        <v>3400</v>
+        <v>6900</v>
       </c>
       <c r="Q1179" t="inlineStr">
         <is>
@@ -94702,11 +94702,11 @@
       </c>
       <c r="R1179" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1179" t="n">
-        <v>212</v>
+        <v>431</v>
       </c>
       <c r="T1179" t="n">
         <v>16</v>
@@ -94727,7 +94727,7 @@
         </is>
       </c>
       <c r="D1180" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E1180" t="n">
         <v>4</v>
@@ -94764,16 +94764,16 @@
         </is>
       </c>
       <c r="M1180" t="n">
-        <v>660</v>
+        <v>750</v>
       </c>
       <c r="N1180" t="n">
-        <v>3300</v>
+        <v>11800</v>
       </c>
       <c r="O1180" t="n">
-        <v>3500</v>
+        <v>12000</v>
       </c>
       <c r="P1180" t="n">
-        <v>3400</v>
+        <v>11900</v>
       </c>
       <c r="Q1180" t="inlineStr">
         <is>
@@ -94786,7 +94786,7 @@
         </is>
       </c>
       <c r="S1180" t="n">
-        <v>212</v>
+        <v>744</v>
       </c>
       <c r="T1180" t="n">
         <v>16</v>
@@ -94807,7 +94807,7 @@
         </is>
       </c>
       <c r="D1181" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E1181" t="n">
         <v>4</v>
@@ -94844,16 +94844,16 @@
         </is>
       </c>
       <c r="M1181" t="n">
-        <v>510</v>
+        <v>600</v>
       </c>
       <c r="N1181" t="n">
-        <v>3300</v>
+        <v>12800</v>
       </c>
       <c r="O1181" t="n">
-        <v>3500</v>
+        <v>13000</v>
       </c>
       <c r="P1181" t="n">
-        <v>3394</v>
+        <v>12900</v>
       </c>
       <c r="Q1181" t="inlineStr">
         <is>
@@ -94862,11 +94862,11 @@
       </c>
       <c r="R1181" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1181" t="n">
-        <v>212</v>
+        <v>806</v>
       </c>
       <c r="T1181" t="n">
         <v>16</v>
@@ -94887,7 +94887,7 @@
         </is>
       </c>
       <c r="D1182" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E1182" t="n">
         <v>4</v>
@@ -94920,20 +94920,20 @@
       </c>
       <c r="L1182" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1182" t="n">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="N1182" t="n">
-        <v>3300</v>
+        <v>9800</v>
       </c>
       <c r="O1182" t="n">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="P1182" t="n">
-        <v>3400</v>
+        <v>9900</v>
       </c>
       <c r="Q1182" t="inlineStr">
         <is>
@@ -94946,7 +94946,7 @@
         </is>
       </c>
       <c r="S1182" t="n">
-        <v>212</v>
+        <v>619</v>
       </c>
       <c r="T1182" t="n">
         <v>16</v>
@@ -94967,7 +94967,7 @@
         </is>
       </c>
       <c r="D1183" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E1183" t="n">
         <v>4</v>
@@ -95000,20 +95000,20 @@
       </c>
       <c r="L1183" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1183" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="N1183" t="n">
-        <v>2300</v>
+        <v>10800</v>
       </c>
       <c r="O1183" t="n">
-        <v>2500</v>
+        <v>11000</v>
       </c>
       <c r="P1183" t="n">
-        <v>2400</v>
+        <v>10900</v>
       </c>
       <c r="Q1183" t="inlineStr">
         <is>
@@ -95022,11 +95022,11 @@
       </c>
       <c r="R1183" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1183" t="n">
-        <v>150</v>
+        <v>681</v>
       </c>
       <c r="T1183" t="n">
         <v>16</v>
@@ -95047,7 +95047,7 @@
         </is>
       </c>
       <c r="D1184" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E1184" t="n">
         <v>4</v>
@@ -95080,20 +95080,20 @@
       </c>
       <c r="L1184" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1184" t="n">
-        <v>540</v>
+        <v>300</v>
       </c>
       <c r="N1184" t="n">
-        <v>2300</v>
+        <v>7800</v>
       </c>
       <c r="O1184" t="n">
-        <v>2500</v>
+        <v>8000</v>
       </c>
       <c r="P1184" t="n">
-        <v>2400</v>
+        <v>7900</v>
       </c>
       <c r="Q1184" t="inlineStr">
         <is>
@@ -95106,7 +95106,7 @@
         </is>
       </c>
       <c r="S1184" t="n">
-        <v>150</v>
+        <v>494</v>
       </c>
       <c r="T1184" t="n">
         <v>16</v>
@@ -95160,20 +95160,20 @@
       </c>
       <c r="L1185" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1185" t="n">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="N1185" t="n">
-        <v>2300</v>
+        <v>3300</v>
       </c>
       <c r="O1185" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="P1185" t="n">
-        <v>2400</v>
+        <v>3400</v>
       </c>
       <c r="Q1185" t="inlineStr">
         <is>
@@ -95186,7 +95186,7 @@
         </is>
       </c>
       <c r="S1185" t="n">
-        <v>150</v>
+        <v>212</v>
       </c>
       <c r="T1185" t="n">
         <v>16</v>
@@ -95240,20 +95240,20 @@
       </c>
       <c r="L1186" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1186" t="n">
-        <v>450</v>
+        <v>660</v>
       </c>
       <c r="N1186" t="n">
-        <v>2300</v>
+        <v>3300</v>
       </c>
       <c r="O1186" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="P1186" t="n">
-        <v>2400</v>
+        <v>3400</v>
       </c>
       <c r="Q1186" t="inlineStr">
         <is>
@@ -95266,7 +95266,7 @@
         </is>
       </c>
       <c r="S1186" t="n">
-        <v>150</v>
+        <v>212</v>
       </c>
       <c r="T1186" t="n">
         <v>16</v>
@@ -95320,20 +95320,20 @@
       </c>
       <c r="L1187" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1187" t="n">
-        <v>390</v>
+        <v>510</v>
       </c>
       <c r="N1187" t="n">
-        <v>1300</v>
+        <v>3300</v>
       </c>
       <c r="O1187" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="P1187" t="n">
-        <v>1400</v>
+        <v>3394</v>
       </c>
       <c r="Q1187" t="inlineStr">
         <is>
@@ -95346,7 +95346,7 @@
         </is>
       </c>
       <c r="S1187" t="n">
-        <v>88</v>
+        <v>212</v>
       </c>
       <c r="T1187" t="n">
         <v>16</v>
@@ -95400,20 +95400,20 @@
       </c>
       <c r="L1188" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1188" t="n">
-        <v>470</v>
+        <v>540</v>
       </c>
       <c r="N1188" t="n">
-        <v>1300</v>
+        <v>3300</v>
       </c>
       <c r="O1188" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="P1188" t="n">
-        <v>1400</v>
+        <v>3400</v>
       </c>
       <c r="Q1188" t="inlineStr">
         <is>
@@ -95426,7 +95426,7 @@
         </is>
       </c>
       <c r="S1188" t="n">
-        <v>88</v>
+        <v>212</v>
       </c>
       <c r="T1188" t="n">
         <v>16</v>
@@ -95447,7 +95447,7 @@
         </is>
       </c>
       <c r="D1189" s="2" t="n">
-        <v>44466</v>
+        <v>44392</v>
       </c>
       <c r="E1189" t="n">
         <v>4</v>
@@ -95480,20 +95480,20 @@
       </c>
       <c r="L1189" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1189" t="n">
         <v>600</v>
       </c>
       <c r="N1189" t="n">
-        <v>4300</v>
+        <v>2300</v>
       </c>
       <c r="O1189" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="P1189" t="n">
-        <v>4400</v>
+        <v>2400</v>
       </c>
       <c r="Q1189" t="inlineStr">
         <is>
@@ -95506,7 +95506,7 @@
         </is>
       </c>
       <c r="S1189" t="n">
-        <v>275</v>
+        <v>150</v>
       </c>
       <c r="T1189" t="n">
         <v>16</v>
@@ -95527,7 +95527,7 @@
         </is>
       </c>
       <c r="D1190" s="2" t="n">
-        <v>44466</v>
+        <v>44392</v>
       </c>
       <c r="E1190" t="n">
         <v>4</v>
@@ -95560,20 +95560,20 @@
       </c>
       <c r="L1190" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1190" t="n">
-        <v>750</v>
+        <v>540</v>
       </c>
       <c r="N1190" t="n">
-        <v>4300</v>
+        <v>2300</v>
       </c>
       <c r="O1190" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="P1190" t="n">
-        <v>4400</v>
+        <v>2400</v>
       </c>
       <c r="Q1190" t="inlineStr">
         <is>
@@ -95586,7 +95586,7 @@
         </is>
       </c>
       <c r="S1190" t="n">
-        <v>275</v>
+        <v>150</v>
       </c>
       <c r="T1190" t="n">
         <v>16</v>
@@ -95607,7 +95607,7 @@
         </is>
       </c>
       <c r="D1191" s="2" t="n">
-        <v>44466</v>
+        <v>44392</v>
       </c>
       <c r="E1191" t="n">
         <v>4</v>
@@ -95640,20 +95640,20 @@
       </c>
       <c r="L1191" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1191" t="n">
         <v>540</v>
       </c>
       <c r="N1191" t="n">
-        <v>3300</v>
+        <v>2300</v>
       </c>
       <c r="O1191" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="P1191" t="n">
-        <v>3400</v>
+        <v>2400</v>
       </c>
       <c r="Q1191" t="inlineStr">
         <is>
@@ -95666,7 +95666,7 @@
         </is>
       </c>
       <c r="S1191" t="n">
-        <v>212</v>
+        <v>150</v>
       </c>
       <c r="T1191" t="n">
         <v>16</v>
@@ -95687,7 +95687,7 @@
         </is>
       </c>
       <c r="D1192" s="2" t="n">
-        <v>44466</v>
+        <v>44392</v>
       </c>
       <c r="E1192" t="n">
         <v>4</v>
@@ -95720,20 +95720,20 @@
       </c>
       <c r="L1192" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1192" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="N1192" t="n">
-        <v>3300</v>
+        <v>2300</v>
       </c>
       <c r="O1192" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="P1192" t="n">
-        <v>3400</v>
+        <v>2400</v>
       </c>
       <c r="Q1192" t="inlineStr">
         <is>
@@ -95746,7 +95746,7 @@
         </is>
       </c>
       <c r="S1192" t="n">
-        <v>212</v>
+        <v>150</v>
       </c>
       <c r="T1192" t="n">
         <v>16</v>
@@ -95767,7 +95767,7 @@
         </is>
       </c>
       <c r="D1193" s="2" t="n">
-        <v>44466</v>
+        <v>44392</v>
       </c>
       <c r="E1193" t="n">
         <v>4</v>
@@ -95804,16 +95804,16 @@
         </is>
       </c>
       <c r="M1193" t="n">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="N1193" t="n">
-        <v>2300</v>
+        <v>1300</v>
       </c>
       <c r="O1193" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="P1193" t="n">
-        <v>2400</v>
+        <v>1400</v>
       </c>
       <c r="Q1193" t="inlineStr">
         <is>
@@ -95826,7 +95826,7 @@
         </is>
       </c>
       <c r="S1193" t="n">
-        <v>150</v>
+        <v>88</v>
       </c>
       <c r="T1193" t="n">
         <v>16</v>
@@ -95847,7 +95847,7 @@
         </is>
       </c>
       <c r="D1194" s="2" t="n">
-        <v>44466</v>
+        <v>44392</v>
       </c>
       <c r="E1194" t="n">
         <v>4</v>
@@ -95884,16 +95884,16 @@
         </is>
       </c>
       <c r="M1194" t="n">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="N1194" t="n">
-        <v>2300</v>
+        <v>1300</v>
       </c>
       <c r="O1194" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="P1194" t="n">
-        <v>2400</v>
+        <v>1400</v>
       </c>
       <c r="Q1194" t="inlineStr">
         <is>
@@ -95906,7 +95906,7 @@
         </is>
       </c>
       <c r="S1194" t="n">
-        <v>150</v>
+        <v>88</v>
       </c>
       <c r="T1194" t="n">
         <v>16</v>
@@ -95927,7 +95927,7 @@
         </is>
       </c>
       <c r="D1195" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E1195" t="n">
         <v>4</v>
@@ -95967,13 +95967,13 @@
         <v>600</v>
       </c>
       <c r="N1195" t="n">
-        <v>14800</v>
+        <v>4300</v>
       </c>
       <c r="O1195" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="P1195" t="n">
-        <v>14900</v>
+        <v>4400</v>
       </c>
       <c r="Q1195" t="inlineStr">
         <is>
@@ -95982,11 +95982,11 @@
       </c>
       <c r="R1195" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1195" t="n">
-        <v>931</v>
+        <v>275</v>
       </c>
       <c r="T1195" t="n">
         <v>16</v>
@@ -96007,7 +96007,7 @@
         </is>
       </c>
       <c r="D1196" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E1196" t="n">
         <v>4</v>
@@ -96040,20 +96040,20 @@
       </c>
       <c r="L1196" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1196" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="N1196" t="n">
-        <v>14800</v>
+        <v>4300</v>
       </c>
       <c r="O1196" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="P1196" t="n">
-        <v>14900</v>
+        <v>4400</v>
       </c>
       <c r="Q1196" t="inlineStr">
         <is>
@@ -96066,7 +96066,7 @@
         </is>
       </c>
       <c r="S1196" t="n">
-        <v>931</v>
+        <v>275</v>
       </c>
       <c r="T1196" t="n">
         <v>16</v>
@@ -96087,7 +96087,7 @@
         </is>
       </c>
       <c r="D1197" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E1197" t="n">
         <v>4</v>
@@ -96124,16 +96124,16 @@
         </is>
       </c>
       <c r="M1197" t="n">
-        <v>420</v>
+        <v>540</v>
       </c>
       <c r="N1197" t="n">
-        <v>12800</v>
+        <v>3300</v>
       </c>
       <c r="O1197" t="n">
-        <v>13000</v>
+        <v>3500</v>
       </c>
       <c r="P1197" t="n">
-        <v>12900</v>
+        <v>3400</v>
       </c>
       <c r="Q1197" t="inlineStr">
         <is>
@@ -96142,11 +96142,11 @@
       </c>
       <c r="R1197" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1197" t="n">
-        <v>806</v>
+        <v>212</v>
       </c>
       <c r="T1197" t="n">
         <v>16</v>
@@ -96167,7 +96167,7 @@
         </is>
       </c>
       <c r="D1198" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E1198" t="n">
         <v>4</v>
@@ -96200,20 +96200,20 @@
       </c>
       <c r="L1198" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1198" t="n">
-        <v>420</v>
+        <v>600</v>
       </c>
       <c r="N1198" t="n">
-        <v>12800</v>
+        <v>3300</v>
       </c>
       <c r="O1198" t="n">
-        <v>13000</v>
+        <v>3500</v>
       </c>
       <c r="P1198" t="n">
-        <v>12900</v>
+        <v>3400</v>
       </c>
       <c r="Q1198" t="inlineStr">
         <is>
@@ -96226,7 +96226,7 @@
         </is>
       </c>
       <c r="S1198" t="n">
-        <v>806</v>
+        <v>212</v>
       </c>
       <c r="T1198" t="n">
         <v>16</v>
@@ -96247,7 +96247,7 @@
         </is>
       </c>
       <c r="D1199" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E1199" t="n">
         <v>4</v>
@@ -96284,16 +96284,16 @@
         </is>
       </c>
       <c r="M1199" t="n">
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="N1199" t="n">
-        <v>9800</v>
+        <v>2300</v>
       </c>
       <c r="O1199" t="n">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="P1199" t="n">
-        <v>9900</v>
+        <v>2400</v>
       </c>
       <c r="Q1199" t="inlineStr">
         <is>
@@ -96302,11 +96302,11 @@
       </c>
       <c r="R1199" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1199" t="n">
-        <v>619</v>
+        <v>150</v>
       </c>
       <c r="T1199" t="n">
         <v>16</v>
@@ -96327,7 +96327,7 @@
         </is>
       </c>
       <c r="D1200" s="2" t="n">
-        <v>44438</v>
+        <v>44466</v>
       </c>
       <c r="E1200" t="n">
         <v>4</v>
@@ -96360,20 +96360,20 @@
       </c>
       <c r="L1200" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1200" t="n">
-        <v>540</v>
+        <v>450</v>
       </c>
       <c r="N1200" t="n">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="O1200" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="P1200" t="n">
-        <v>2900</v>
+        <v>2400</v>
       </c>
       <c r="Q1200" t="inlineStr">
         <is>
@@ -96382,11 +96382,11 @@
       </c>
       <c r="R1200" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1200" t="n">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="T1200" t="n">
         <v>16</v>
@@ -96407,7 +96407,7 @@
         </is>
       </c>
       <c r="D1201" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E1201" t="n">
         <v>4</v>
@@ -96447,13 +96447,13 @@
         <v>600</v>
       </c>
       <c r="N1201" t="n">
-        <v>2800</v>
+        <v>14800</v>
       </c>
       <c r="O1201" t="n">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="P1201" t="n">
-        <v>2900</v>
+        <v>14900</v>
       </c>
       <c r="Q1201" t="inlineStr">
         <is>
@@ -96466,7 +96466,7 @@
         </is>
       </c>
       <c r="S1201" t="n">
-        <v>181</v>
+        <v>931</v>
       </c>
       <c r="T1201" t="n">
         <v>16</v>
@@ -96487,7 +96487,7 @@
         </is>
       </c>
       <c r="D1202" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E1202" t="n">
         <v>4</v>
@@ -96520,20 +96520,20 @@
       </c>
       <c r="L1202" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1202" t="n">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="N1202" t="n">
-        <v>1800</v>
+        <v>14800</v>
       </c>
       <c r="O1202" t="n">
-        <v>2000</v>
+        <v>15000</v>
       </c>
       <c r="P1202" t="n">
-        <v>1906</v>
+        <v>14900</v>
       </c>
       <c r="Q1202" t="inlineStr">
         <is>
@@ -96542,11 +96542,11 @@
       </c>
       <c r="R1202" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1202" t="n">
-        <v>119</v>
+        <v>931</v>
       </c>
       <c r="T1202" t="n">
         <v>16</v>
@@ -96567,7 +96567,7 @@
         </is>
       </c>
       <c r="D1203" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E1203" t="n">
         <v>4</v>
@@ -96604,16 +96604,16 @@
         </is>
       </c>
       <c r="M1203" t="n">
-        <v>540</v>
+        <v>420</v>
       </c>
       <c r="N1203" t="n">
-        <v>1800</v>
+        <v>12800</v>
       </c>
       <c r="O1203" t="n">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="P1203" t="n">
-        <v>1900</v>
+        <v>12900</v>
       </c>
       <c r="Q1203" t="inlineStr">
         <is>
@@ -96626,7 +96626,7 @@
         </is>
       </c>
       <c r="S1203" t="n">
-        <v>119</v>
+        <v>806</v>
       </c>
       <c r="T1203" t="n">
         <v>16</v>
@@ -96647,7 +96647,7 @@
         </is>
       </c>
       <c r="D1204" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E1204" t="n">
         <v>4</v>
@@ -96680,20 +96680,20 @@
       </c>
       <c r="L1204" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1204" t="n">
-        <v>360</v>
+        <v>420</v>
       </c>
       <c r="N1204" t="n">
-        <v>800</v>
+        <v>12800</v>
       </c>
       <c r="O1204" t="n">
-        <v>1000</v>
+        <v>13000</v>
       </c>
       <c r="P1204" t="n">
-        <v>900</v>
+        <v>12900</v>
       </c>
       <c r="Q1204" t="inlineStr">
         <is>
@@ -96702,11 +96702,11 @@
       </c>
       <c r="R1204" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1204" t="n">
-        <v>56</v>
+        <v>806</v>
       </c>
       <c r="T1204" t="n">
         <v>16</v>
@@ -96727,7 +96727,7 @@
         </is>
       </c>
       <c r="D1205" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E1205" t="n">
         <v>4</v>
@@ -96764,16 +96764,16 @@
         </is>
       </c>
       <c r="M1205" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="N1205" t="n">
-        <v>800</v>
+        <v>9800</v>
       </c>
       <c r="O1205" t="n">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="P1205" t="n">
-        <v>900</v>
+        <v>9900</v>
       </c>
       <c r="Q1205" t="inlineStr">
         <is>
@@ -96786,7 +96786,7 @@
         </is>
       </c>
       <c r="S1205" t="n">
-        <v>56</v>
+        <v>619</v>
       </c>
       <c r="T1205" t="n">
         <v>16</v>
@@ -96807,7 +96807,7 @@
         </is>
       </c>
       <c r="D1206" s="2" t="n">
-        <v>44193</v>
+        <v>44438</v>
       </c>
       <c r="E1206" t="n">
         <v>4</v>
@@ -96844,32 +96844,32 @@
         </is>
       </c>
       <c r="M1206" t="n">
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="N1206" t="n">
-        <v>14800</v>
+        <v>2800</v>
       </c>
       <c r="O1206" t="n">
-        <v>15000</v>
+        <v>3000</v>
       </c>
       <c r="P1206" t="n">
-        <v>14900</v>
+        <v>2900</v>
       </c>
       <c r="Q1206" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R1206" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1206" t="n">
-        <v>828</v>
+        <v>181</v>
       </c>
       <c r="T1206" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1207">
@@ -96887,7 +96887,7 @@
         </is>
       </c>
       <c r="D1207" s="2" t="n">
-        <v>44193</v>
+        <v>44438</v>
       </c>
       <c r="E1207" t="n">
         <v>4</v>
@@ -96920,24 +96920,24 @@
       </c>
       <c r="L1207" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1207" t="n">
-        <v>510</v>
+        <v>600</v>
       </c>
       <c r="N1207" t="n">
-        <v>16800</v>
+        <v>2800</v>
       </c>
       <c r="O1207" t="n">
-        <v>17000</v>
+        <v>3000</v>
       </c>
       <c r="P1207" t="n">
-        <v>16900</v>
+        <v>2900</v>
       </c>
       <c r="Q1207" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R1207" t="inlineStr">
@@ -96946,10 +96946,10 @@
         </is>
       </c>
       <c r="S1207" t="n">
-        <v>939</v>
+        <v>181</v>
       </c>
       <c r="T1207" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1208">
@@ -96967,7 +96967,7 @@
         </is>
       </c>
       <c r="D1208" s="2" t="n">
-        <v>44193</v>
+        <v>44438</v>
       </c>
       <c r="E1208" t="n">
         <v>4</v>
@@ -97004,32 +97004,32 @@
         </is>
       </c>
       <c r="M1208" t="n">
-        <v>450</v>
+        <v>480</v>
       </c>
       <c r="N1208" t="n">
-        <v>12800</v>
+        <v>1800</v>
       </c>
       <c r="O1208" t="n">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="P1208" t="n">
-        <v>12900</v>
+        <v>1906</v>
       </c>
       <c r="Q1208" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R1208" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1208" t="n">
-        <v>717</v>
+        <v>119</v>
       </c>
       <c r="T1208" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1209">
@@ -97047,7 +97047,7 @@
         </is>
       </c>
       <c r="D1209" s="2" t="n">
-        <v>44193</v>
+        <v>44438</v>
       </c>
       <c r="E1209" t="n">
         <v>4</v>
@@ -97080,24 +97080,24 @@
       </c>
       <c r="L1209" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1209" t="n">
-        <v>420</v>
+        <v>540</v>
       </c>
       <c r="N1209" t="n">
-        <v>14800</v>
+        <v>1800</v>
       </c>
       <c r="O1209" t="n">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="P1209" t="n">
-        <v>14900</v>
+        <v>1900</v>
       </c>
       <c r="Q1209" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R1209" t="inlineStr">
@@ -97106,10 +97106,10 @@
         </is>
       </c>
       <c r="S1209" t="n">
-        <v>828</v>
+        <v>119</v>
       </c>
       <c r="T1209" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1210">
@@ -97127,7 +97127,7 @@
         </is>
       </c>
       <c r="D1210" s="2" t="n">
-        <v>44193</v>
+        <v>44438</v>
       </c>
       <c r="E1210" t="n">
         <v>4</v>
@@ -97167,29 +97167,29 @@
         <v>360</v>
       </c>
       <c r="N1210" t="n">
-        <v>10800</v>
+        <v>800</v>
       </c>
       <c r="O1210" t="n">
-        <v>11000</v>
+        <v>1000</v>
       </c>
       <c r="P1210" t="n">
-        <v>10900</v>
+        <v>900</v>
       </c>
       <c r="Q1210" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R1210" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1210" t="n">
-        <v>606</v>
+        <v>56</v>
       </c>
       <c r="T1210" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1211">
@@ -97207,7 +97207,7 @@
         </is>
       </c>
       <c r="D1211" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E1211" t="n">
         <v>4</v>
@@ -97240,20 +97240,20 @@
       </c>
       <c r="L1211" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1211" t="n">
-        <v>720</v>
+        <v>360</v>
       </c>
       <c r="N1211" t="n">
-        <v>9800</v>
+        <v>800</v>
       </c>
       <c r="O1211" t="n">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="P1211" t="n">
-        <v>9900</v>
+        <v>900</v>
       </c>
       <c r="Q1211" t="inlineStr">
         <is>
@@ -97266,7 +97266,7 @@
         </is>
       </c>
       <c r="S1211" t="n">
-        <v>619</v>
+        <v>56</v>
       </c>
       <c r="T1211" t="n">
         <v>16</v>
@@ -97287,7 +97287,7 @@
         </is>
       </c>
       <c r="D1212" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E1212" t="n">
         <v>4</v>
@@ -97320,24 +97320,24 @@
       </c>
       <c r="L1212" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1212" t="n">
         <v>600</v>
       </c>
       <c r="N1212" t="n">
-        <v>10800</v>
+        <v>14800</v>
       </c>
       <c r="O1212" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P1212" t="n">
-        <v>10900</v>
+        <v>14900</v>
       </c>
       <c r="Q1212" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1212" t="inlineStr">
@@ -97346,10 +97346,10 @@
         </is>
       </c>
       <c r="S1212" t="n">
-        <v>681</v>
+        <v>828</v>
       </c>
       <c r="T1212" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1213">
@@ -97367,7 +97367,7 @@
         </is>
       </c>
       <c r="D1213" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E1213" t="n">
         <v>4</v>
@@ -97400,24 +97400,24 @@
       </c>
       <c r="L1213" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1213" t="n">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="N1213" t="n">
-        <v>7800</v>
+        <v>16800</v>
       </c>
       <c r="O1213" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="P1213" t="n">
-        <v>7900</v>
+        <v>16900</v>
       </c>
       <c r="Q1213" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1213" t="inlineStr">
@@ -97426,10 +97426,10 @@
         </is>
       </c>
       <c r="S1213" t="n">
-        <v>494</v>
+        <v>939</v>
       </c>
       <c r="T1213" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1214">
@@ -97447,7 +97447,7 @@
         </is>
       </c>
       <c r="D1214" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E1214" t="n">
         <v>4</v>
@@ -97480,24 +97480,24 @@
       </c>
       <c r="L1214" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1214" t="n">
-        <v>510</v>
+        <v>450</v>
       </c>
       <c r="N1214" t="n">
-        <v>8800</v>
+        <v>12800</v>
       </c>
       <c r="O1214" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P1214" t="n">
-        <v>8900</v>
+        <v>12900</v>
       </c>
       <c r="Q1214" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1214" t="inlineStr">
@@ -97506,10 +97506,10 @@
         </is>
       </c>
       <c r="S1214" t="n">
-        <v>556</v>
+        <v>717</v>
       </c>
       <c r="T1214" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1215">
@@ -97527,7 +97527,7 @@
         </is>
       </c>
       <c r="D1215" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E1215" t="n">
         <v>4</v>
@@ -97560,24 +97560,24 @@
       </c>
       <c r="L1215" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1215" t="n">
         <v>420</v>
       </c>
       <c r="N1215" t="n">
-        <v>5800</v>
+        <v>14800</v>
       </c>
       <c r="O1215" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="P1215" t="n">
-        <v>5900</v>
+        <v>14900</v>
       </c>
       <c r="Q1215" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1215" t="inlineStr">
@@ -97586,10 +97586,10 @@
         </is>
       </c>
       <c r="S1215" t="n">
-        <v>369</v>
+        <v>828</v>
       </c>
       <c r="T1215" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1216">
@@ -97607,7 +97607,7 @@
         </is>
       </c>
       <c r="D1216" s="2" t="n">
-        <v>44389</v>
+        <v>44193</v>
       </c>
       <c r="E1216" t="n">
         <v>4</v>
@@ -97640,36 +97640,36 @@
       </c>
       <c r="L1216" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1216" t="n">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="N1216" t="n">
-        <v>3300</v>
+        <v>10800</v>
       </c>
       <c r="O1216" t="n">
-        <v>3500</v>
+        <v>11000</v>
       </c>
       <c r="P1216" t="n">
-        <v>3400</v>
+        <v>10900</v>
       </c>
       <c r="Q1216" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1216" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1216" t="n">
-        <v>212</v>
+        <v>606</v>
       </c>
       <c r="T1216" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1217">
@@ -97687,7 +97687,7 @@
         </is>
       </c>
       <c r="D1217" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E1217" t="n">
         <v>4</v>
@@ -97724,16 +97724,16 @@
         </is>
       </c>
       <c r="M1217" t="n">
-        <v>660</v>
+        <v>720</v>
       </c>
       <c r="N1217" t="n">
-        <v>3300</v>
+        <v>9800</v>
       </c>
       <c r="O1217" t="n">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="P1217" t="n">
-        <v>3400</v>
+        <v>9900</v>
       </c>
       <c r="Q1217" t="inlineStr">
         <is>
@@ -97746,7 +97746,7 @@
         </is>
       </c>
       <c r="S1217" t="n">
-        <v>212</v>
+        <v>619</v>
       </c>
       <c r="T1217" t="n">
         <v>16</v>
@@ -97767,7 +97767,7 @@
         </is>
       </c>
       <c r="D1218" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E1218" t="n">
         <v>4</v>
@@ -97800,20 +97800,20 @@
       </c>
       <c r="L1218" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1218" t="n">
-        <v>510</v>
+        <v>600</v>
       </c>
       <c r="N1218" t="n">
-        <v>2300</v>
+        <v>10800</v>
       </c>
       <c r="O1218" t="n">
-        <v>2500</v>
+        <v>11000</v>
       </c>
       <c r="P1218" t="n">
-        <v>2400</v>
+        <v>10900</v>
       </c>
       <c r="Q1218" t="inlineStr">
         <is>
@@ -97822,11 +97822,11 @@
       </c>
       <c r="R1218" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1218" t="n">
-        <v>150</v>
+        <v>681</v>
       </c>
       <c r="T1218" t="n">
         <v>16</v>
@@ -97847,7 +97847,7 @@
         </is>
       </c>
       <c r="D1219" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E1219" t="n">
         <v>4</v>
@@ -97884,16 +97884,16 @@
         </is>
       </c>
       <c r="M1219" t="n">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="N1219" t="n">
-        <v>2300</v>
+        <v>7800</v>
       </c>
       <c r="O1219" t="n">
-        <v>2500</v>
+        <v>8000</v>
       </c>
       <c r="P1219" t="n">
-        <v>2400</v>
+        <v>7900</v>
       </c>
       <c r="Q1219" t="inlineStr">
         <is>
@@ -97906,7 +97906,7 @@
         </is>
       </c>
       <c r="S1219" t="n">
-        <v>150</v>
+        <v>494</v>
       </c>
       <c r="T1219" t="n">
         <v>16</v>
@@ -97927,7 +97927,7 @@
         </is>
       </c>
       <c r="D1220" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E1220" t="n">
         <v>4</v>
@@ -97960,20 +97960,20 @@
       </c>
       <c r="L1220" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1220" t="n">
-        <v>390</v>
+        <v>510</v>
       </c>
       <c r="N1220" t="n">
-        <v>1300</v>
+        <v>8800</v>
       </c>
       <c r="O1220" t="n">
-        <v>1500</v>
+        <v>9000</v>
       </c>
       <c r="P1220" t="n">
-        <v>1400</v>
+        <v>8900</v>
       </c>
       <c r="Q1220" t="inlineStr">
         <is>
@@ -97982,11 +97982,11 @@
       </c>
       <c r="R1220" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1220" t="n">
-        <v>88</v>
+        <v>556</v>
       </c>
       <c r="T1220" t="n">
         <v>16</v>
@@ -98007,7 +98007,7 @@
         </is>
       </c>
       <c r="D1221" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E1221" t="n">
         <v>4</v>
@@ -98044,16 +98044,16 @@
         </is>
       </c>
       <c r="M1221" t="n">
-        <v>480</v>
+        <v>420</v>
       </c>
       <c r="N1221" t="n">
-        <v>1300</v>
+        <v>5800</v>
       </c>
       <c r="O1221" t="n">
-        <v>1500</v>
+        <v>6000</v>
       </c>
       <c r="P1221" t="n">
-        <v>1406</v>
+        <v>5900</v>
       </c>
       <c r="Q1221" t="inlineStr">
         <is>
@@ -98066,7 +98066,7 @@
         </is>
       </c>
       <c r="S1221" t="n">
-        <v>88</v>
+        <v>369</v>
       </c>
       <c r="T1221" t="n">
         <v>16</v>
@@ -98087,7 +98087,7 @@
         </is>
       </c>
       <c r="D1222" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1222" t="n">
         <v>4</v>
@@ -98124,16 +98124,16 @@
         </is>
       </c>
       <c r="M1222" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="N1222" t="n">
-        <v>11800</v>
+        <v>3300</v>
       </c>
       <c r="O1222" t="n">
-        <v>12000</v>
+        <v>3500</v>
       </c>
       <c r="P1222" t="n">
-        <v>11900</v>
+        <v>3400</v>
       </c>
       <c r="Q1222" t="inlineStr">
         <is>
@@ -98146,7 +98146,7 @@
         </is>
       </c>
       <c r="S1222" t="n">
-        <v>744</v>
+        <v>212</v>
       </c>
       <c r="T1222" t="n">
         <v>16</v>
@@ -98167,7 +98167,7 @@
         </is>
       </c>
       <c r="D1223" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1223" t="n">
         <v>4</v>
@@ -98204,16 +98204,16 @@
         </is>
       </c>
       <c r="M1223" t="n">
-        <v>450</v>
+        <v>660</v>
       </c>
       <c r="N1223" t="n">
-        <v>11800</v>
+        <v>3300</v>
       </c>
       <c r="O1223" t="n">
-        <v>12000</v>
+        <v>3500</v>
       </c>
       <c r="P1223" t="n">
-        <v>11900</v>
+        <v>3400</v>
       </c>
       <c r="Q1223" t="inlineStr">
         <is>
@@ -98226,7 +98226,7 @@
         </is>
       </c>
       <c r="S1223" t="n">
-        <v>744</v>
+        <v>212</v>
       </c>
       <c r="T1223" t="n">
         <v>16</v>
@@ -98247,7 +98247,7 @@
         </is>
       </c>
       <c r="D1224" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1224" t="n">
         <v>4</v>
@@ -98280,20 +98280,20 @@
       </c>
       <c r="L1224" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1224" t="n">
-        <v>390</v>
+        <v>510</v>
       </c>
       <c r="N1224" t="n">
-        <v>12800</v>
+        <v>2300</v>
       </c>
       <c r="O1224" t="n">
-        <v>13000</v>
+        <v>2500</v>
       </c>
       <c r="P1224" t="n">
-        <v>12900</v>
+        <v>2400</v>
       </c>
       <c r="Q1224" t="inlineStr">
         <is>
@@ -98306,7 +98306,7 @@
         </is>
       </c>
       <c r="S1224" t="n">
-        <v>806</v>
+        <v>150</v>
       </c>
       <c r="T1224" t="n">
         <v>16</v>
@@ -98327,7 +98327,7 @@
         </is>
       </c>
       <c r="D1225" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1225" t="n">
         <v>4</v>
@@ -98360,20 +98360,20 @@
       </c>
       <c r="L1225" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1225" t="n">
-        <v>360</v>
+        <v>560</v>
       </c>
       <c r="N1225" t="n">
-        <v>12800</v>
+        <v>2300</v>
       </c>
       <c r="O1225" t="n">
-        <v>13000</v>
+        <v>2500</v>
       </c>
       <c r="P1225" t="n">
-        <v>12900</v>
+        <v>2400</v>
       </c>
       <c r="Q1225" t="inlineStr">
         <is>
@@ -98386,7 +98386,7 @@
         </is>
       </c>
       <c r="S1225" t="n">
-        <v>806</v>
+        <v>150</v>
       </c>
       <c r="T1225" t="n">
         <v>16</v>
@@ -98407,7 +98407,7 @@
         </is>
       </c>
       <c r="D1226" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1226" t="n">
         <v>4</v>
@@ -98440,20 +98440,20 @@
       </c>
       <c r="L1226" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1226" t="n">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="N1226" t="n">
-        <v>9800</v>
+        <v>1300</v>
       </c>
       <c r="O1226" t="n">
-        <v>10000</v>
+        <v>1500</v>
       </c>
       <c r="P1226" t="n">
-        <v>9900</v>
+        <v>1400</v>
       </c>
       <c r="Q1226" t="inlineStr">
         <is>
@@ -98466,7 +98466,7 @@
         </is>
       </c>
       <c r="S1226" t="n">
-        <v>619</v>
+        <v>88</v>
       </c>
       <c r="T1226" t="n">
         <v>16</v>
@@ -98487,7 +98487,7 @@
         </is>
       </c>
       <c r="D1227" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1227" t="n">
         <v>4</v>
@@ -98520,20 +98520,20 @@
       </c>
       <c r="L1227" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1227" t="n">
-        <v>390</v>
+        <v>480</v>
       </c>
       <c r="N1227" t="n">
-        <v>9800</v>
+        <v>1300</v>
       </c>
       <c r="O1227" t="n">
-        <v>10000</v>
+        <v>1500</v>
       </c>
       <c r="P1227" t="n">
-        <v>9900</v>
+        <v>1406</v>
       </c>
       <c r="Q1227" t="inlineStr">
         <is>
@@ -98546,7 +98546,7 @@
         </is>
       </c>
       <c r="S1227" t="n">
-        <v>619</v>
+        <v>88</v>
       </c>
       <c r="T1227" t="n">
         <v>16</v>
@@ -98600,20 +98600,20 @@
       </c>
       <c r="L1228" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1228" t="n">
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="N1228" t="n">
-        <v>10800</v>
+        <v>11800</v>
       </c>
       <c r="O1228" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P1228" t="n">
-        <v>10900</v>
+        <v>11900</v>
       </c>
       <c r="Q1228" t="inlineStr">
         <is>
@@ -98626,7 +98626,7 @@
         </is>
       </c>
       <c r="S1228" t="n">
-        <v>681</v>
+        <v>744</v>
       </c>
       <c r="T1228" t="n">
         <v>16</v>
@@ -98680,20 +98680,20 @@
       </c>
       <c r="L1229" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1229" t="n">
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="N1229" t="n">
-        <v>10800</v>
+        <v>11800</v>
       </c>
       <c r="O1229" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P1229" t="n">
-        <v>10900</v>
+        <v>11900</v>
       </c>
       <c r="Q1229" t="inlineStr">
         <is>
@@ -98706,7 +98706,7 @@
         </is>
       </c>
       <c r="S1229" t="n">
-        <v>681</v>
+        <v>744</v>
       </c>
       <c r="T1229" t="n">
         <v>16</v>
@@ -98760,20 +98760,20 @@
       </c>
       <c r="L1230" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1230" t="n">
-        <v>340</v>
+        <v>390</v>
       </c>
       <c r="N1230" t="n">
-        <v>7800</v>
+        <v>12800</v>
       </c>
       <c r="O1230" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P1230" t="n">
-        <v>7900</v>
+        <v>12900</v>
       </c>
       <c r="Q1230" t="inlineStr">
         <is>
@@ -98786,7 +98786,7 @@
         </is>
       </c>
       <c r="S1230" t="n">
-        <v>494</v>
+        <v>806</v>
       </c>
       <c r="T1230" t="n">
         <v>16</v>
@@ -98840,20 +98840,20 @@
       </c>
       <c r="L1231" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1231" t="n">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="N1231" t="n">
-        <v>7800</v>
+        <v>12800</v>
       </c>
       <c r="O1231" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P1231" t="n">
-        <v>7900</v>
+        <v>12900</v>
       </c>
       <c r="Q1231" t="inlineStr">
         <is>
@@ -98866,7 +98866,7 @@
         </is>
       </c>
       <c r="S1231" t="n">
-        <v>494</v>
+        <v>806</v>
       </c>
       <c r="T1231" t="n">
         <v>16</v>
@@ -98920,20 +98920,20 @@
       </c>
       <c r="L1232" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1232" t="n">
-        <v>280</v>
+        <v>420</v>
       </c>
       <c r="N1232" t="n">
-        <v>8800</v>
+        <v>9800</v>
       </c>
       <c r="O1232" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P1232" t="n">
-        <v>8900</v>
+        <v>9900</v>
       </c>
       <c r="Q1232" t="inlineStr">
         <is>
@@ -98946,7 +98946,7 @@
         </is>
       </c>
       <c r="S1232" t="n">
-        <v>556</v>
+        <v>619</v>
       </c>
       <c r="T1232" t="n">
         <v>16</v>
@@ -99000,20 +99000,20 @@
       </c>
       <c r="L1233" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1233" t="n">
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="N1233" t="n">
-        <v>8800</v>
+        <v>9800</v>
       </c>
       <c r="O1233" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P1233" t="n">
-        <v>8900</v>
+        <v>9900</v>
       </c>
       <c r="Q1233" t="inlineStr">
         <is>
@@ -99026,7 +99026,7 @@
         </is>
       </c>
       <c r="S1233" t="n">
-        <v>556</v>
+        <v>619</v>
       </c>
       <c r="T1233" t="n">
         <v>16</v>
@@ -99047,7 +99047,7 @@
         </is>
       </c>
       <c r="D1234" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1234" t="n">
         <v>4</v>
@@ -99080,20 +99080,20 @@
       </c>
       <c r="L1234" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1234" t="n">
-        <v>510</v>
+        <v>360</v>
       </c>
       <c r="N1234" t="n">
-        <v>11800</v>
+        <v>10800</v>
       </c>
       <c r="O1234" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P1234" t="n">
-        <v>11900</v>
+        <v>10900</v>
       </c>
       <c r="Q1234" t="inlineStr">
         <is>
@@ -99106,7 +99106,7 @@
         </is>
       </c>
       <c r="S1234" t="n">
-        <v>744</v>
+        <v>681</v>
       </c>
       <c r="T1234" t="n">
         <v>16</v>
@@ -99127,7 +99127,7 @@
         </is>
       </c>
       <c r="D1235" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1235" t="n">
         <v>4</v>
@@ -99160,20 +99160,20 @@
       </c>
       <c r="L1235" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1235" t="n">
-        <v>540</v>
+        <v>360</v>
       </c>
       <c r="N1235" t="n">
-        <v>11800</v>
+        <v>10800</v>
       </c>
       <c r="O1235" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P1235" t="n">
-        <v>11900</v>
+        <v>10900</v>
       </c>
       <c r="Q1235" t="inlineStr">
         <is>
@@ -99186,7 +99186,7 @@
         </is>
       </c>
       <c r="S1235" t="n">
-        <v>744</v>
+        <v>681</v>
       </c>
       <c r="T1235" t="n">
         <v>16</v>
@@ -99207,7 +99207,7 @@
         </is>
       </c>
       <c r="D1236" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1236" t="n">
         <v>4</v>
@@ -99240,20 +99240,20 @@
       </c>
       <c r="L1236" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1236" t="n">
-        <v>450</v>
+        <v>340</v>
       </c>
       <c r="N1236" t="n">
-        <v>11800</v>
+        <v>7800</v>
       </c>
       <c r="O1236" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P1236" t="n">
-        <v>11900</v>
+        <v>7900</v>
       </c>
       <c r="Q1236" t="inlineStr">
         <is>
@@ -99266,7 +99266,7 @@
         </is>
       </c>
       <c r="S1236" t="n">
-        <v>744</v>
+        <v>494</v>
       </c>
       <c r="T1236" t="n">
         <v>16</v>
@@ -99287,7 +99287,7 @@
         </is>
       </c>
       <c r="D1237" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1237" t="n">
         <v>4</v>
@@ -99320,20 +99320,20 @@
       </c>
       <c r="L1237" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1237" t="n">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="N1237" t="n">
-        <v>11800</v>
+        <v>7800</v>
       </c>
       <c r="O1237" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P1237" t="n">
-        <v>11900</v>
+        <v>7900</v>
       </c>
       <c r="Q1237" t="inlineStr">
         <is>
@@ -99346,7 +99346,7 @@
         </is>
       </c>
       <c r="S1237" t="n">
-        <v>744</v>
+        <v>494</v>
       </c>
       <c r="T1237" t="n">
         <v>16</v>
@@ -99367,7 +99367,7 @@
         </is>
       </c>
       <c r="D1238" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1238" t="n">
         <v>4</v>
@@ -99400,20 +99400,20 @@
       </c>
       <c r="L1238" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1238" t="n">
-        <v>470</v>
+        <v>280</v>
       </c>
       <c r="N1238" t="n">
-        <v>9800</v>
+        <v>8800</v>
       </c>
       <c r="O1238" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P1238" t="n">
-        <v>9900</v>
+        <v>8900</v>
       </c>
       <c r="Q1238" t="inlineStr">
         <is>
@@ -99426,7 +99426,7 @@
         </is>
       </c>
       <c r="S1238" t="n">
-        <v>619</v>
+        <v>556</v>
       </c>
       <c r="T1238" t="n">
         <v>16</v>
@@ -99447,7 +99447,7 @@
         </is>
       </c>
       <c r="D1239" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1239" t="n">
         <v>4</v>
@@ -99480,20 +99480,20 @@
       </c>
       <c r="L1239" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1239" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="N1239" t="n">
-        <v>9800</v>
+        <v>8800</v>
       </c>
       <c r="O1239" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P1239" t="n">
-        <v>9900</v>
+        <v>8900</v>
       </c>
       <c r="Q1239" t="inlineStr">
         <is>
@@ -99506,7 +99506,7 @@
         </is>
       </c>
       <c r="S1239" t="n">
-        <v>619</v>
+        <v>556</v>
       </c>
       <c r="T1239" t="n">
         <v>16</v>
@@ -99560,20 +99560,20 @@
       </c>
       <c r="L1240" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1240" t="n">
-        <v>390</v>
+        <v>510</v>
       </c>
       <c r="N1240" t="n">
-        <v>9800</v>
+        <v>11800</v>
       </c>
       <c r="O1240" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P1240" t="n">
-        <v>9900</v>
+        <v>11900</v>
       </c>
       <c r="Q1240" t="inlineStr">
         <is>
@@ -99586,7 +99586,7 @@
         </is>
       </c>
       <c r="S1240" t="n">
-        <v>619</v>
+        <v>744</v>
       </c>
       <c r="T1240" t="n">
         <v>16</v>
@@ -99640,20 +99640,20 @@
       </c>
       <c r="L1241" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1241" t="n">
-        <v>360</v>
+        <v>540</v>
       </c>
       <c r="N1241" t="n">
-        <v>9800</v>
+        <v>11800</v>
       </c>
       <c r="O1241" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P1241" t="n">
-        <v>9900</v>
+        <v>11900</v>
       </c>
       <c r="Q1241" t="inlineStr">
         <is>
@@ -99666,7 +99666,7 @@
         </is>
       </c>
       <c r="S1241" t="n">
-        <v>619</v>
+        <v>744</v>
       </c>
       <c r="T1241" t="n">
         <v>16</v>
@@ -99720,20 +99720,20 @@
       </c>
       <c r="L1242" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1242" t="n">
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="N1242" t="n">
-        <v>7800</v>
+        <v>11800</v>
       </c>
       <c r="O1242" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P1242" t="n">
-        <v>7900</v>
+        <v>11900</v>
       </c>
       <c r="Q1242" t="inlineStr">
         <is>
@@ -99746,7 +99746,7 @@
         </is>
       </c>
       <c r="S1242" t="n">
-        <v>494</v>
+        <v>744</v>
       </c>
       <c r="T1242" t="n">
         <v>16</v>
@@ -99800,20 +99800,20 @@
       </c>
       <c r="L1243" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1243" t="n">
-        <v>390</v>
+        <v>420</v>
       </c>
       <c r="N1243" t="n">
-        <v>7800</v>
+        <v>11800</v>
       </c>
       <c r="O1243" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P1243" t="n">
-        <v>7900</v>
+        <v>11900</v>
       </c>
       <c r="Q1243" t="inlineStr">
         <is>
@@ -99826,7 +99826,7 @@
         </is>
       </c>
       <c r="S1243" t="n">
-        <v>494</v>
+        <v>744</v>
       </c>
       <c r="T1243" t="n">
         <v>16</v>
@@ -99880,20 +99880,20 @@
       </c>
       <c r="L1244" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1244" t="n">
-        <v>320</v>
+        <v>470</v>
       </c>
       <c r="N1244" t="n">
-        <v>7800</v>
+        <v>9800</v>
       </c>
       <c r="O1244" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P1244" t="n">
-        <v>7900</v>
+        <v>9900</v>
       </c>
       <c r="Q1244" t="inlineStr">
         <is>
@@ -99906,7 +99906,7 @@
         </is>
       </c>
       <c r="S1244" t="n">
-        <v>494</v>
+        <v>619</v>
       </c>
       <c r="T1244" t="n">
         <v>16</v>
@@ -99960,20 +99960,20 @@
       </c>
       <c r="L1245" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1245" t="n">
-        <v>390</v>
+        <v>450</v>
       </c>
       <c r="N1245" t="n">
-        <v>7800</v>
+        <v>9800</v>
       </c>
       <c r="O1245" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P1245" t="n">
-        <v>7900</v>
+        <v>9900</v>
       </c>
       <c r="Q1245" t="inlineStr">
         <is>
@@ -99986,7 +99986,7 @@
         </is>
       </c>
       <c r="S1245" t="n">
-        <v>494</v>
+        <v>619</v>
       </c>
       <c r="T1245" t="n">
         <v>16</v>
@@ -100007,7 +100007,7 @@
         </is>
       </c>
       <c r="D1246" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1246" t="n">
         <v>4</v>
@@ -100040,20 +100040,20 @@
       </c>
       <c r="L1246" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1246" t="n">
-        <v>560</v>
+        <v>390</v>
       </c>
       <c r="N1246" t="n">
-        <v>2800</v>
+        <v>9800</v>
       </c>
       <c r="O1246" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="P1246" t="n">
-        <v>2900</v>
+        <v>9900</v>
       </c>
       <c r="Q1246" t="inlineStr">
         <is>
@@ -100066,7 +100066,7 @@
         </is>
       </c>
       <c r="S1246" t="n">
-        <v>181</v>
+        <v>619</v>
       </c>
       <c r="T1246" t="n">
         <v>16</v>
@@ -100087,7 +100087,7 @@
         </is>
       </c>
       <c r="D1247" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1247" t="n">
         <v>4</v>
@@ -100120,20 +100120,20 @@
       </c>
       <c r="L1247" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1247" t="n">
-        <v>620</v>
+        <v>360</v>
       </c>
       <c r="N1247" t="n">
-        <v>2800</v>
+        <v>9800</v>
       </c>
       <c r="O1247" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="P1247" t="n">
-        <v>2900</v>
+        <v>9900</v>
       </c>
       <c r="Q1247" t="inlineStr">
         <is>
@@ -100146,7 +100146,7 @@
         </is>
       </c>
       <c r="S1247" t="n">
-        <v>181</v>
+        <v>619</v>
       </c>
       <c r="T1247" t="n">
         <v>16</v>
@@ -100167,7 +100167,7 @@
         </is>
       </c>
       <c r="D1248" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1248" t="n">
         <v>4</v>
@@ -100200,20 +100200,20 @@
       </c>
       <c r="L1248" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1248" t="n">
-        <v>450</v>
+        <v>360</v>
       </c>
       <c r="N1248" t="n">
-        <v>1800</v>
+        <v>7800</v>
       </c>
       <c r="O1248" t="n">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="P1248" t="n">
-        <v>1900</v>
+        <v>7900</v>
       </c>
       <c r="Q1248" t="inlineStr">
         <is>
@@ -100226,7 +100226,7 @@
         </is>
       </c>
       <c r="S1248" t="n">
-        <v>119</v>
+        <v>494</v>
       </c>
       <c r="T1248" t="n">
         <v>16</v>
@@ -100247,7 +100247,7 @@
         </is>
       </c>
       <c r="D1249" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1249" t="n">
         <v>4</v>
@@ -100280,20 +100280,20 @@
       </c>
       <c r="L1249" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1249" t="n">
-        <v>540</v>
+        <v>390</v>
       </c>
       <c r="N1249" t="n">
-        <v>1800</v>
+        <v>7800</v>
       </c>
       <c r="O1249" t="n">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="P1249" t="n">
-        <v>1900</v>
+        <v>7900</v>
       </c>
       <c r="Q1249" t="inlineStr">
         <is>
@@ -100306,7 +100306,7 @@
         </is>
       </c>
       <c r="S1249" t="n">
-        <v>119</v>
+        <v>494</v>
       </c>
       <c r="T1249" t="n">
         <v>16</v>
@@ -100327,7 +100327,7 @@
         </is>
       </c>
       <c r="D1250" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1250" t="n">
         <v>4</v>
@@ -100360,20 +100360,20 @@
       </c>
       <c r="L1250" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1250" t="n">
-        <v>390</v>
+        <v>320</v>
       </c>
       <c r="N1250" t="n">
-        <v>800</v>
+        <v>7800</v>
       </c>
       <c r="O1250" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="P1250" t="n">
-        <v>908</v>
+        <v>7900</v>
       </c>
       <c r="Q1250" t="inlineStr">
         <is>
@@ -100386,7 +100386,7 @@
         </is>
       </c>
       <c r="S1250" t="n">
-        <v>57</v>
+        <v>494</v>
       </c>
       <c r="T1250" t="n">
         <v>16</v>
@@ -100407,68 +100407,548 @@
         </is>
       </c>
       <c r="D1251" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E1251" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1251" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1251" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1251" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1251" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1251" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1251" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1251" t="inlineStr">
+        <is>
+          <t>3a plateado</t>
+        </is>
+      </c>
+      <c r="M1251" t="n">
+        <v>390</v>
+      </c>
+      <c r="N1251" t="n">
+        <v>7800</v>
+      </c>
+      <c r="O1251" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P1251" t="n">
+        <v>7900</v>
+      </c>
+      <c r="Q1251" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R1251" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S1251" t="n">
+        <v>494</v>
+      </c>
+      <c r="T1251" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1252" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1252" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1252" s="2" t="n">
         <v>44432</v>
       </c>
-      <c r="E1251" t="n">
-        <v>4</v>
-      </c>
-      <c r="F1251" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G1251" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H1251" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I1251" t="n">
-        <v>100102003</v>
-      </c>
-      <c r="J1251" t="inlineStr">
-        <is>
-          <t>Limón</t>
-        </is>
-      </c>
-      <c r="K1251" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L1251" t="inlineStr">
+      <c r="E1252" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1252" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1252" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1252" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1252" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1252" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1252" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1252" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M1252" t="n">
+        <v>560</v>
+      </c>
+      <c r="N1252" t="n">
+        <v>2800</v>
+      </c>
+      <c r="O1252" t="n">
+        <v>3000</v>
+      </c>
+      <c r="P1252" t="n">
+        <v>2900</v>
+      </c>
+      <c r="Q1252" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R1252" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S1252" t="n">
+        <v>181</v>
+      </c>
+      <c r="T1252" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1253" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1253" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1253" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1253" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1253" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1253" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1253" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1253" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1253" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1253" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1253" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M1253" t="n">
+        <v>620</v>
+      </c>
+      <c r="N1253" t="n">
+        <v>2800</v>
+      </c>
+      <c r="O1253" t="n">
+        <v>3000</v>
+      </c>
+      <c r="P1253" t="n">
+        <v>2900</v>
+      </c>
+      <c r="Q1253" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R1253" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S1253" t="n">
+        <v>181</v>
+      </c>
+      <c r="T1253" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1254">
+      <c r="A1254" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1254" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1254" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1254" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1254" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1254" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1254" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1254" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1254" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1254" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1254" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1254" t="inlineStr">
+        <is>
+          <t>2a amarillo</t>
+        </is>
+      </c>
+      <c r="M1254" t="n">
+        <v>450</v>
+      </c>
+      <c r="N1254" t="n">
+        <v>1800</v>
+      </c>
+      <c r="O1254" t="n">
+        <v>2000</v>
+      </c>
+      <c r="P1254" t="n">
+        <v>1900</v>
+      </c>
+      <c r="Q1254" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R1254" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S1254" t="n">
+        <v>119</v>
+      </c>
+      <c r="T1254" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1255">
+      <c r="A1255" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1255" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1255" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1255" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1255" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1255" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1255" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1255" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1255" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1255" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1255" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1255" t="inlineStr">
+        <is>
+          <t>2a amarillo</t>
+        </is>
+      </c>
+      <c r="M1255" t="n">
+        <v>540</v>
+      </c>
+      <c r="N1255" t="n">
+        <v>1800</v>
+      </c>
+      <c r="O1255" t="n">
+        <v>2000</v>
+      </c>
+      <c r="P1255" t="n">
+        <v>1900</v>
+      </c>
+      <c r="Q1255" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R1255" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S1255" t="n">
+        <v>119</v>
+      </c>
+      <c r="T1255" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1256">
+      <c r="A1256" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1256" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1256" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1256" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1256" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1256" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1256" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1256" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1256" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1256" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1256" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1256" t="inlineStr">
         <is>
           <t>3a amarillo</t>
         </is>
       </c>
-      <c r="M1251" t="n">
+      <c r="M1256" t="n">
+        <v>390</v>
+      </c>
+      <c r="N1256" t="n">
+        <v>800</v>
+      </c>
+      <c r="O1256" t="n">
+        <v>1000</v>
+      </c>
+      <c r="P1256" t="n">
+        <v>908</v>
+      </c>
+      <c r="Q1256" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R1256" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S1256" t="n">
+        <v>57</v>
+      </c>
+      <c r="T1256" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1257">
+      <c r="A1257" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1257" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1257" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1257" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1257" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1257" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1257" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1257" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1257" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1257" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1257" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1257" t="inlineStr">
+        <is>
+          <t>3a amarillo</t>
+        </is>
+      </c>
+      <c r="M1257" t="n">
         <v>490</v>
       </c>
-      <c r="N1251" t="n">
+      <c r="N1257" t="n">
         <v>800</v>
       </c>
-      <c r="O1251" t="n">
+      <c r="O1257" t="n">
         <v>1000</v>
       </c>
-      <c r="P1251" t="n">
+      <c r="P1257" t="n">
         <v>896</v>
       </c>
-      <c r="Q1251" t="inlineStr">
-        <is>
-          <t>$/malla 16 kilos</t>
-        </is>
-      </c>
-      <c r="R1251" t="inlineStr">
+      <c r="Q1257" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R1257" t="inlineStr">
         <is>
           <t>Provincia del Elquí</t>
         </is>
       </c>
-      <c r="S1251" t="n">
+      <c r="S1257" t="n">
         <v>56</v>
       </c>
-      <c r="T1251" t="n">
+      <c r="T1257" t="n">
         <v>16</v>
       </c>
     </row>
